--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>lundi</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Graylog reporting</t>
-  </si>
-  <si>
-    <t>Trap SNMP</t>
   </si>
   <si>
     <t>OSSIM</t>
@@ -281,6 +278,14 @@
   </si>
   <si>
     <t>IPTables</t>
+  </si>
+  <si>
+    <t>Pytbull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap SNMP vers 
+Centreon si grosse alerte
++ supervision Centreon </t>
   </si>
 </sst>
 </file>
@@ -605,21 +610,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,31 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -960,7 +965,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,10 +980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -988,12 +993,12 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1020,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1029,13 +1034,13 @@
       <c r="D3" s="8"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1049,13 +1054,13 @@
       <c r="D4" s="8"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1069,13 +1074,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
       <c r="F5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,23 +1090,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>46</v>
+      <c r="D6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,17 +1116,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,15 +1136,15 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1150,8 +1155,8 @@
         <v>43258</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1166,14 +1171,14 @@
         <v>43259</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,14 +1189,14 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1202,10 +1207,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="30"/>
       <c r="J12" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1215,21 +1220,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="F13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1239,17 +1244,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="F14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,17 +1264,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="F15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1279,17 +1284,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="F16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1299,17 +1304,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="F17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1319,16 +1324,18 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="21"/>
+      <c r="F18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1337,17 +1344,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="F19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,21 +1364,21 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>41</v>
+      <c r="D20" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="F20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1381,15 +1388,15 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="8"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1399,15 +1406,15 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="8"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1417,8 +1424,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1433,8 +1440,8 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1450,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,15 +1460,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1471,15 +1478,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1489,17 +1496,17 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,15 +1516,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1527,15 +1534,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1545,8 +1552,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1561,8 +1568,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1572,8 +1579,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,8 +1590,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,10 +1601,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1609,8 +1616,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1622,8 +1629,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1635,8 +1642,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="8" t="s">
         <v>13</v>
       </c>
@@ -1648,8 +1655,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1661,8 +1668,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,8 +1679,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,7 +1691,7 @@
         <v>43290</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -1699,7 +1706,7 @@
         <v>43291</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="28"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>43292</v>
       </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="28"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1732,7 @@
         <v>43293</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="28"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="8" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1745,7 @@
         <v>43294</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="28"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="8" t="s">
         <v>21</v>
       </c>
@@ -1751,7 +1758,7 @@
         <v>43295</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="28"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,7 +1769,7 @@
         <v>43296</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="26"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,10 +1779,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="8"/>
@@ -1787,8 +1794,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,8 +1805,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,8 +1816,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,8 +1827,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,8 +1838,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,8 +1849,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="26"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,8 +1860,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="32" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E55" s="8"/>
@@ -1866,8 +1873,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,8 +1884,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,8 +1895,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,8 +1906,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,8 +1917,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,8 +1928,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,10 +1939,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="8"/>
@@ -1947,8 +1954,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="28"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,8 +1965,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="28"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,8 +1976,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,8 +1987,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1991,8 +1998,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,8 +2009,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="28"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,10 +2020,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="28"/>
+      <c r="C69" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="29"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,8 +2033,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,8 +2044,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,8 +2055,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2059,8 +2066,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,8 +2077,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,8 +2088,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,10 +2099,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" s="32" t="s">
+      <c r="C76" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="8"/>
@@ -2107,8 +2114,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,8 +2125,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,8 +2136,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,8 +2147,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,8 +2158,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,8 +2169,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,10 +2180,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="27" t="s">
+      <c r="C83" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="31" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="8"/>
@@ -2188,8 +2195,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,8 +2206,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,8 +2217,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2228,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,8 +2239,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,8 +2250,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,10 +2261,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="31" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="8"/>
@@ -2269,8 +2276,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,8 +2287,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,8 +2298,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,8 +2309,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,8 +2320,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,8 +2331,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="26"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2335,11 +2342,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="32" t="s">
-        <v>40</v>
+      <c r="C97" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2350,8 +2357,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,8 +2368,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,8 +2379,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,8 +2390,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,8 +2401,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,8 +2412,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="26"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,9 +2423,9 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="27" t="s">
-        <v>37</v>
+      <c r="C104" s="29"/>
+      <c r="D104" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2429,8 +2436,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2440,8 +2447,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,8 +2458,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,8 +2469,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,8 +2480,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,8 +2491,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,7 +2503,9 @@
         <v>43360</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="D111" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2507,7 +2516,7 @@
         <v>43361</v>
       </c>
       <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="29"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2518,7 +2527,7 @@
         <v>43362</v>
       </c>
       <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="D113" s="29"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,7 +2538,7 @@
         <v>43363</v>
       </c>
       <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="D114" s="29"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,7 +2549,7 @@
         <v>43364</v>
       </c>
       <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="D115" s="29"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2551,7 +2560,7 @@
         <v>43365</v>
       </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,7 +2571,7 @@
         <v>43366</v>
       </c>
       <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="D117" s="30"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,28 +3025,8 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C76:C82"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C110"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="C69:C75"/>
+  <mergeCells count="36">
+    <mergeCell ref="D111:D117"/>
     <mergeCell ref="E6:E12"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D6:D12"/>
@@ -3052,6 +3041,27 @@
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="D20:D40"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D62:D75"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C97:C110"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="90">
   <si>
     <t>lundi</t>
   </si>
@@ -286,6 +286,18 @@
     <t xml:space="preserve">Trap SNMP vers 
 Centreon si grosse alerte
 + supervision Centreon </t>
+  </si>
+  <si>
+    <t>Graylog en VM?</t>
+  </si>
+  <si>
+    <t>cgroup</t>
+  </si>
+  <si>
+    <t>Linux kernel mailing list</t>
+  </si>
+  <si>
+    <t>Sites kernel de la FAQ LKML</t>
   </si>
 </sst>
 </file>
@@ -518,17 +530,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -547,6 +548,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -597,8 +607,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,55 +620,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -965,7 +975,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,10 +990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -993,12 +1003,12 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1028,9 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="J2" s="23" t="s">
         <v>55</v>
       </c>
@@ -1038,7 +1050,9 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J3" s="23" t="s">
         <v>56</v>
       </c>
@@ -1090,13 +1104,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1116,9 +1130,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="13" t="s">
         <v>83</v>
       </c>
@@ -1136,10 +1150,12 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1154,9 +1170,11 @@
       <c r="B9" s="6">
         <v>43258</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1171,8 +1189,8 @@
         <v>43259</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1189,8 +1207,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -1207,8 +1225,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26"/>
       <c r="J12" s="21" t="s">
         <v>64</v>
       </c>
@@ -1220,19 +1238,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="21" t="s">
         <v>65</v>
       </c>
@@ -1244,15 +1262,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="24" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="21" t="s">
         <v>66</v>
       </c>
@@ -1264,15 +1282,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="24" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="21" t="s">
         <v>67</v>
       </c>
@@ -1284,15 +1302,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="21" t="s">
         <v>68</v>
       </c>
@@ -1304,15 +1322,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="24" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="21" t="s">
         <v>69</v>
       </c>
@@ -1324,15 +1342,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="24" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="21" t="s">
         <v>82</v>
       </c>
@@ -1344,15 +1362,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="24" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="22" t="s">
         <v>70</v>
       </c>
@@ -1364,19 +1382,19 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="21" t="s">
         <v>71</v>
       </c>
@@ -1388,13 +1406,15 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="21" t="s">
         <v>72</v>
       </c>
@@ -1406,8 +1426,8 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="8"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
@@ -1424,8 +1444,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1440,8 +1460,8 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1460,8 +1480,8 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
@@ -1478,8 +1498,8 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
@@ -1496,10 +1516,10 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="29"/>
+      <c r="C27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
@@ -1516,8 +1536,8 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
@@ -1534,8 +1554,8 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -1552,8 +1572,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1568,8 +1588,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1579,8 +1599,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,8 +1610,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,10 +1621,8 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="29"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1616,8 +1634,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1629,8 +1647,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1642,8 +1660,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="8" t="s">
         <v>13</v>
       </c>
@@ -1655,8 +1673,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1668,8 +1686,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,8 +1697,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1709,7 @@
         <v>43290</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -1706,7 +1724,7 @@
         <v>43291</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="29"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>43292</v>
       </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="29"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1750,7 @@
         <v>43293</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="29"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="8" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>43294</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="29"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="8" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1776,7 @@
         <v>43295</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="29"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,7 +1787,7 @@
         <v>43296</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="30"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,10 +1797,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="8"/>
@@ -1794,8 +1812,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,8 +1823,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,8 +1834,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,8 +1845,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,8 +1856,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,8 +1867,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,8 +1878,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E55" s="8"/>
@@ -1873,8 +1891,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,8 +1902,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,8 +1913,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,8 +1924,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,8 +1935,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,8 +1946,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,7 +1960,7 @@
       <c r="C62" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="8"/>
@@ -1955,7 +1973,7 @@
         <v>43312</v>
       </c>
       <c r="C63" s="33"/>
-      <c r="D63" s="29"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,7 +1984,7 @@
         <v>43313</v>
       </c>
       <c r="C64" s="33"/>
-      <c r="D64" s="29"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1977,7 +1995,7 @@
         <v>43314</v>
       </c>
       <c r="C65" s="33"/>
-      <c r="D65" s="29"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,7 +2006,7 @@
         <v>43315</v>
       </c>
       <c r="C66" s="33"/>
-      <c r="D66" s="29"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1999,7 +2017,7 @@
         <v>43316</v>
       </c>
       <c r="C67" s="33"/>
-      <c r="D67" s="29"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,7 +2028,7 @@
         <v>43317</v>
       </c>
       <c r="C68" s="34"/>
-      <c r="D68" s="29"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,10 +2038,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D69" s="29"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2033,8 +2051,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,8 +2062,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,8 +2073,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,8 +2084,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,8 +2095,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,8 +2106,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,10 +2117,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="8"/>
@@ -2114,8 +2132,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,8 +2143,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,8 +2154,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,8 +2165,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,8 +2176,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2169,8 +2187,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,10 +2198,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="8"/>
@@ -2195,8 +2213,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,8 +2224,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,8 +2235,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,8 +2246,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,8 +2257,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2250,8 +2268,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,7 +2282,7 @@
       <c r="C90" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="8"/>
@@ -2277,7 +2295,7 @@
         <v>43340</v>
       </c>
       <c r="C91" s="33"/>
-      <c r="D91" s="29"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C92" s="33"/>
-      <c r="D92" s="29"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,7 +2317,7 @@
         <v>43342</v>
       </c>
       <c r="C93" s="33"/>
-      <c r="D93" s="29"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,7 +2328,7 @@
         <v>43343</v>
       </c>
       <c r="C94" s="33"/>
-      <c r="D94" s="29"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,7 +2339,7 @@
         <v>43344</v>
       </c>
       <c r="C95" s="33"/>
-      <c r="D95" s="29"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,7 +2350,7 @@
         <v>43345</v>
       </c>
       <c r="C96" s="34"/>
-      <c r="D96" s="30"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,10 +2360,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="31" t="s">
         <v>39</v>
       </c>
       <c r="E97" s="8"/>
@@ -2357,8 +2375,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,8 +2386,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,8 +2397,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2390,8 +2408,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,8 +2419,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,8 +2430,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,8 +2441,8 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="28" t="s">
+      <c r="C104" s="26"/>
+      <c r="D104" s="31" t="s">
         <v>85</v>
       </c>
       <c r="E104" s="8"/>
@@ -2436,8 +2454,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,8 +2465,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2458,8 +2476,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,8 +2487,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,8 +2498,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2491,8 +2509,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,7 +2521,7 @@
         <v>43360</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="25" t="s">
         <v>84</v>
       </c>
       <c r="E111" s="8"/>
@@ -2516,7 +2534,7 @@
         <v>43361</v>
       </c>
       <c r="C112" s="8"/>
-      <c r="D112" s="29"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,7 +2545,7 @@
         <v>43362</v>
       </c>
       <c r="C113" s="8"/>
-      <c r="D113" s="29"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,7 +2556,7 @@
         <v>43363</v>
       </c>
       <c r="C114" s="8"/>
-      <c r="D114" s="29"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2549,7 +2567,7 @@
         <v>43364</v>
       </c>
       <c r="C115" s="8"/>
-      <c r="D115" s="29"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2560,7 +2578,7 @@
         <v>43365</v>
       </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="29"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,7 +2589,7 @@
         <v>43366</v>
       </c>
       <c r="C117" s="8"/>
-      <c r="D117" s="30"/>
+      <c r="D117" s="27"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3025,22 +3043,34 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
+  <mergeCells count="37">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C97:C110"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C27:C33"/>
     <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="D20:D40"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D61"/>
     <mergeCell ref="D62:D75"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="D83:D89"/>
@@ -3051,17 +3081,6 @@
     <mergeCell ref="D104:D110"/>
     <mergeCell ref="C76:C82"/>
     <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C110"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
   <si>
     <t>lundi</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>POC</t>
-  </si>
-  <si>
-    <t>Pytbull testing IDS</t>
   </si>
   <si>
     <t>SSL - SSH - OpenSSL</t>
@@ -623,6 +620,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,6 +650,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,33 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,7 +972,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1003,12 +1000,12 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1023,16 +1020,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="13"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1046,15 +1041,15 @@
       <c r="D3" s="8"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1068,13 +1063,13 @@
       <c r="D4" s="8"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,14 +1082,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1104,23 +1097,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>45</v>
+      <c r="D6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1130,17 +1123,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1150,17 +1143,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1173,8 +1166,8 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1189,14 +1182,14 @@
         <v>43259</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1207,14 +1200,14 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1225,10 +1218,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="33"/>
       <c r="J12" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,21 +1231,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,17 +1255,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,17 +1275,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1302,17 +1295,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1322,17 +1315,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,17 +1335,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1362,17 +1355,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1382,21 +1375,21 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>40</v>
+      <c r="D20" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="F20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1406,17 +1399,17 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="F21" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,15 +1419,15 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="8"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1444,8 +1437,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1460,8 +1453,8 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1463,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,15 +1473,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,15 +1491,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1516,17 +1509,17 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="26"/>
+      <c r="C27" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="33"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1536,15 +1529,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1554,15 +1547,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1572,8 +1565,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1588,8 +1581,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1599,8 +1592,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1610,8 +1603,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,8 +1614,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="33"/>
       <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1634,8 +1629,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1647,8 +1642,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1660,8 +1655,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="8" t="s">
         <v>13</v>
       </c>
@@ -1673,8 +1668,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1686,8 +1681,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,8 +1692,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,8 +1704,8 @@
         <v>43290</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="25" t="s">
-        <v>30</v>
+      <c r="D41" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>15</v>
@@ -1724,7 +1719,7 @@
         <v>43291</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="26"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1732,7 @@
         <v>43292</v>
       </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1745,7 @@
         <v>43293</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="26"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="8" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1758,7 @@
         <v>43294</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="8" t="s">
         <v>21</v>
       </c>
@@ -1776,7 +1771,7 @@
         <v>43295</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="26"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,7 +1782,7 @@
         <v>43296</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="27"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,11 +1792,11 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>31</v>
+      <c r="D48" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1812,8 +1807,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,8 +1818,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,8 +1829,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1845,8 +1840,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,8 +1851,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,8 +1862,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,9 +1873,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="31" t="s">
-        <v>32</v>
+      <c r="C55" s="33"/>
+      <c r="D55" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -1891,8 +1886,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,8 +1897,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,8 +1908,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,8 +1919,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,8 +1930,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,8 +1941,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,11 +1952,11 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>33</v>
+      <c r="D62" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -1972,8 +1967,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,8 +1978,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="26"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,8 +1989,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="26"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,8 +2000,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="26"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,8 +2011,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="26"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,8 +2022,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="26"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,10 +2033,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69" s="26"/>
+      <c r="C69" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="33"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,8 +2046,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,8 +2057,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,8 +2068,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,8 +2079,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,8 +2090,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,8 +2101,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,11 +2112,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>34</v>
+      <c r="C76" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="E76" s="8"/>
     </row>
@@ -2132,8 +2127,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2143,8 +2138,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2154,8 +2149,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2165,8 +2160,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,8 +2171,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,8 +2182,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,11 +2193,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>35</v>
+      <c r="C83" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2213,8 +2208,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,8 +2219,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,8 +2230,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,8 +2241,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,8 +2252,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,8 +2263,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,11 +2274,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>36</v>
+      <c r="D90" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2294,8 +2289,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="26"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,8 +2300,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="26"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,8 +2311,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="26"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="33"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,8 +2322,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="26"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="33"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,8 +2333,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="26"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,8 +2344,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="27"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,11 +2355,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>39</v>
+      <c r="C97" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2375,8 +2370,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,8 +2381,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,8 +2392,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,8 +2403,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,8 +2414,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,8 +2425,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,9 +2436,9 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="31" t="s">
-        <v>85</v>
+      <c r="C104" s="33"/>
+      <c r="D104" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2454,8 +2449,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,8 +2460,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,8 +2471,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,8 +2482,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,8 +2493,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,8 +2504,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,8 +2516,8 @@
         <v>43360</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="25" t="s">
-        <v>84</v>
+      <c r="D111" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2534,7 +2529,7 @@
         <v>43361</v>
       </c>
       <c r="C112" s="8"/>
-      <c r="D112" s="26"/>
+      <c r="D112" s="33"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,7 +2540,7 @@
         <v>43362</v>
       </c>
       <c r="C113" s="8"/>
-      <c r="D113" s="26"/>
+      <c r="D113" s="33"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,7 +2551,7 @@
         <v>43363</v>
       </c>
       <c r="C114" s="8"/>
-      <c r="D114" s="26"/>
+      <c r="D114" s="33"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,7 +2562,7 @@
         <v>43364</v>
       </c>
       <c r="C115" s="8"/>
-      <c r="D115" s="26"/>
+      <c r="D115" s="33"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,7 +2573,7 @@
         <v>43365</v>
       </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="26"/>
+      <c r="D116" s="33"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,7 +2584,7 @@
         <v>43366</v>
       </c>
       <c r="C117" s="8"/>
-      <c r="D117" s="27"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,27 +3039,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C110"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="D111:D117"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D6:D12"/>
@@ -3081,6 +3055,27 @@
     <mergeCell ref="D104:D110"/>
     <mergeCell ref="C76:C82"/>
     <mergeCell ref="C83:C89"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C97:C110"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>lundi</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Sites kernel de la FAQ LKML</t>
+  </si>
+  <si>
+    <t>ntpd</t>
+  </si>
+  <si>
+    <t>ext2-4…Dos…GPT…</t>
+  </si>
+  <si>
+    <t>Bareos</t>
+  </si>
+  <si>
+    <t>Initrd - initramfs - systemd link</t>
   </si>
 </sst>
 </file>
@@ -334,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -655,6 +673,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,7 +999,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1094,9 @@
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J4" s="23" t="s">
         <v>56</v>
       </c>
@@ -1082,7 +1111,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1097,10 +1128,10 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -1123,8 +1154,8 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="33"/>
       <c r="F7" s="13" t="s">
         <v>82</v>
@@ -1143,8 +1174,8 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="33"/>
       <c r="F8" s="13" t="s">
         <v>86</v>
@@ -1166,9 +1197,11 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1181,10 +1214,14 @@
       <c r="B10" s="6">
         <v>43259</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="41"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1200,7 +1237,7 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="33"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -1218,7 +1255,7 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="39"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="33"/>
       <c r="J12" s="21" t="s">
         <v>63</v>
@@ -1231,10 +1268,10 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="33"/>
@@ -1255,7 +1292,7 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="27" t="s">
@@ -1275,7 +1312,7 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="27" t="s">
@@ -1295,7 +1332,7 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="27" t="s">
@@ -1315,7 +1352,7 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="27" t="s">
@@ -1335,7 +1372,7 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="27" t="s">
@@ -1355,7 +1392,7 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="27" t="s">
@@ -1376,7 +1413,7 @@
         <v>43269</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>39</v>
@@ -1614,8 +1651,8 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>43</v>
+      <c r="C34" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="11" t="s">
@@ -1629,7 +1666,7 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="33"/>
       <c r="E35" s="10" t="s">
         <v>19</v>
@@ -1642,7 +1679,7 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="33"/>
       <c r="E36" s="8" t="s">
         <v>12</v>
@@ -1655,7 +1692,7 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="33"/>
       <c r="E37" s="8" t="s">
         <v>13</v>
@@ -1668,7 +1705,7 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="33"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="33"/>
       <c r="E38" s="8" t="s">
         <v>14</v>
@@ -1681,7 +1718,7 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="33"/>
       <c r="E39" s="8"/>
     </row>
@@ -1692,7 +1729,7 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="34"/>
       <c r="E40" s="8"/>
     </row>
@@ -1703,7 +1740,9 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="D41" s="32" t="s">
         <v>29</v>
       </c>
@@ -1718,7 +1757,7 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="33"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
@@ -1731,7 +1770,7 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="33"/>
       <c r="E43" s="8" t="s">
         <v>17</v>
@@ -1744,7 +1783,7 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="33"/>
       <c r="E44" s="8" t="s">
         <v>20</v>
@@ -1757,7 +1796,7 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="33"/>
       <c r="E45" s="8" t="s">
         <v>21</v>
@@ -1770,7 +1809,7 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="33"/>
       <c r="E46" s="8"/>
     </row>
@@ -1781,7 +1820,7 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="34"/>
       <c r="E47" s="8"/>
     </row>
@@ -1874,7 +1913,7 @@
         <v>43304</v>
       </c>
       <c r="C55" s="33"/>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="8"/>
@@ -2033,7 +2072,7 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="43" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="33"/>
@@ -2112,10 +2151,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E76" s="8"/>
@@ -2193,7 +2232,7 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -2358,7 +2397,7 @@
       <c r="C97" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D97" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="8"/>
@@ -2437,7 +2476,7 @@
         <v>43353</v>
       </c>
       <c r="C104" s="33"/>
-      <c r="D104" s="40" t="s">
+      <c r="D104" s="43" t="s">
         <v>84</v>
       </c>
       <c r="E104" s="8"/>
@@ -3038,7 +3077,7 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="D111:D117"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D6:D12"/>
@@ -3071,6 +3110,7 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="F21:I21"/>
+    <mergeCell ref="C41:C47"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
   <si>
     <t>lundi</t>
   </si>
@@ -153,9 +153,6 @@
     <t>SELinux</t>
   </si>
   <si>
-    <t>Logrotate</t>
-  </si>
-  <si>
     <t>Clustering infos gathering</t>
   </si>
   <si>
@@ -306,7 +303,18 @@
     <t>Bareos</t>
   </si>
   <si>
-    <t>Initrd - initramfs - systemd link</t>
+    <t>Compilation noyau - modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initrd - initramfs - Dbus - inetd </t>
+  </si>
+  <si>
+    <t>Systemd - services
+Logrotate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graylog Documentation 
+</t>
   </si>
 </sst>
 </file>
@@ -346,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,12 +376,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -674,15 +676,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,6 +686,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1004,8 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="10" width="42.140625" customWidth="1"/>
   </cols>
@@ -1028,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1051,10 +1048,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,10 +1070,10 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1095,10 +1092,10 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,13 +1109,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
       <c r="F5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1128,23 +1125,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1154,17 +1151,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="33"/>
       <c r="F7" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1174,17 +1171,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="33"/>
       <c r="F8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1197,10 +1194,10 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="33"/>
       <c r="F9" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1217,16 +1214,14 @@
       <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1237,14 +1232,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="33"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1255,10 +1252,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="33"/>
       <c r="J12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1268,21 +1265,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,17 +1289,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1312,17 +1309,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1336,16 +1333,16 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1356,13 +1353,13 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1376,13 +1373,13 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1396,13 +1393,13 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,21 +1409,21 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>43</v>
+      <c r="C20" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1436,17 +1433,17 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="8"/>
       <c r="F21" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="35"/>
       <c r="J21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1456,7 +1453,7 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="8"/>
       <c r="F22" s="13"/>
@@ -1464,7 +1461,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,7 +1471,7 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
@@ -1490,7 +1487,7 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="9" t="s">
         <v>27</v>
@@ -1500,7 +1497,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,7 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
@@ -1518,7 +1515,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1528,7 +1525,7 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="33"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
@@ -1536,7 +1533,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1546,17 +1543,19 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>28</v>
+      <c r="C27" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1566,7 +1565,7 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="33"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
@@ -1574,7 +1573,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1584,7 +1583,7 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="33"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
@@ -1592,7 +1591,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1602,7 +1601,7 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="33"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
@@ -1618,7 +1617,7 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="33"/>
       <c r="E31" s="8"/>
     </row>
@@ -1629,7 +1628,7 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="33"/>
       <c r="E32" s="8"/>
     </row>
@@ -1640,7 +1639,7 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="33"/>
       <c r="E33" s="8"/>
     </row>
@@ -1651,8 +1650,8 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>24</v>
+      <c r="C34" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="11" t="s">
@@ -1666,7 +1665,7 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="10" t="s">
         <v>19</v>
@@ -1679,7 +1678,7 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="30"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="8" t="s">
         <v>12</v>
@@ -1692,7 +1691,7 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="8" t="s">
         <v>13</v>
@@ -1705,7 +1704,7 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="30"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="8" t="s">
         <v>14</v>
@@ -1718,7 +1717,7 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="8"/>
     </row>
@@ -1729,7 +1728,7 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="34"/>
       <c r="E40" s="8"/>
     </row>
@@ -1740,9 +1739,7 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="C41" s="33"/>
       <c r="D41" s="32" t="s">
         <v>29</v>
       </c>
@@ -1757,7 +1754,7 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
@@ -1770,7 +1767,7 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="30"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="8" t="s">
         <v>17</v>
@@ -1783,7 +1780,7 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="8" t="s">
         <v>20</v>
@@ -1796,7 +1793,7 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="8" t="s">
         <v>21</v>
@@ -1809,7 +1806,7 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="8"/>
     </row>
@@ -1820,7 +1817,7 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="34"/>
       <c r="E47" s="8"/>
     </row>
@@ -1832,10 +1829,10 @@
         <v>43297</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1901,7 +1898,7 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="33"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="8"/>
     </row>
@@ -1912,8 +1909,10 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="43" t="s">
+      <c r="C55" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="40" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="8"/>
@@ -1925,7 +1924,7 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="33"/>
       <c r="E56" s="8"/>
     </row>
@@ -1936,7 +1935,7 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="33"/>
       <c r="E57" s="8"/>
     </row>
@@ -1947,7 +1946,7 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="33"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="33"/>
       <c r="E58" s="8"/>
     </row>
@@ -1958,7 +1957,7 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="33"/>
       <c r="E59" s="8"/>
     </row>
@@ -1969,7 +1968,7 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="33"/>
       <c r="E60" s="8"/>
     </row>
@@ -1980,7 +1979,7 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="34"/>
       <c r="E61" s="8"/>
     </row>
@@ -2072,7 +2071,7 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="33"/>
@@ -2151,10 +2150,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="43" t="s">
+      <c r="C76" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E76" s="8"/>
@@ -2232,8 +2231,8 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="43" t="s">
-        <v>80</v>
+      <c r="C83" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>34</v>
@@ -2397,7 +2396,7 @@
       <c r="C97" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="8"/>
@@ -2476,8 +2475,8 @@
         <v>43353</v>
       </c>
       <c r="C104" s="33"/>
-      <c r="D104" s="43" t="s">
-        <v>84</v>
+      <c r="D104" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2556,7 +2555,7 @@
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -3077,9 +3076,8 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="D111:D117"/>
-    <mergeCell ref="C48:C61"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
     <mergeCell ref="D48:D54"/>
@@ -3096,12 +3094,13 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C27:C33"/>
-    <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="D41:D47"/>
-    <mergeCell ref="C34:C40"/>
     <mergeCell ref="D20:D40"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C47"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C97:C110"/>
     <mergeCell ref="F17:I17"/>
@@ -3110,7 +3109,8 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C55:C61"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>lundi</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sécurisation TLS graylog </t>
-  </si>
-  <si>
-    <t>LDAP théorique</t>
   </si>
   <si>
     <t>Graylog documentation 
@@ -147,9 +144,6 @@
     <t>Basic UI graylog</t>
   </si>
   <si>
-    <t>PAM</t>
-  </si>
-  <si>
     <t>SELinux</t>
   </si>
   <si>
@@ -315,6 +309,16 @@
   <si>
     <t xml:space="preserve">Graylog Documentation 
 </t>
+  </si>
+  <si>
+    <t>Autre GUI pour Graylog?</t>
+  </si>
+  <si>
+    <t>PAM - NSS</t>
+  </si>
+  <si>
+    <t>LDAP théorique
+radius - openLDAP - Freeradius - Fusion directory</t>
   </si>
 </sst>
 </file>
@@ -640,56 +644,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,10 +1015,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1024,12 +1028,12 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="F1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1048,10 +1052,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,15 +1069,15 @@
       <c r="D3" s="8"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,15 +1091,15 @@
       <c r="D4" s="8"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1109,13 +1113,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,23 +1129,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>43</v>
+      <c r="D6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1151,17 +1155,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1171,17 +1175,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1194,10 +1198,10 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1214,14 +1218,14 @@
       <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,16 +1236,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1252,10 +1256,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26"/>
       <c r="J12" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,21 +1269,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,17 +1293,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,17 +1313,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,17 +1333,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,17 +1353,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,17 +1373,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,17 +1393,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,21 +1413,21 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>39</v>
+      <c r="D20" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,17 +1437,17 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="35"/>
+      <c r="F21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,15 +1457,17 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="F22" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1471,8 +1477,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1487,8 +1493,8 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1503,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1507,15 +1513,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1525,15 +1531,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1543,19 +1549,19 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1565,15 +1571,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1583,15 +1589,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,8 +1607,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1617,8 +1623,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1628,8 +1634,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,8 +1645,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,10 +1656,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1665,8 +1671,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1678,8 +1684,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1691,8 +1697,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="8" t="s">
         <v>13</v>
       </c>
@@ -1704,8 +1710,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1717,8 +1723,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,8 +1734,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,8 +1745,8 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -1754,8 +1760,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1767,8 +1773,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1786,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="8" t="s">
         <v>20</v>
       </c>
@@ -1793,8 +1799,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="8" t="s">
         <v>21</v>
       </c>
@@ -1806,8 +1812,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,8 +1823,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,11 +1834,11 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>94</v>
+      <c r="C48" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1843,8 +1849,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,8 +1860,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,8 +1871,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,8 +1882,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,8 +1893,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,8 +1904,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,11 +1915,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>31</v>
+      <c r="D55" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -1924,8 +1930,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,8 +1941,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,8 +1952,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,8 +1963,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,8 +1974,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,8 +1985,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1990,11 +1996,11 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>32</v>
+      <c r="D62" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2005,8 +2011,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,8 +2022,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,8 +2033,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,8 +2044,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,8 +2055,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2060,8 +2066,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,10 +2077,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="33"/>
+      <c r="C69" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="26"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,8 +2090,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,8 +2101,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,8 +2112,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,8 +2123,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,8 +2134,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2139,8 +2145,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,11 +2156,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>33</v>
+      <c r="C76" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="E76" s="8"/>
     </row>
@@ -2165,8 +2171,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,8 +2182,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,8 +2193,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,8 +2204,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,8 +2215,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,8 +2226,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,11 +2237,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>34</v>
+      <c r="C83" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2246,8 +2252,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,8 +2263,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,8 +2274,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,8 +2285,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,8 +2296,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,8 +2307,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,11 +2318,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="32" t="s">
-        <v>35</v>
+      <c r="D90" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2327,8 +2333,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,8 +2344,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,8 +2355,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,8 +2366,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,8 +2377,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,8 +2388,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,11 +2399,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="40" t="s">
-        <v>38</v>
+      <c r="C97" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2408,8 +2414,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,8 +2425,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,8 +2436,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,8 +2447,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,8 +2458,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,8 +2469,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2474,9 +2480,9 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="40" t="s">
-        <v>83</v>
+      <c r="C104" s="26"/>
+      <c r="D104" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2487,8 +2493,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,8 +2504,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,8 +2515,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,8 +2526,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,8 +2537,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2542,8 +2548,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,8 +2560,8 @@
         <v>43360</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="32" t="s">
-        <v>82</v>
+      <c r="D111" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2567,7 +2573,7 @@
         <v>43361</v>
       </c>
       <c r="C112" s="8"/>
-      <c r="D112" s="33"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,7 +2584,7 @@
         <v>43362</v>
       </c>
       <c r="C113" s="8"/>
-      <c r="D113" s="33"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,7 +2595,7 @@
         <v>43363</v>
       </c>
       <c r="C114" s="8"/>
-      <c r="D114" s="33"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,7 +2606,7 @@
         <v>43364</v>
       </c>
       <c r="C115" s="8"/>
-      <c r="D115" s="33"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,7 +2617,7 @@
         <v>43365</v>
       </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="33"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,7 +2628,7 @@
         <v>43366</v>
       </c>
       <c r="C117" s="8"/>
-      <c r="D117" s="34"/>
+      <c r="D117" s="27"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3076,7 +3082,38 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C47"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C97:C110"/>
     <mergeCell ref="D111:D117"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
@@ -3086,36 +3123,6 @@
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="D83:D89"/>
     <mergeCell ref="D90:D96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C76:C82"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C47"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C110"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -358,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -660,6 +666,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1028,12 +1043,12 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1269,19 +1284,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="21" t="s">
         <v>61</v>
       </c>
@@ -1294,14 +1309,14 @@
         <v>43263</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="21" t="s">
         <v>62</v>
       </c>
@@ -1314,14 +1329,14 @@
         <v>43264</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="21" t="s">
         <v>63</v>
       </c>
@@ -1334,14 +1349,14 @@
         <v>43265</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="21" t="s">
         <v>64</v>
       </c>
@@ -1354,14 +1369,14 @@
         <v>43266</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="21" t="s">
         <v>65</v>
       </c>
@@ -1374,14 +1389,14 @@
         <v>43267</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="21" t="s">
         <v>78</v>
       </c>
@@ -1394,14 +1409,14 @@
         <v>43268</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="22" t="s">
         <v>66</v>
       </c>
@@ -1420,12 +1435,12 @@
         <v>38</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="21" t="s">
         <v>67</v>
       </c>
@@ -1440,12 +1455,12 @@
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="21" t="s">
         <v>68</v>
       </c>
@@ -1460,12 +1475,12 @@
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="21" t="s">
         <v>69</v>
       </c>
@@ -1549,7 +1564,7 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="26"/>
@@ -1571,7 +1586,7 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="26"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
@@ -1589,7 +1604,7 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="26"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
@@ -1607,7 +1622,7 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="26"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
@@ -1623,7 +1638,7 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="26"/>
       <c r="E31" s="8"/>
     </row>
@@ -1634,7 +1649,7 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="26"/>
       <c r="E32" s="8"/>
     </row>
@@ -1645,7 +1660,7 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="26"/>
       <c r="E33" s="8"/>
     </row>
@@ -1834,7 +1849,7 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -1915,10 +1930,10 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="8"/>
@@ -1930,7 +1945,7 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="26"/>
       <c r="E56" s="8"/>
     </row>
@@ -1941,7 +1956,7 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="26"/>
       <c r="E57" s="8"/>
     </row>
@@ -1952,7 +1967,7 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="33"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="26"/>
       <c r="E58" s="8"/>
     </row>
@@ -1963,7 +1978,7 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="26"/>
       <c r="E59" s="8"/>
     </row>
@@ -1974,7 +1989,7 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="26"/>
       <c r="E60" s="8"/>
     </row>
@@ -1985,7 +2000,7 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="27"/>
       <c r="E61" s="8"/>
     </row>
@@ -1996,7 +2011,7 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -2011,7 +2026,7 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="33"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="26"/>
       <c r="E63" s="8"/>
     </row>
@@ -2022,7 +2037,7 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="33"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="26"/>
       <c r="E64" s="8"/>
     </row>
@@ -2033,7 +2048,7 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="33"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="26"/>
       <c r="E65" s="8"/>
     </row>
@@ -2044,7 +2059,7 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="26"/>
       <c r="E66" s="8"/>
     </row>
@@ -2055,7 +2070,7 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="26"/>
       <c r="E67" s="8"/>
     </row>
@@ -2066,7 +2081,7 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="26"/>
       <c r="E68" s="8"/>
     </row>
@@ -2077,7 +2092,7 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="26"/>
@@ -2156,10 +2171,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E76" s="8"/>
@@ -2237,7 +2252,7 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="25" t="s">
@@ -2318,7 +2333,7 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="25" t="s">
@@ -2333,7 +2348,7 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="26"/>
       <c r="E91" s="8"/>
     </row>
@@ -2344,7 +2359,7 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="26"/>
       <c r="E92" s="8"/>
     </row>
@@ -2355,7 +2370,7 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="33"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="26"/>
       <c r="E93" s="8"/>
     </row>
@@ -2366,7 +2381,7 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="26"/>
       <c r="E94" s="8"/>
     </row>
@@ -2377,7 +2392,7 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="33"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="26"/>
       <c r="E95" s="8"/>
     </row>
@@ -2388,7 +2403,7 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="34"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="27"/>
       <c r="E96" s="8"/>
     </row>
@@ -2402,7 +2417,7 @@
       <c r="C97" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E97" s="8"/>
@@ -2481,7 +2496,7 @@
         <v>43353</v>
       </c>
       <c r="C104" s="26"/>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E104" s="8"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
   <si>
     <t>lundi</t>
   </si>
@@ -96,10 +96,6 @@
     <t>Scripts BASH - REGEX</t>
   </si>
   <si>
-    <t>UI Graylog 
-Basic script from scratch</t>
-  </si>
-  <si>
     <t>POC</t>
   </si>
   <si>
@@ -109,38 +105,9 @@
     <t xml:space="preserve">Sécurisation TLS graylog </t>
   </si>
   <si>
-    <t>Graylog documentation 
-Implémentation LDAP dans Graylog</t>
-  </si>
-  <si>
-    <t>Suricata documentation</t>
-  </si>
-  <si>
-    <t>Suricata Optimisation
-Paquets dropped à tous les étages</t>
-  </si>
-  <si>
     <t>Graylog alerting</t>
   </si>
   <si>
-    <t>Graylog reporting</t>
-  </si>
-  <si>
-    <t>OSSIM</t>
-  </si>
-  <si>
-    <t>Graylog as a SIEM
-Corrélations</t>
-  </si>
-  <si>
-    <t>Retention logs
-Rotation logs
-Syslog access</t>
-  </si>
-  <si>
-    <t>Graylog Clustering</t>
-  </si>
-  <si>
     <t>Basic UI graylog</t>
   </si>
   <si>
@@ -252,30 +219,12 @@
     <t>Imprimer fonctions Kernel</t>
   </si>
   <si>
-    <t>SNMP
-Centreon
-ACL flow</t>
-  </si>
-  <si>
-    <t>SNMP dans linux 
-ACL flow
-Centreon</t>
-  </si>
-  <si>
     <t>Centreon</t>
   </si>
   <si>
     <t>IPTables</t>
   </si>
   <si>
-    <t>Pytbull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trap SNMP vers 
-Centreon si grosse alerte
-+ supervision Centreon </t>
-  </si>
-  <si>
     <t>Graylog en VM?</t>
   </si>
   <si>
@@ -298,19 +247,12 @@
   </si>
   <si>
     <t>Compilation noyau - modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initrd - initramfs - Dbus - inetd </t>
   </si>
   <si>
     <t>Systemd - services
 Logrotate</t>
   </si>
   <si>
-    <t xml:space="preserve">Graylog Documentation 
-</t>
-  </si>
-  <si>
     <t>Autre GUI pour Graylog?</t>
   </si>
   <si>
@@ -319,6 +261,70 @@
   <si>
     <t>LDAP théorique
 radius - openLDAP - Freeradius - Fusion directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Graylog 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initrd vs initramfs - Dbus - inetd </t>
+  </si>
+  <si>
+    <t>Cisco
+-
+Réseaux (routage, VLAN…)
+Tutoriels Cisco goffinet
+(ICND 1-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implémentation LDAP dans Graylog</t>
+  </si>
+  <si>
+    <t>Implémentation flux des 
+paquets sur GUI via syslog/Cron/Script</t>
+  </si>
+  <si>
+    <t>SNMP
+Centreon Doc</t>
+  </si>
+  <si>
+    <t>Intégration Alertes +
+Sondes Centreon</t>
+  </si>
+  <si>
+    <t>Graylog reporting API Doc</t>
+  </si>
+  <si>
+    <t>Intégration Reporting 
+mensuel</t>
+  </si>
+  <si>
+    <t>Politique Logging : 
+Retention, compression…</t>
+  </si>
+  <si>
+    <t>Pytbull Doc</t>
+  </si>
+  <si>
+    <t>Test de l'IDS via Pytbull</t>
+  </si>
+  <si>
+    <t>Optimisation Suricata +
+Graylog</t>
+  </si>
+  <si>
+    <t>Graylog Clustering
+Implémentation Clustering
+dans Datacenter 
+avec CentOS</t>
+  </si>
+  <si>
+    <t>ACL flow vers firewall</t>
+  </si>
+  <si>
+    <t>Suricata + Graylog
+ documentation
+complète</t>
   </si>
 </sst>
 </file>
@@ -358,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -650,36 +650,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,26 +707,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,10 +1033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1043,14 +1046,14 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="F1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,10 +1070,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1084,15 +1087,15 @@
       <c r="D3" s="8"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,15 +1109,15 @@
       <c r="D4" s="8"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1128,13 +1131,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
       <c r="F5" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,23 +1147,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>41</v>
+      <c r="D6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1170,17 +1173,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,17 +1193,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="13" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1213,10 +1216,10 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1233,14 +1236,16 @@
       <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1251,16 +1256,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="17" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,10 +1276,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="31"/>
       <c r="J12" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,20 +1290,20 @@
         <v>43262</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1308,17 +1313,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1328,17 +1333,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,17 +1353,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,17 +1373,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1388,17 +1393,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1408,41 +1413,41 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>38</v>
+      <c r="C20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="F20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1452,17 +1457,17 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
+      <c r="F21" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1472,17 +1477,17 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="F22" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,8 +1497,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1508,17 +1513,17 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1528,15 +1533,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1546,15 +1551,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1564,19 +1569,17 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="26"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1586,15 +1589,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1604,15 +1607,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1622,8 +1625,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1638,8 +1641,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,8 +1652,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1660,8 +1663,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,13 +1674,11 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="C34" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1686,11 +1687,9 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1699,11 +1698,9 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1712,11 +1709,9 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1725,11 +1720,9 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1738,8 +1731,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,8 +1742,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1760,13 +1753,11 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C41" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1775,11 +1766,9 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -1788,11 +1777,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -1801,11 +1788,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -1814,11 +1799,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1827,8 +1810,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,8 +1821,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,11 +1832,11 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>92</v>
+      <c r="C48" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1864,8 +1847,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,8 +1858,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,8 +1869,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,8 +1880,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,8 +1891,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,8 +1902,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1930,11 +1913,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>30</v>
+      <c r="C55" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -1945,8 +1928,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="26"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1956,8 +1939,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="26"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1967,8 +1950,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,8 +1961,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="26"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,8 +1972,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="26"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,8 +1983,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,12 +1994,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="C62" s="31"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,8 +2005,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,8 +2016,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="26"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,8 +2027,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="26"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2059,8 +2038,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="26"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,8 +2049,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="26"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,8 +2060,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="26"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,11 +2071,15 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="8"/>
+      <c r="C69" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -2105,9 +2088,11 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="8"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="25" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -2116,9 +2101,11 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="8"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -2127,9 +2114,11 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="8"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -2138,9 +2127,11 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="8"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -2149,19 +2140,19 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,13 +2162,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="8"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
@@ -2186,9 +2175,11 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="8"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2197,9 +2188,11 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="8"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2208,9 +2201,11 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="8"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2219,9 +2214,11 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="8"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2230,19 +2227,19 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,11 +2249,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>33</v>
+      <c r="C83" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2267,8 +2264,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2275,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2286,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,8 +2297,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2308,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2319,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2334,10 +2331,10 @@
         <v>43339</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2348,8 +2345,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="26"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,8 +2356,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="26"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,8 +2367,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="26"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,8 +2378,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="26"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,8 +2389,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="26"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,8 +2400,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="27"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,11 +2411,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>37</v>
+      <c r="C97" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2429,8 +2426,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2440,8 +2437,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,8 +2448,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,8 +2459,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,8 +2470,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,8 +2481,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,9 +2492,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="34" t="s">
-        <v>81</v>
+      <c r="C104" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2508,8 +2507,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,8 +2518,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,8 +2529,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2541,8 +2540,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,8 +2551,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,8 +2562,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,9 +2573,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="25" t="s">
-        <v>80</v>
+      <c r="C111" s="31"/>
+      <c r="D111" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2587,8 +2586,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="26"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,8 +2597,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="26"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,8 +2608,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="26"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,8 +2619,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="26"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,8 +2630,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="26"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,8 +2641,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="27"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,9 +3097,33 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C55:C68"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C20:C33"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="C48:C54"/>
-    <mergeCell ref="C55:C61"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
@@ -3112,32 +3135,8 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="E6:E19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C47"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C76:C82"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C110"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="96">
   <si>
     <t>lundi</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Systemd - services</t>
   </si>
   <si>
-    <t>Off</t>
-  </si>
-  <si>
     <t>Scripts BASH - REGEX</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Basic UI graylog</t>
   </si>
   <si>
-    <t>SELinux</t>
-  </si>
-  <si>
     <t>Clustering infos gathering</t>
   </si>
   <si>
@@ -235,12 +229,6 @@
   </si>
   <si>
     <t>Sites kernel de la FAQ LKML</t>
-  </si>
-  <si>
-    <t>ntpd</t>
-  </si>
-  <si>
-    <t>ext2-4…Dos…GPT…</t>
   </si>
   <si>
     <t>Bareos</t>
@@ -268,63 +256,73 @@
   </si>
   <si>
     <t xml:space="preserve">Initrd vs initramfs - Dbus - inetd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implémentation LDAP dans Graylog</t>
+  </si>
+  <si>
+    <t>Implémentation flux des 
+paquets sur GUI via syslog/Cron/Script</t>
+  </si>
+  <si>
+    <t>SNMP
+Centreon Doc</t>
+  </si>
+  <si>
+    <t>Intégration Alertes +
+Sondes Centreon</t>
+  </si>
+  <si>
+    <t>Graylog reporting API Doc</t>
+  </si>
+  <si>
+    <t>Intégration Reporting 
+mensuel</t>
+  </si>
+  <si>
+    <t>Politique Logging : 
+Retention, compression…</t>
+  </si>
+  <si>
+    <t>Pytbull Doc</t>
+  </si>
+  <si>
+    <t>Test de l'IDS via Pytbull</t>
+  </si>
+  <si>
+    <t>Optimisation Suricata +
+Graylog</t>
+  </si>
+  <si>
+    <t>Graylog Clustering
+Implémentation Clustering
+dans Datacenter 
+avec CentOS</t>
+  </si>
+  <si>
+    <t>ACL flow vers firewall</t>
+  </si>
+  <si>
+    <t>Suricata + Graylog
+ documentation
+complète</t>
   </si>
   <si>
     <t>Cisco
 -
 Réseaux (routage, VLAN…)
 Tutoriels Cisco goffinet
-(ICND 1-2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Implémentation LDAP dans Graylog</t>
-  </si>
-  <si>
-    <t>Implémentation flux des 
-paquets sur GUI via syslog/Cron/Script</t>
-  </si>
-  <si>
-    <t>SNMP
-Centreon Doc</t>
-  </si>
-  <si>
-    <t>Intégration Alertes +
-Sondes Centreon</t>
-  </si>
-  <si>
-    <t>Graylog reporting API Doc</t>
-  </si>
-  <si>
-    <t>Intégration Reporting 
-mensuel</t>
-  </si>
-  <si>
-    <t>Politique Logging : 
-Retention, compression…</t>
-  </si>
-  <si>
-    <t>Pytbull Doc</t>
-  </si>
-  <si>
-    <t>Test de l'IDS via Pytbull</t>
-  </si>
-  <si>
-    <t>Optimisation Suricata +
-Graylog</t>
-  </si>
-  <si>
-    <t>Graylog Clustering
-Implémentation Clustering
-dans Datacenter 
-avec CentOS</t>
-  </si>
-  <si>
-    <t>ACL flow vers firewall</t>
-  </si>
-  <si>
-    <t>Suricata + Graylog
- documentation
-complète</t>
+(ICND 1-2)
+SE Linux</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>ext2-4…Dos…GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>ntpd httpd sftpd</t>
   </si>
 </sst>
 </file>
@@ -656,6 +654,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,53 +705,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,10 +1031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1046,14 +1044,14 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,10 +1068,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,15 +1085,15 @@
       <c r="D3" s="8"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,16 +1106,14 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,13 +1127,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
       <c r="F5" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1147,23 +1143,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1173,17 +1169,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,17 +1189,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,10 +1212,10 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="13" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1236,16 +1232,16 @@
       <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1256,16 +1252,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1276,10 +1272,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="28"/>
       <c r="J12" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,21 +1285,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,17 +1309,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1333,17 +1329,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1353,17 +1349,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,17 +1369,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1393,17 +1389,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1413,17 +1409,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,21 +1429,21 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>94</v>
+      <c r="C20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,17 +1453,17 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
+      <c r="F21" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,17 +1473,17 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
+      <c r="F22" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
       <c r="J22" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1497,8 +1493,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1513,17 +1509,17 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1533,15 +1529,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1551,15 +1547,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1569,17 +1565,17 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,15 +1585,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1607,15 +1603,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1625,8 +1621,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1641,8 +1637,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1652,8 +1648,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,8 +1659,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,10 +1670,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="31"/>
+      <c r="C34" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="28"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,8 +1683,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,8 +1694,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,8 +1705,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1720,8 +1716,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,8 +1727,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,8 +1738,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,10 +1749,10 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="35"/>
+      <c r="C41" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="30"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,8 +1762,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,8 +1773,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1788,8 +1784,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1799,8 +1795,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,8 +1806,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,8 +1817,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,11 +1828,11 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>28</v>
+      <c r="C48" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1847,8 +1843,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,8 +1854,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,8 +1865,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,8 +1876,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,8 +1887,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,8 +1898,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,11 +1909,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>84</v>
+      <c r="C55" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -1928,8 +1924,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1939,8 +1935,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,8 +1946,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,8 +1957,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,8 +1968,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,8 +1979,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,8 +1990,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,8 +2001,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,8 +2012,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,8 +2023,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,8 +2034,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,8 +2045,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2060,8 +2056,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,11 +2067,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>85</v>
+      <c r="C69" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>18</v>
@@ -2088,8 +2084,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="25" t="s">
         <v>19</v>
       </c>
@@ -2101,8 +2097,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="8" t="s">
         <v>12</v>
       </c>
@@ -2114,8 +2110,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2127,8 +2123,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2140,8 +2136,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,8 +2147,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,8 +2158,8 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2175,8 +2171,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2188,8 +2184,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2201,8 +2197,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2214,8 +2210,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2227,8 +2223,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,8 +2234,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2249,11 +2245,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>87</v>
+      <c r="C83" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2264,8 +2260,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,8 +2271,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,8 +2282,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2297,8 +2293,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,8 +2304,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2319,8 +2315,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2330,11 +2326,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>89</v>
+      <c r="C90" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2345,8 +2341,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,8 +2352,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,8 +2363,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,8 +2374,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2389,8 +2385,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,8 +2396,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,11 +2407,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>90</v>
+      <c r="C97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2426,8 +2422,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,8 +2433,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,8 +2444,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,8 +2455,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,8 +2466,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,8 +2477,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,11 +2488,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>92</v>
+      <c r="C104" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2507,8 +2503,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2518,8 +2514,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,8 +2525,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,8 +2536,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2551,8 +2547,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,8 +2558,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="29"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,9 +2569,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="30" t="s">
-        <v>93</v>
+      <c r="C111" s="28"/>
+      <c r="D111" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2586,8 +2582,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2597,8 +2593,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,8 +2604,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,8 +2615,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,8 +2626,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,8 +2637,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,6 +3093,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C20:C33"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="C97:C103"/>
@@ -3112,31 +3133,6 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C55:C68"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C20:C33"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="D48:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
   <si>
     <t>lundi</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Listes des Ips utilisables du datacenter</t>
-  </si>
-  <si>
-    <t>Administration machine hébergeant Suricata?</t>
   </si>
   <si>
     <t>Liste des protocoles Euris</t>
@@ -308,21 +305,29 @@
 complète</t>
   </si>
   <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>ext2-4…Dos…GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>ntpd httpd sftpd</t>
+  </si>
+  <si>
     <t>Cisco
 -
 Réseaux (routage, VLAN…)
 Tutoriels Cisco goffinet
-(ICND 1-2)
-SE Linux</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>ext2-4…Dos…GPT…XFS NFS</t>
-  </si>
-  <si>
-    <t>ntpd httpd sftpd</t>
+(ICND 1-2)</t>
+  </si>
+  <si>
+    <t>SE Linux</t>
+  </si>
+  <si>
+    <t>Administration machine hébergeant Suricata?Droits…</t>
+  </si>
+  <si>
+    <t>Equinix</t>
   </si>
 </sst>
 </file>
@@ -362,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -654,6 +665,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,6 +710,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,6 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1038,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D20" sqref="D20:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,10 +1054,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1044,12 +1067,12 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="20" t="s">
         <v>25</v>
       </c>
@@ -1068,10 +1091,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,15 +1108,15 @@
       <c r="D3" s="8"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,10 +1133,10 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1127,13 +1150,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
       <c r="F5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1143,23 +1166,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1169,17 +1192,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1189,17 +1212,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,10 +1235,10 @@
       <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1232,16 +1255,16 @@
       <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1252,16 +1275,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,10 +1295,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="29"/>
       <c r="J12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,21 +1308,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,17 +1332,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="41" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,17 +1352,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="41" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1349,17 +1372,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="41" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,17 +1392,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="41" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,17 +1412,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="41" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,17 +1432,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,20 +1453,20 @@
         <v>43269</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="F20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,17 +1476,19 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="F21" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,17 +1498,19 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
+      <c r="F22" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1493,8 +1520,8 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1509,8 +1536,8 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1519,7 +1546,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,15 +1556,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1547,15 +1574,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1565,17 +1592,19 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="8"/>
       <c r="F27" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1585,15 +1614,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,15 +1632,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,8 +1650,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1637,8 +1666,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1648,8 +1677,8 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,8 +1688,8 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,10 +1699,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="28"/>
+      <c r="C34" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="29"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,8 +1712,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,8 +1723,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,8 +1734,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,8 +1745,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,8 +1756,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,8 +1767,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,10 +1778,10 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="30"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,8 +1791,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,8 +1802,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,8 +1813,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,8 +1824,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,8 +1835,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,8 +1846,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,10 +1857,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="8"/>
@@ -1843,8 +1872,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,8 +1883,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,8 +1894,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,8 +1905,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,8 +1916,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,8 +1927,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,11 +1938,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>79</v>
+      <c r="D55" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -1924,8 +1953,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,8 +1964,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,8 +1975,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,8 +1986,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,8 +1997,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,8 +2008,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1990,8 +2019,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,8 +2030,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,8 +2041,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,8 +2052,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,8 +2063,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,8 +2074,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,8 +2085,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,11 +2096,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="27" t="s">
+      <c r="C69" s="28" t="s">
         <v>80</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>18</v>
@@ -2084,8 +2113,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="28"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="25" t="s">
         <v>19</v>
       </c>
@@ -2097,8 +2126,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="8" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2139,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2123,8 +2152,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2136,8 +2165,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="28"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2147,8 +2176,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="29"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,8 +2187,8 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="27"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2171,8 +2200,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="28"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2184,8 +2213,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2197,8 +2226,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="28"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2210,8 +2239,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="28"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="29"/>
       <c r="E80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2223,8 +2252,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2234,8 +2263,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="29"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,11 +2274,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>82</v>
+      <c r="D83" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2260,8 +2289,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2271,8 +2300,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,8 +2311,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,8 +2322,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,8 +2333,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,8 +2344,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,11 +2355,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2341,8 +2370,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2352,8 +2381,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,8 +2392,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,8 +2403,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,8 +2414,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,8 +2425,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,11 +2436,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" s="27" t="s">
+      <c r="C97" s="31" t="s">
         <v>85</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2422,8 +2451,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,8 +2462,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,8 +2473,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,8 +2484,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,8 +2495,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,8 +2506,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,11 +2517,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>87</v>
+      <c r="C104" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2503,8 +2532,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,8 +2543,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,8 +2554,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,8 +2565,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,8 +2576,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2558,8 +2587,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="30"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,9 +2598,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="27" t="s">
-        <v>88</v>
+      <c r="C111" s="29"/>
+      <c r="D111" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2582,8 +2611,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2593,8 +2622,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,8 +2633,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,8 +2644,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2626,8 +2655,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,8 +2666,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,7 +3121,7 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="F1:I1"/>
@@ -3108,6 +3137,7 @@
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="D20:D40"/>
@@ -3115,9 +3145,9 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C20:C33"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C27:C33"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="C97:C103"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
   <si>
     <t>lundi</t>
   </si>
@@ -305,29 +305,39 @@
 complète</t>
   </si>
   <si>
+    <t>ext2-4…Dos…GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>ntpd httpd sftpd</t>
+  </si>
+  <si>
+    <t>SE Linux</t>
+  </si>
+  <si>
+    <t>Administration machine hébergeant Suricata?Droits…</t>
+  </si>
+  <si>
+    <t>Equinix</t>
+  </si>
+  <si>
+    <t>Commencer rapport</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
-    <t>ext2-4…Dos…GPT…XFS NFS</t>
-  </si>
-  <si>
-    <t>ntpd httpd sftpd</t>
-  </si>
-  <si>
-    <t>Cisco
--
-Réseaux (routage, VLAN…)
-Tutoriels Cisco goffinet
-(ICND 1-2)</t>
-  </si>
-  <si>
-    <t>SE Linux</t>
-  </si>
-  <si>
-    <t>Administration machine hébergeant Suricata?Droits…</t>
-  </si>
-  <si>
-    <t>Equinix</t>
+    <t>GN3 - exos goffinet…</t>
+  </si>
+  <si>
+    <t>Documentation
+Pacemaker
+Corosync</t>
+  </si>
+  <si>
+    <t>SCSI iSCSI SATA IDE SAS</t>
   </si>
 </sst>
 </file>
@@ -367,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -625,12 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,6 +666,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,7 +715,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,9 +723,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,12 +738,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,7 +1043,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D40"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1051,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="37.140625" customWidth="1"/>
     <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
@@ -1054,26 +1059,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1086,14 +1091,16 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1106,16 +1113,16 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1128,14 +1135,14 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1148,14 +1155,16 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="23" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1166,22 +1175,22 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1192,16 +1201,16 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="23" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1212,16 +1221,16 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="21" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1232,18 +1241,18 @@
       <c r="B9" s="6">
         <v>43258</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="21"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1252,18 +1261,18 @@
       <c r="B10" s="6">
         <v>43259</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="22" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1274,16 +1283,16 @@
       <c r="B11" s="6">
         <v>43260</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="17" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="21" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1294,10 +1303,10 @@
       <c r="B12" s="6">
         <v>43261</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="29"/>
-      <c r="J12" s="21" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="39"/>
+      <c r="J12" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1308,20 +1317,20 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="21" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1332,16 +1341,16 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="43" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="21" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1352,16 +1361,16 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="43" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="21" t="s">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1372,16 +1381,16 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="43" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="21" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1392,16 +1401,16 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="21" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1412,16 +1421,16 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="43" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="21" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1432,16 +1441,16 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="22" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1452,20 +1461,20 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="21" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1476,18 +1485,18 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="29"/>
+      <c r="C21" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="21" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1498,18 +1507,18 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="32"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="21" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1520,32 +1529,36 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="32"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="22" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1556,14 +1569,14 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="21" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1574,36 +1587,36 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="21" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="13" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="21" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1614,14 +1627,14 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="21" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1632,14 +1645,14 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="21" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1650,14 +1663,14 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="21"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1666,9 +1679,9 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="8"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1677,9 +1690,9 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1688,9 +1701,9 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1699,11 +1712,11 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="11"/>
+      <c r="C34" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1712,9 +1725,9 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="10"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1723,8 +1736,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,8 +1747,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,8 +1758,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,8 +1769,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,8 +1780,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1778,10 +1791,10 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,8 +1804,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,8 +1815,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,8 +1826,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,8 +1837,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,8 +1848,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,8 +1859,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,10 +1870,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="8"/>
@@ -1872,8 +1885,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,8 +1896,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,8 +1907,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1905,8 +1918,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,8 +1929,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,8 +1940,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,10 +1951,10 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="31" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="8"/>
@@ -1953,8 +1966,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,8 +1977,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,8 +1988,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,8 +1999,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,8 +2010,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,8 +2021,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,8 +2032,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,8 +2043,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2041,8 +2054,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,8 +2065,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,8 +2076,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,8 +2087,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,8 +2098,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2096,13 +2109,13 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2113,9 +2126,9 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="25" t="s">
+      <c r="C70" s="35"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2126,8 +2139,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="29"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="8" t="s">
         <v>12</v>
       </c>
@@ -2139,8 +2152,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="29"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2152,8 +2165,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="29"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2165,8 +2178,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="29"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,8 +2189,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="30"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,8 +2200,8 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2200,8 +2213,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="29"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2213,8 +2226,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="29"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2226,8 +2239,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="29"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2239,8 +2252,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="29"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2252,8 +2265,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="29"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2263,8 +2276,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="30"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,10 +2287,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E83" s="8"/>
@@ -2289,8 +2302,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,8 +2313,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2324,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2335,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,8 +2346,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,8 +2357,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,10 +2368,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="31" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="8"/>
@@ -2370,8 +2383,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,8 +2394,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,8 +2405,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,8 +2416,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,8 +2427,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,8 +2438,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,10 +2449,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="31" t="s">
         <v>84</v>
       </c>
       <c r="E97" s="8"/>
@@ -2451,8 +2464,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,8 +2475,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,8 +2486,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,8 +2497,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,8 +2508,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,8 +2519,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,10 +2530,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="31" t="s">
         <v>86</v>
       </c>
       <c r="E104" s="8"/>
@@ -2532,8 +2545,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,8 +2556,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,8 +2567,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,8 +2578,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2576,8 +2589,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,8 +2600,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="30"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,8 +2611,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="28" t="s">
+      <c r="C111" s="32"/>
+      <c r="D111" s="31" t="s">
         <v>87</v>
       </c>
       <c r="E111" s="8"/>
@@ -2611,8 +2624,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,8 +2635,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,8 +2646,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,8 +2657,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2655,8 +2668,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,8 +2679,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3137,7 +3150,7 @@
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
-    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="E27:E33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="D20:D40"/>
@@ -3147,7 +3160,7 @@
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C24:C33"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="C97:C103"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="105">
   <si>
     <t>lundi</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>POC</t>
-  </si>
-  <si>
-    <t>SSL - SSH - OpenSSL</t>
   </si>
   <si>
     <t xml:space="preserve">Sécurisation TLS graylog </t>
@@ -323,12 +320,6 @@
     <t>Commencer rapport</t>
   </si>
   <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
     <t>GN3 - exos goffinet…</t>
   </si>
   <si>
@@ -338,6 +329,24 @@
   </si>
   <si>
     <t>SCSI iSCSI SATA IDE SAS</t>
+  </si>
+  <si>
+    <t>SE Linux - Cisco</t>
+  </si>
+  <si>
+    <t>rsync</t>
+  </si>
+  <si>
+    <t>DNS et fichier /etc/hosts</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>SSL - OpenSSL</t>
+  </si>
+  <si>
+    <t>SSH - OpenSSL</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +408,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -678,9 +699,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,55 +721,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,7 +1079,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E27" sqref="E27:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1095,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1072,12 +1108,12 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="F1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
@@ -1093,15 +1129,15 @@
       <c r="D2" s="7"/>
       <c r="E2" s="13"/>
       <c r="F2" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,16 +1150,14 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1136,14 +1170,16 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1157,15 +1193,15 @@
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
       <c r="F5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="50" t="s">
-        <v>101</v>
+      <c r="I5" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1175,23 +1211,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1201,17 +1237,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1221,17 +1257,17 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1244,10 +1280,10 @@
       <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1264,16 +1300,18 @@
       <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="J10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1284,16 +1322,18 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="J11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1304,10 +1344,10 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
       <c r="J12" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,21 +1357,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="C13" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,17 +1381,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1361,17 +1401,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1381,17 +1421,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,17 +1441,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1421,17 +1461,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,17 +1481,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,20 +1502,20 @@
         <v>43269</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="F20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,18 +1526,18 @@
         <v>43270</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="32"/>
+        <v>94</v>
+      </c>
+      <c r="D21" s="49"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
+      <c r="F21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1508,31 +1548,31 @@
         <v>43271</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="32"/>
+        <v>99</v>
+      </c>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
+      <c r="F22" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="32"/>
+      <c r="C23" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="8"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
@@ -1547,10 +1587,8 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1597,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1569,15 +1607,15 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="8"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,15 +1625,15 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,19 +1643,21 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34" t="s">
-        <v>96</v>
+      <c r="C27" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1627,15 +1667,15 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1645,15 +1685,15 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1663,9 +1703,9 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -1679,9 +1719,9 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1690,9 +1730,9 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1701,9 +1741,9 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1712,10 +1752,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="32"/>
+      <c r="C34" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="49"/>
       <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,8 +1765,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,8 +1776,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,8 +1787,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,8 +1798,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,8 +1809,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1780,8 +1820,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,10 +1831,10 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="34"/>
+      <c r="C41" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="46"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,8 +1844,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,8 +1855,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,8 +1866,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,8 +1877,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,8 +1888,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,8 +1899,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,11 +1910,11 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>27</v>
+      <c r="C48" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1885,8 +1925,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,8 +1936,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,8 +1947,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,8 +1958,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,8 +1969,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,8 +1980,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,11 +1991,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>78</v>
+      <c r="D55" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -1966,8 +2006,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1977,8 +2017,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,8 +2028,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1999,8 +2039,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,8 +2050,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,8 +2061,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,8 +2072,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2043,8 +2083,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,8 +2094,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,8 +2105,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,8 +2116,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,8 +2127,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,8 +2138,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2109,11 +2149,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="35" t="s">
         <v>79</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>18</v>
@@ -2126,8 +2166,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="32"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="23" t="s">
         <v>19</v>
       </c>
@@ -2139,8 +2179,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="32"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="8" t="s">
         <v>12</v>
       </c>
@@ -2152,8 +2192,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="32"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="36"/>
       <c r="E72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2165,8 +2205,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="32"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2178,8 +2218,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,8 +2229,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="33"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,8 +2240,8 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="31"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2213,8 +2253,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2226,8 +2266,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2239,8 +2279,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2252,8 +2292,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2265,8 +2305,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="32"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,8 +2316,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="33"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,11 +2327,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>81</v>
+      <c r="C83" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2302,8 +2342,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,8 +2353,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,8 +2364,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2335,8 +2375,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,8 +2386,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,8 +2397,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,11 +2408,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2383,8 +2423,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,8 +2434,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,8 +2445,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,8 +2456,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,8 +2467,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,8 +2478,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,11 +2489,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="31" t="s">
+      <c r="C97" s="46" t="s">
         <v>84</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2464,8 +2504,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,8 +2515,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,8 +2526,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,8 +2537,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2508,8 +2548,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,8 +2559,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,11 +2570,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>86</v>
+      <c r="C104" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2545,8 +2585,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,8 +2596,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,8 +2607,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,8 +2618,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,8 +2629,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,8 +2640,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="33"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,9 +2651,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="31" t="s">
-        <v>87</v>
+      <c r="C111" s="36"/>
+      <c r="D111" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2624,8 +2664,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,8 +2675,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,8 +2686,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2657,8 +2697,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,8 +2708,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,8 +2719,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,6 +3175,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C55:C68"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C27:C33"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="F1:I1"/>
@@ -3151,31 +3216,6 @@
     <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
     <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C24:C33"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C55:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
   <si>
     <t>lundi</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Centreon</t>
-  </si>
-  <si>
-    <t>IPTables</t>
   </si>
   <si>
     <t>Graylog en VM?</t>
@@ -233,9 +230,6 @@
   <si>
     <t>Systemd - services
 Logrotate</t>
-  </si>
-  <si>
-    <t>Autre GUI pour Graylog?</t>
   </si>
   <si>
     <t>PAM - NSS</t>
@@ -311,9 +305,6 @@
     <t>SE Linux</t>
   </si>
   <si>
-    <t>Administration machine hébergeant Suricata?Droits…</t>
-  </si>
-  <si>
     <t>Equinix</t>
   </si>
   <si>
@@ -337,16 +328,22 @@
     <t>rsync</t>
   </si>
   <si>
-    <t>DNS et fichier /etc/hosts</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
-    <t>SSL - OpenSSL</t>
-  </si>
-  <si>
     <t>SSH - OpenSSL</t>
+  </si>
+  <si>
+    <t>IPTables - netfilter</t>
+  </si>
+  <si>
+    <t>DNS et fichier /etc/hosts
+DHCP</t>
+  </si>
+  <si>
+    <t>Livres Home
+Certifications
+GNS3</t>
+  </si>
+  <si>
+    <t>OpenSSL - PAM</t>
   </si>
 </sst>
 </file>
@@ -386,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,18 +410,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -618,11 +621,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -687,12 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,6 +720,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,8 +769,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,28 +784,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1125,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1108,12 +1138,12 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
@@ -1129,12 +1159,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="13"/>
       <c r="F2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>38</v>
@@ -1154,7 +1184,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>39</v>
@@ -1171,12 +1201,12 @@
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
       <c r="F4" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>40</v>
@@ -1193,12 +1223,12 @@
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
       <c r="F5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="30" t="s">
-        <v>98</v>
+      <c r="I5" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>41</v>
@@ -1211,13 +1241,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="44" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1237,11 +1267,11 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="11" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1257,11 +1287,11 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1280,15 +1310,17 @@
       <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1300,16 +1332,14 @@
       <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="20" t="s">
         <v>45</v>
       </c>
@@ -1322,16 +1352,14 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="19" t="s">
         <v>46</v>
       </c>
@@ -1344,8 +1372,12 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="19" t="s">
         <v>47</v>
       </c>
@@ -1357,19 +1389,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38" t="s">
+      <c r="C13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="19" t="s">
         <v>48</v>
       </c>
@@ -1381,15 +1413,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="32" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="19" t="s">
         <v>49</v>
       </c>
@@ -1401,15 +1433,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="32" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="19" t="s">
         <v>50</v>
       </c>
@@ -1421,15 +1453,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="32" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="19" t="s">
         <v>51</v>
       </c>
@@ -1441,15 +1473,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="32" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="19" t="s">
         <v>52</v>
       </c>
@@ -1461,15 +1493,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="32" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="19" t="s">
         <v>63</v>
       </c>
@@ -1481,15 +1513,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="20" t="s">
         <v>53</v>
       </c>
@@ -1502,18 +1534,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="F20" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="19" t="s">
         <v>54</v>
       </c>
@@ -1525,17 +1557,15 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="C21" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="50"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="19" t="s">
         <v>55</v>
       </c>
@@ -1547,17 +1577,15 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="49"/>
+      <c r="C22" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="50"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="19" t="s">
         <v>56</v>
       </c>
@@ -1569,10 +1597,10 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="49"/>
+      <c r="C23" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="50"/>
       <c r="E23" s="8"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
@@ -1587,8 +1615,10 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="50"/>
       <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1607,8 +1637,8 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="8"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
@@ -1625,8 +1655,8 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="8"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
@@ -1643,15 +1673,15 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="46" t="s">
-        <v>95</v>
+      <c r="C27" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1667,9 +1697,9 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="36"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1685,9 +1715,9 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -1703,9 +1733,9 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="36"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -1719,9 +1749,9 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="36"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1730,9 +1760,9 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1741,9 +1771,9 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="37"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1752,11 +1782,11 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="27"/>
+      <c r="C34" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1765,9 +1795,9 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="26"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1776,8 +1806,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,8 +1817,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,8 +1828,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,8 +1839,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,8 +1850,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="50"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,10 +1861,10 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="46"/>
+      <c r="C41" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="47"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,8 +1874,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="36"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1855,8 +1885,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,8 +1896,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="36"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,8 +1907,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,8 +1918,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="36"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,8 +1929,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="37"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,10 +1940,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="46" t="s">
+      <c r="C48" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="8"/>
@@ -1925,8 +1955,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,8 +1966,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,8 +1977,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,8 +1988,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,8 +1999,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,8 +2010,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1991,11 +2021,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>77</v>
+      <c r="D55" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2006,8 +2036,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,8 +2047,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,8 +2058,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,8 +2069,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,8 +2080,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,8 +2091,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="37"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,8 +2102,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="35"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2083,8 +2113,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2094,8 +2124,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,8 +2135,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,8 +2146,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2127,8 +2157,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,8 +2168,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2149,11 +2179,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>78</v>
+      <c r="C69" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>18</v>
@@ -2166,8 +2196,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="36"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="23" t="s">
         <v>19</v>
       </c>
@@ -2179,8 +2209,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="36"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="8" t="s">
         <v>12</v>
       </c>
@@ -2192,8 +2222,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="36"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2205,8 +2235,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="36"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="40"/>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2218,8 +2248,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="36"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,8 +2259,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="37"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,8 +2270,8 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="35"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2253,8 +2283,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="36"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="40"/>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2266,8 +2296,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="36"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="40"/>
       <c r="E78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2279,8 +2309,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="36"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="40"/>
       <c r="E79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2292,8 +2322,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="36"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2305,8 +2335,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="36"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="40"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,8 +2346,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="37"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,11 +2357,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>80</v>
+      <c r="D83" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2342,8 +2372,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,8 +2383,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,8 +2394,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2375,8 +2405,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,8 +2416,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,8 +2427,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,11 +2438,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>82</v>
+      <c r="C90" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2423,8 +2453,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,8 +2464,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2445,8 +2475,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,8 +2486,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2467,8 +2497,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,8 +2508,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,11 +2519,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" s="35" t="s">
-        <v>83</v>
+      <c r="C97" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2504,8 +2534,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2515,8 +2545,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,8 +2556,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,8 +2567,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,8 +2578,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,8 +2589,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,11 +2600,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" s="35" t="s">
-        <v>85</v>
+      <c r="C104" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2585,8 +2615,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,8 +2626,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,8 +2637,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,8 +2648,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,8 +2659,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,8 +2670,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="36"/>
-      <c r="D110" s="37"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,9 +2681,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="35" t="s">
-        <v>86</v>
+      <c r="C111" s="40"/>
+      <c r="D111" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2664,8 +2694,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,8 +2705,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,8 +2716,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,8 +2727,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,8 +2738,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,8 +2749,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,62 +2833,100 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
+      <c r="C125" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -3174,7 +3242,7 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="C97:C103"/>
@@ -3190,6 +3258,7 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C55:C68"/>
+    <mergeCell ref="E27:E33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="D20:D40"/>
@@ -3200,6 +3269,7 @@
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
     <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C125:E136"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="F1:I1"/>
@@ -3215,7 +3285,6 @@
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E27:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -213,9 +213,6 @@
     <t>Graylog en VM?</t>
   </si>
   <si>
-    <t>cgroup</t>
-  </si>
-  <si>
     <t>Linux kernel mailing list</t>
   </si>
   <si>
@@ -232,18 +229,12 @@
 Logrotate</t>
   </si>
   <si>
-    <t>PAM - NSS</t>
-  </si>
-  <si>
     <t>LDAP théorique
 radius - openLDAP - Freeradius - Fusion directory</t>
   </si>
   <si>
     <t xml:space="preserve">UI Graylog 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initrd vs initramfs - Dbus - inetd </t>
   </si>
   <si>
     <t xml:space="preserve"> Implémentation LDAP dans Graylog</t>
@@ -311,9 +302,6 @@
     <t>Commencer rapport</t>
   </si>
   <si>
-    <t>GN3 - exos goffinet…</t>
-  </si>
-  <si>
     <t>Documentation
 Pacemaker
 Corosync</t>
@@ -334,16 +322,33 @@
     <t>IPTables - netfilter</t>
   </si>
   <si>
+    <t>OpenSSL - PAM</t>
+  </si>
+  <si>
     <t>DNS et fichier /etc/hosts
-DHCP</t>
-  </si>
-  <si>
-    <t>Livres Home
+DHCP
+cgroups</t>
+  </si>
+  <si>
+    <t>Boot - PXE boot</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>PAM - cgroups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livres Home
 Certifications
-GNS3</t>
-  </si>
-  <si>
-    <t>OpenSSL - PAM</t>
+GNS3 (exos goffinet)
+-
+Sed - awk - python - C système
+Initrd vs initramfs -Dbus - Inetd
+</t>
+  </si>
+  <si>
+    <t>Différence SID (session ID) et .scope?</t>
   </si>
 </sst>
 </file>
@@ -645,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -727,6 +732,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,13 +807,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,51 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1138,12 +1155,12 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
@@ -1158,13 +1175,11 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>38</v>
@@ -1184,7 +1199,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>39</v>
@@ -1201,12 +1216,12 @@
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
       <c r="F4" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>40</v>
@@ -1223,12 +1238,12 @@
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
       <c r="F5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>41</v>
@@ -1241,13 +1256,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1255,7 +1270,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="21" t="s">
         <v>42</v>
       </c>
@@ -1267,11 +1282,11 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1287,11 +1302,11 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="11" t="s">
-        <v>65</v>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1310,10 +1325,10 @@
       <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1332,10 +1347,10 @@
       <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1352,10 +1367,10 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1373,7 +1388,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1389,19 +1404,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="42" t="s">
+      <c r="C13" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>48</v>
       </c>
@@ -1414,14 +1429,14 @@
         <v>43263</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="19" t="s">
         <v>49</v>
       </c>
@@ -1433,15 +1448,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="19" t="s">
         <v>50</v>
       </c>
@@ -1453,15 +1468,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="36" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="19" t="s">
         <v>51</v>
       </c>
@@ -1473,15 +1488,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="36" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="19" t="s">
         <v>52</v>
       </c>
@@ -1493,15 +1508,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="36" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="19" t="s">
         <v>63</v>
       </c>
@@ -1516,12 +1531,12 @@
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="20" t="s">
         <v>53</v>
       </c>
@@ -1534,18 +1549,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="19" t="s">
         <v>54</v>
       </c>
@@ -1558,14 +1573,16 @@
         <v>43270</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="50"/>
+        <v>88</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="F21" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="19" t="s">
         <v>55</v>
       </c>
@@ -1578,14 +1595,14 @@
         <v>43271</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
         <v>56</v>
       </c>
@@ -1598,9 +1615,9 @@
         <v>43272</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="50"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="41"/>
       <c r="E23" s="8"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
@@ -1616,9 +1633,9 @@
         <v>43273</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +1654,10 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="41"/>
       <c r="E25" s="8"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
@@ -1656,7 +1675,7 @@
         <v>43275</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="8"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
@@ -1673,16 +1692,14 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="C27" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1697,9 +1714,9 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="40"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1715,9 +1732,9 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -1733,9 +1750,9 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -1749,9 +1766,9 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="40"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1760,9 +1777,9 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1771,9 +1788,9 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="41"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1782,10 +1799,10 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="50"/>
+      <c r="C34" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="41"/>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,8 +1812,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,8 +1823,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,8 +1834,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,8 +1845,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,8 +1856,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,8 +1867,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,10 +1878,10 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="47"/>
+      <c r="C41" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="36"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,8 +1891,8 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,8 +1902,8 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,8 +1913,8 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,8 +1924,8 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,8 +1935,8 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,8 +1946,8 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,10 +1957,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="47" t="s">
+      <c r="C48" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="8"/>
@@ -1955,8 +1972,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,8 +1983,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1977,8 +1994,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,8 +2005,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1999,8 +2016,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,8 +2027,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,11 +2038,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="39" t="s">
-        <v>75</v>
+      <c r="D55" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2036,8 +2053,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,8 +2064,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,8 +2075,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,8 +2086,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,8 +2097,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,8 +2108,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="41"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,8 +2119,8 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="39"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,8 +2130,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,8 +2141,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,8 +2152,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,8 +2163,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,8 +2174,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,8 +2185,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2179,11 +2196,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>76</v>
+      <c r="C69" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>18</v>
@@ -2196,8 +2213,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="40"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="23" t="s">
         <v>19</v>
       </c>
@@ -2209,8 +2226,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="40"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="8" t="s">
         <v>12</v>
       </c>
@@ -2222,8 +2239,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="40"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2235,8 +2252,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="40"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2248,8 +2265,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="40"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,8 +2276,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,8 +2287,8 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2283,8 +2300,8 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="40"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2296,8 +2313,8 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="40"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2309,8 +2326,8 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="40"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2322,8 +2339,8 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="40"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2335,8 +2352,8 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="40"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,8 +2363,8 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="41"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,11 +2374,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="39" t="s">
-        <v>78</v>
+      <c r="D83" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2372,8 +2389,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,8 +2400,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,8 +2411,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,8 +2422,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,8 +2433,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,8 +2444,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,11 +2455,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>80</v>
+      <c r="C90" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2453,8 +2470,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,8 +2481,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,8 +2492,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,8 +2503,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,8 +2514,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2508,8 +2525,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,11 +2536,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="39" t="s">
-        <v>81</v>
+      <c r="C97" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2534,8 +2551,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,8 +2562,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,8 +2573,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,8 +2584,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,8 +2595,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,8 +2606,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,11 +2617,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="39" t="s">
-        <v>83</v>
+      <c r="C104" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2615,8 +2632,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2626,8 +2643,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,8 +2654,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,8 +2665,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,8 +2676,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,8 +2687,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="41"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,9 +2698,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="39" t="s">
-        <v>84</v>
+      <c r="C111" s="34"/>
+      <c r="D111" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2694,8 +2711,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,8 +2722,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,8 +2733,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,8 +2744,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,8 +2755,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,8 +2766,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,77 +2850,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="33" t="s">
+      <c r="C125" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="54"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="54"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3243,32 +3260,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C55:C68"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C27:C33"/>
     <mergeCell ref="C125:E136"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="C48:C54"/>
@@ -3285,6 +3276,32 @@
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C55:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
   <si>
     <t>lundi</t>
   </si>
@@ -54,45 +54,12 @@
     <t>Syslog-ng</t>
   </si>
   <si>
-    <t>Chap 7 Debian</t>
-  </si>
-  <si>
-    <t>Chap 8 Debian</t>
-  </si>
-  <si>
-    <t>Chap 9 Debian</t>
-  </si>
-  <si>
-    <t>Chap 10 Debian</t>
-  </si>
-  <si>
-    <t>Chap 11 Debian</t>
-  </si>
-  <si>
-    <t>Chap 12 Debian</t>
-  </si>
-  <si>
-    <t>Chap 5 Debian</t>
-  </si>
-  <si>
-    <t>Chap 6 Debian</t>
-  </si>
-  <si>
-    <t>Chap 13 - 14 Debian</t>
-  </si>
-  <si>
-    <t>Chap 15 - 16 Debian</t>
-  </si>
-  <si>
     <t>Cron</t>
   </si>
   <si>
     <t>Systemd - services</t>
   </si>
   <si>
-    <t>Scripts BASH - REGEX</t>
-  </si>
-  <si>
     <t>POC</t>
   </si>
   <si>
@@ -211,15 +178,6 @@
   </si>
   <si>
     <t>Graylog en VM?</t>
-  </si>
-  <si>
-    <t>Linux kernel mailing list</t>
-  </si>
-  <si>
-    <t>Sites kernel de la FAQ LKML</t>
-  </si>
-  <si>
-    <t>Bareos</t>
   </si>
   <si>
     <t>Compilation noyau - modules</t>
@@ -287,9 +245,6 @@
 complète</t>
   </si>
   <si>
-    <t>ext2-4…Dos…GPT…XFS NFS</t>
-  </si>
-  <si>
     <t>ntpd httpd sftpd</t>
   </si>
   <si>
@@ -325,18 +280,13 @@
     <t>OpenSSL - PAM</t>
   </si>
   <si>
-    <t>DNS et fichier /etc/hosts
-DHCP
-cgroups</t>
-  </si>
-  <si>
     <t>Boot - PXE boot</t>
   </si>
   <si>
-    <t>Off</t>
-  </si>
-  <si>
     <t>PAM - cgroups</t>
+  </si>
+  <si>
+    <t>c-groups - network int</t>
   </si>
   <si>
     <t xml:space="preserve">Livres Home
@@ -345,10 +295,77 @@
 -
 Sed - awk - python - C système
 Initrd vs initramfs -Dbus - Inetd
+-
+Bareos
+-
+Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
 </t>
   </si>
   <si>
-    <t>Différence SID (session ID) et .scope?</t>
+    <t>ext2-4…Dos…MBR GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>Continuer rapport</t>
+  </si>
+  <si>
+    <t>Scrips BASH
+-
+REGEX</t>
+  </si>
+  <si>
+    <t>Check scripts d'init 
+et unités systemd</t>
+  </si>
+  <si>
+    <t>Merger réseau</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Redondance des logs de suricata?</t>
+  </si>
+  <si>
+    <t>Ips des serveurs? IP virtuelle a quel niveau?</t>
+  </si>
+  <si>
+    <t>Trafic sur les deux firewalls?</t>
+  </si>
+  <si>
+    <t>Les deux serveurs ne doivent pas ecrire en m temps sur le SAN</t>
+  </si>
+  <si>
+    <t>Questions pour point IDS</t>
+  </si>
+  <si>
+    <t>Point IDS</t>
+  </si>
+  <si>
+    <t>Présenter nouvelle GUI - manque graphe #paquets recus (Cron..)</t>
+  </si>
+  <si>
+    <t>1 Dashboard pour les accès?</t>
+  </si>
+  <si>
+    <t>Alerts par mois plutôt ?Mai - Juin…</t>
+  </si>
+  <si>
+    <t>Average alertes?</t>
+  </si>
+  <si>
+    <t>Bouger makefile et make</t>
+  </si>
+  <si>
+    <t>Réorganiser tools network</t>
+  </si>
+  <si>
+    <t>Organiser conf par thème et couleur?
+Rouge obligatoire (quick start)
+Gris noir : sécurité
+Optimisation vert…</t>
+  </si>
+  <si>
+    <t>Infra exacte?full duplex ou non des firewalls..</t>
   </si>
 </sst>
 </file>
@@ -432,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -646,11 +663,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -732,17 +760,89 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,77 +850,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:I21"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1187,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1155,14 +1200,14 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="F1" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1178,11 +1223,9 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1198,11 +1241,9 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1215,16 +1256,14 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1237,16 +1276,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="28" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1256,23 +1293,25 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>29</v>
+      <c r="D6" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="J6" s="21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,17 +1321,17 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1302,17 +1341,15 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1323,18 +1360,18 @@
         <v>43258</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="11" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,18 +1382,18 @@
         <v>43259</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1367,16 +1404,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="19" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1387,14 +1424,14 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="32"/>
       <c r="J12" s="19" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1404,21 +1441,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="C13" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,17 +1465,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1448,17 +1485,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1468,17 +1505,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="19" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,17 +1525,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1508,17 +1545,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1528,17 +1565,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,20 +1586,20 @@
         <v>43269</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="F20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,18 +1610,18 @@
         <v>43270</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="D21" s="54"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
+      <c r="F21" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1595,16 +1632,16 @@
         <v>43271</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="D22" s="54"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1615,14 +1652,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="41"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="54"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="F23" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,18 +1672,20 @@
         <v>43273</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="41"/>
+        <v>81</v>
+      </c>
+      <c r="D24" s="54"/>
       <c r="E24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="20" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1654,17 +1695,17 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="41"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="F25" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1675,14 +1716,16 @@
         <v>43275</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="F26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,19 +1735,21 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="C27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,50 +1759,54 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="C28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="38"/>
       <c r="J28" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="C29" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="19"/>
+      <c r="C30" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1766,9 +1815,18 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="34"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1777,191 +1835,284 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="59"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="60"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="41"/>
+      <c r="C34" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="54"/>
       <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="69"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="30"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="69"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="69"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="67"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="42"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="64"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>26</v>
+      <c r="C48" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1972,8 +2123,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,8 +2134,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,8 +2145,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="34"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,8 +2156,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="34"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,8 +2167,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="34"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,8 +2178,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="35"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,11 +2189,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>72</v>
+      <c r="C55" s="61"/>
+      <c r="D55" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2053,8 +2202,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,8 +2213,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,8 +2224,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,8 +2235,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,8 +2246,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,8 +2257,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,8 +2268,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="33"/>
+      <c r="C62" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="51"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,8 +2281,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,8 +2292,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,8 +2303,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,8 +2314,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,8 +2325,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,8 +2336,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,15 +2347,13 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="C69" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -2213,11 +2362,9 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="C70" s="61"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -2226,11 +2373,9 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C71" s="61"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -2239,11 +2384,9 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C72" s="61"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -2252,11 +2395,9 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C73" s="61"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -2265,8 +2406,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,8 +2417,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="35"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,10 +2428,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="8" t="s">
-        <v>15</v>
+      <c r="C76" s="61"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,11 +2441,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2313,11 +2452,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="C78" s="61"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2326,11 +2463,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="C79" s="61"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2339,11 +2474,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C80" s="61"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2352,9 +2485,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="8"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2363,9 +2496,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="38"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="8"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2374,11 +2507,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>75</v>
+      <c r="C83" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2389,8 +2522,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,8 +2533,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,8 +2544,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2422,8 +2555,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,8 +2566,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,8 +2577,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,11 +2588,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>77</v>
+      <c r="C90" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2470,8 +2603,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,8 +2614,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,8 +2625,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,8 +2636,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,8 +2647,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,8 +2658,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,11 +2669,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>78</v>
+      <c r="C97" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2551,8 +2684,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,8 +2695,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,8 +2706,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,8 +2717,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,8 +2728,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,8 +2739,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,11 +2750,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>80</v>
+      <c r="C104" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2632,8 +2765,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2643,8 +2776,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2654,8 +2787,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,8 +2798,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,8 +2809,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,8 +2820,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2698,9 +2831,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="33" t="s">
-        <v>81</v>
+      <c r="C111" s="38"/>
+      <c r="D111" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2711,8 +2844,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,8 +2855,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,8 +2866,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,8 +2877,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,8 +2888,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,8 +2899,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,77 +2983,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
+      <c r="C125" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="42"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3259,34 +3392,21 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C125:E136"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C27:C33"/>
+  <mergeCells count="57">
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C48:C61"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="C97:C103"/>
@@ -3301,7 +3421,35 @@
     <mergeCell ref="D104:D110"/>
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C55:C68"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="C125:E136"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="D48:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -231,12 +231,6 @@
 Graylog</t>
   </si>
   <si>
-    <t>Graylog Clustering
-Implémentation Clustering
-dans Datacenter 
-avec CentOS</t>
-  </si>
-  <si>
     <t>ACL flow vers firewall</t>
   </si>
   <si>
@@ -366,6 +360,13 @@
   </si>
   <si>
     <t>Infra exacte?full duplex ou non des firewalls..</t>
+  </si>
+  <si>
+    <t>Notice PowerEdge
+Graylog Clustering
+Implémentation Clustering
+dans Datacenter 
+avec CentOS</t>
   </si>
 </sst>
 </file>
@@ -405,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,9 +755,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,6 +764,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,13 +778,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -805,6 +802,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,22 +820,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,17 +850,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F27" sqref="F27:I27"/>
     </sheetView>
   </sheetViews>
@@ -1187,10 +1182,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1200,12 +1195,12 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1255,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>29</v>
@@ -1280,7 +1275,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>30</v>
@@ -1293,13 +1288,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="51" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1308,7 +1303,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>31</v>
@@ -1321,11 +1316,11 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1341,9 +1336,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="28"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1362,10 +1357,10 @@
       <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1384,10 +1379,10 @@
       <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1404,8 +1399,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1424,8 +1419,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1441,19 +1436,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="19" t="s">
         <v>37</v>
       </c>
@@ -1465,15 +1460,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="43" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="19" t="s">
         <v>38</v>
       </c>
@@ -1485,15 +1480,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="43" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="19" t="s">
         <v>39</v>
       </c>
@@ -1505,15 +1500,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="43" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="19" t="s">
         <v>40</v>
       </c>
@@ -1525,15 +1520,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="43" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1545,15 +1540,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="43" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="19" t="s">
         <v>52</v>
       </c>
@@ -1565,15 +1560,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="43" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="20" t="s">
         <v>42</v>
       </c>
@@ -1586,18 +1581,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>105</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="19" t="s">
         <v>43</v>
       </c>
@@ -1610,16 +1605,16 @@
         <v>43270</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="54"/>
+        <v>72</v>
+      </c>
+      <c r="D21" s="57"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="F21" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="19" t="s">
         <v>44</v>
       </c>
@@ -1632,14 +1627,14 @@
         <v>43271</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="54"/>
+        <v>76</v>
+      </c>
+      <c r="D22" s="57"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="19" t="s">
         <v>45</v>
       </c>
@@ -1652,16 +1647,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="D23" s="57"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="63"/>
+      <c r="F23" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,18 +1667,18 @@
         <v>43273</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="54"/>
+        <v>80</v>
+      </c>
+      <c r="D24" s="57"/>
       <c r="E24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="F24" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="20" t="s">
         <v>46</v>
       </c>
@@ -1696,14 +1691,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
+      <c r="F25" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="19" t="s">
         <v>47</v>
       </c>
@@ -1716,14 +1711,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="54"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
+      <c r="F26" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="19" t="s">
         <v>48</v>
       </c>
@@ -1736,18 +1731,18 @@
         <v>43276</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="19" t="s">
         <v>49</v>
       </c>
@@ -1760,10 +1755,10 @@
         <v>43277</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="40"/>
       <c r="J28" s="19" t="s">
         <v>50</v>
       </c>
@@ -1775,17 +1770,17 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
+      <c r="C29" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1795,15 +1790,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="C30" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1815,17 +1810,17 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="67" t="s">
-        <v>102</v>
+      <c r="C31" s="62"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="38" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1835,17 +1830,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="67" t="s">
-        <v>103</v>
+      <c r="C32" s="62"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,17 +1850,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1875,17 +1870,17 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="54"/>
+      <c r="C34" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="57"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
+      <c r="F34" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="69"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1895,15 +1890,15 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="F35" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1913,13 +1908,13 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1929,14 +1924,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="8"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="67"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1945,13 +1940,13 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="54"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="8"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="64"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1961,13 +1956,13 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="8"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="64"/>
+      <c r="I39" s="37"/>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1977,13 +1972,13 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="8"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="64"/>
+      <c r="I40" s="37"/>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1993,17 +1988,17 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37" t="s">
-        <v>87</v>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="64"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,13 +2008,13 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="64"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2029,13 +2024,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="64"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,13 +2040,13 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="64"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,13 +2056,13 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="64"/>
+      <c r="I45" s="37"/>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2077,13 +2072,13 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="64"/>
+      <c r="I46" s="37"/>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2093,13 +2088,13 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="64"/>
+      <c r="I47" s="37"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -2108,10 +2103,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="37" t="s">
+      <c r="C48" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2123,8 +2118,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="38"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,8 +2129,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="38"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,8 +2140,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="38"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,8 +2151,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="38"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,8 +2162,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="38"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2178,8 +2173,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="39"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,8 +2184,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="51" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="54" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8"/>
@@ -2202,8 +2197,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="38"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,8 +2208,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="38"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,8 +2219,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="38"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,8 +2230,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="38"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,8 +2241,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="38"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,8 +2252,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="39"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,10 +2263,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="51"/>
+      <c r="C62" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="54"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,8 +2276,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,8 +2287,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,8 +2298,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,8 +2309,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,8 +2320,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,8 +2331,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,10 +2342,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="54" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="24"/>
@@ -2362,8 +2357,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="38"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2373,8 +2368,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="38"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,8 +2379,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="38"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,8 +2390,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="38"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="40"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,8 +2401,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="38"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,8 +2412,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="39"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,10 +2423,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="37" t="s">
-        <v>87</v>
+      <c r="C76" s="64"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,9 +2436,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2452,9 +2447,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2463,9 +2458,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2474,9 +2469,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2485,9 +2480,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="61"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2496,9 +2491,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="62"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2507,10 +2502,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="54" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="8"/>
@@ -2522,8 +2517,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,8 +2528,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,8 +2539,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,8 +2550,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,8 +2561,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,8 +2572,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,10 +2583,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="54" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="8"/>
@@ -2603,8 +2598,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,8 +2609,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,8 +2620,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,8 +2631,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,8 +2642,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,8 +2653,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,10 +2664,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="37" t="s">
+      <c r="C97" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="54" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="8"/>
@@ -2684,8 +2679,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,8 +2690,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2706,8 +2701,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,8 +2712,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2728,8 +2723,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,8 +2734,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,10 +2745,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="51" t="s">
+      <c r="C104" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="54" t="s">
         <v>66</v>
       </c>
       <c r="E104" s="8"/>
@@ -2765,8 +2760,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2776,8 +2771,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,8 +2782,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,8 +2793,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,8 +2804,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,8 +2815,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2831,8 +2826,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="51" t="s">
+      <c r="C111" s="40"/>
+      <c r="D111" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E111" s="8"/>
@@ -2844,8 +2839,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,8 +2850,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,8 +2861,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,8 +2872,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,8 +2883,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,8 +2894,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2983,77 +2978,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
+      <c r="C125" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="42"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="42"/>
-      <c r="E130" s="42"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="42"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3398,12 +3393,12 @@
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="C48:C61"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
   <si>
     <t>lundi</t>
   </si>
@@ -268,19 +268,83 @@
     <t>SSH - OpenSSL</t>
   </si>
   <si>
-    <t>IPTables - netfilter</t>
-  </si>
-  <si>
     <t>OpenSSL - PAM</t>
   </si>
   <si>
-    <t>Boot - PXE boot</t>
-  </si>
-  <si>
     <t>PAM - cgroups</t>
   </si>
   <si>
     <t>c-groups - network int</t>
+  </si>
+  <si>
+    <t>ext2-4…Dos…MBR GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>Continuer rapport</t>
+  </si>
+  <si>
+    <t>Scrips BASH
+-
+REGEX</t>
+  </si>
+  <si>
+    <t>Check scripts d'init 
+et unités systemd</t>
+  </si>
+  <si>
+    <t>Merger réseau</t>
+  </si>
+  <si>
+    <t>Redondance des logs de suricata?</t>
+  </si>
+  <si>
+    <t>Ips des serveurs? IP virtuelle a quel niveau?</t>
+  </si>
+  <si>
+    <t>Trafic sur les deux firewalls?</t>
+  </si>
+  <si>
+    <t>Les deux serveurs ne doivent pas ecrire en m temps sur le SAN</t>
+  </si>
+  <si>
+    <t>Questions pour point IDS</t>
+  </si>
+  <si>
+    <t>Point IDS</t>
+  </si>
+  <si>
+    <t>Présenter nouvelle GUI - manque graphe #paquets recus (Cron..)</t>
+  </si>
+  <si>
+    <t>1 Dashboard pour les accès?</t>
+  </si>
+  <si>
+    <t>Alerts par mois plutôt ?Mai - Juin…</t>
+  </si>
+  <si>
+    <t>Average alertes?</t>
+  </si>
+  <si>
+    <t>Bouger makefile et make</t>
+  </si>
+  <si>
+    <t>Réorganiser tools network</t>
+  </si>
+  <si>
+    <t>Organiser conf par thème et couleur?
+Rouge obligatoire (quick start)
+Gris noir : sécurité
+Optimisation vert…</t>
+  </si>
+  <si>
+    <t>Infra exacte?full duplex ou non des firewalls..</t>
+  </si>
+  <si>
+    <t>Notice PowerEdge
+Graylog Clustering
+Implémentation Clustering
+dans Datacenter 
+avec CentOS</t>
   </si>
   <si>
     <t xml:space="preserve">Livres Home
@@ -288,85 +352,16 @@
 GNS3 (exos goffinet)
 -
 Sed - awk - python - C système
-Initrd vs initramfs -Dbus - Inetd
+Dbus - Inetd - kswapd - udev
 -
 Bareos
+Iptables - netfilter
 -
 Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
 </t>
   </si>
   <si>
-    <t>ext2-4…Dos…MBR GPT…XFS NFS</t>
-  </si>
-  <si>
-    <t>Continuer rapport</t>
-  </si>
-  <si>
-    <t>Scrips BASH
--
-REGEX</t>
-  </si>
-  <si>
-    <t>Check scripts d'init 
-et unités systemd</t>
-  </si>
-  <si>
-    <t>Merger réseau</t>
-  </si>
-  <si>
     <t>Off</t>
-  </si>
-  <si>
-    <t>Redondance des logs de suricata?</t>
-  </si>
-  <si>
-    <t>Ips des serveurs? IP virtuelle a quel niveau?</t>
-  </si>
-  <si>
-    <t>Trafic sur les deux firewalls?</t>
-  </si>
-  <si>
-    <t>Les deux serveurs ne doivent pas ecrire en m temps sur le SAN</t>
-  </si>
-  <si>
-    <t>Questions pour point IDS</t>
-  </si>
-  <si>
-    <t>Point IDS</t>
-  </si>
-  <si>
-    <t>Présenter nouvelle GUI - manque graphe #paquets recus (Cron..)</t>
-  </si>
-  <si>
-    <t>1 Dashboard pour les accès?</t>
-  </si>
-  <si>
-    <t>Alerts par mois plutôt ?Mai - Juin…</t>
-  </si>
-  <si>
-    <t>Average alertes?</t>
-  </si>
-  <si>
-    <t>Bouger makefile et make</t>
-  </si>
-  <si>
-    <t>Réorganiser tools network</t>
-  </si>
-  <si>
-    <t>Organiser conf par thème et couleur?
-Rouge obligatoire (quick start)
-Gris noir : sécurité
-Optimisation vert…</t>
-  </si>
-  <si>
-    <t>Infra exacte?full duplex ou non des firewalls..</t>
-  </si>
-  <si>
-    <t>Notice PowerEdge
-Graylog Clustering
-Implémentation Clustering
-dans Datacenter 
-avec CentOS</t>
   </si>
 </sst>
 </file>
@@ -439,7 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,29 +833,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,7 +1161,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:I27"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1213,9 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="J2" s="21" t="s">
         <v>27</v>
       </c>
@@ -1254,9 +1251,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="21" t="s">
         <v>29</v>
       </c>
@@ -1274,8 +1269,8 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="28" t="s">
-        <v>75</v>
+      <c r="I5" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>30</v>
@@ -1302,9 +1297,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="I6" s="28"/>
       <c r="J6" s="21" t="s">
         <v>31</v>
       </c>
@@ -1319,9 +1312,7 @@
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
-      <c r="F7" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1584,7 +1575,7 @@
         <v>71</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="45" t="s">
@@ -1610,7 +1601,7 @@
       <c r="D21" s="57"/>
       <c r="E21" s="8"/>
       <c r="F21" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
@@ -1652,7 +1643,7 @@
       <c r="D23" s="57"/>
       <c r="E23" s="8"/>
       <c r="F23" s="48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
@@ -1667,14 +1658,14 @@
         <v>43273</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -1694,7 +1685,7 @@
       <c r="D25" s="57"/>
       <c r="E25" s="8"/>
       <c r="F25" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
@@ -1714,7 +1705,7 @@
       <c r="D26" s="57"/>
       <c r="E26" s="8"/>
       <c r="F26" s="45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
@@ -1731,14 +1722,14 @@
         <v>43276</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="39" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
@@ -1755,7 +1746,7 @@
         <v>43277</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="40"/>
@@ -1780,7 +1771,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="47"/>
       <c r="J29" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1790,8 +1781,8 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>90</v>
+      <c r="C30" s="68" t="s">
+        <v>103</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="40"/>
@@ -1810,17 +1801,17 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="57"/>
       <c r="E31" s="40"/>
       <c r="F31" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+        <v>92</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1830,17 +1821,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="57"/>
       <c r="E32" s="40"/>
       <c r="F32" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
       <c r="I32" s="47"/>
       <c r="J32" s="38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,17 +1841,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="57"/>
       <c r="E33" s="41"/>
       <c r="F33" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
       <c r="I33" s="47"/>
-      <c r="J33" s="68" t="s">
-        <v>103</v>
+      <c r="J33" s="66" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1876,12 +1867,12 @@
       <c r="D34" s="57"/>
       <c r="E34" s="31"/>
       <c r="F34" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
-      <c r="J34" s="69"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1894,12 +1885,12 @@
       <c r="D35" s="57"/>
       <c r="E35" s="30"/>
       <c r="F35" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="69"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1915,7 +1906,7 @@
       <c r="G36" s="46"/>
       <c r="H36" s="46"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="69"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1993,7 +1984,7 @@
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
@@ -2104,7 +2095,7 @@
         <v>43297</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>15</v>
@@ -2118,7 +2109,7 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="64"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="40"/>
       <c r="E49" s="8"/>
     </row>
@@ -2129,7 +2120,7 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="64"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="40"/>
       <c r="E50" s="8"/>
     </row>
@@ -2140,7 +2131,7 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="40"/>
       <c r="E51" s="8"/>
     </row>
@@ -2151,7 +2142,7 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="64"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="40"/>
       <c r="E52" s="8"/>
     </row>
@@ -2162,7 +2153,7 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="64"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="40"/>
       <c r="E53" s="8"/>
     </row>
@@ -2173,7 +2164,7 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="64"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="41"/>
       <c r="E54" s="8"/>
     </row>
@@ -2184,7 +2175,7 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="64"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="54" t="s">
         <v>58</v>
       </c>
@@ -2197,7 +2188,7 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="64"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="40"/>
       <c r="E56" s="8"/>
     </row>
@@ -2208,7 +2199,7 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="64"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="40"/>
       <c r="E57" s="8"/>
     </row>
@@ -2219,7 +2210,7 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="64"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="40"/>
       <c r="E58" s="8"/>
     </row>
@@ -2230,7 +2221,7 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="64"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="40"/>
       <c r="E59" s="8"/>
     </row>
@@ -2241,7 +2232,7 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="64"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="40"/>
       <c r="E60" s="8"/>
     </row>
@@ -2252,7 +2243,7 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="64"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="41"/>
       <c r="E61" s="8"/>
     </row>
@@ -2264,7 +2255,7 @@
         <v>43311</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D62" s="54"/>
       <c r="E62" s="8"/>
@@ -2357,7 +2348,7 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="64"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="40"/>
       <c r="E70" s="23"/>
     </row>
@@ -2368,7 +2359,7 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="64"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="40"/>
       <c r="E71" s="8"/>
     </row>
@@ -2379,7 +2370,7 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="64"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="40"/>
       <c r="E72" s="8"/>
     </row>
@@ -2390,7 +2381,7 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="64"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="40"/>
       <c r="E73" s="8"/>
     </row>
@@ -2401,7 +2392,7 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="64"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="40"/>
       <c r="E74" s="8"/>
     </row>
@@ -2412,7 +2403,7 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="64"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="41"/>
       <c r="E75" s="8"/>
     </row>
@@ -2423,10 +2414,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="64"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="54"/>
       <c r="E76" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,7 +2427,7 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="64"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
     </row>
@@ -2447,7 +2438,7 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="64"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
     </row>
@@ -2458,7 +2449,7 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="64"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
     </row>
@@ -2469,7 +2460,7 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="64"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
     </row>
@@ -2480,7 +2471,7 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="64"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
     </row>
@@ -2491,7 +2482,7 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="65"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
     </row>
@@ -2979,7 +2970,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="42" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -434,7 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,14 +764,68 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,39 +836,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -824,37 +851,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,10 +1177,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1190,12 +1190,12 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1283,13 +1283,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1309,9 +1309,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1327,9 +1327,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="28"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1348,8 +1348,8 @@
       <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="11" t="s">
         <v>70</v>
       </c>
@@ -1370,8 +1370,8 @@
       <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="11" t="s">
         <v>68</v>
       </c>
@@ -1390,8 +1390,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1410,8 +1410,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1427,19 +1427,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="48" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="19" t="s">
         <v>37</v>
       </c>
@@ -1451,15 +1451,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="45" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="19" t="s">
         <v>38</v>
       </c>
@@ -1471,15 +1471,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="45" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="19" t="s">
         <v>39</v>
       </c>
@@ -1491,15 +1491,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="45" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="19" t="s">
         <v>40</v>
       </c>
@@ -1511,15 +1511,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1531,15 +1531,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="45" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="19" t="s">
         <v>52</v>
       </c>
@@ -1551,15 +1551,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="45" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="20" t="s">
         <v>42</v>
       </c>
@@ -1574,16 +1574,16 @@
       <c r="C20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="65" t="s">
         <v>101</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="19" t="s">
         <v>43</v>
       </c>
@@ -1598,14 +1598,14 @@
       <c r="C21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="19" t="s">
         <v>44</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="C22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="8"/>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
@@ -1640,14 +1640,14 @@
       <c r="C23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,16 +1660,16 @@
       <c r="C24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="20" t="s">
         <v>46</v>
       </c>
@@ -1682,14 +1682,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="57"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
       <c r="J25" s="19" t="s">
         <v>47</v>
       </c>
@@ -1702,14 +1702,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="57"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="19" t="s">
         <v>48</v>
       </c>
@@ -1724,16 +1724,16 @@
       <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="66"/>
+      <c r="E27" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="19" t="s">
         <v>49</v>
       </c>
@@ -1748,8 +1748,8 @@
       <c r="C28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="49"/>
       <c r="J28" s="19" t="s">
         <v>50</v>
       </c>
@@ -1764,12 +1764,12 @@
       <c r="C29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="19" t="s">
         <v>86</v>
       </c>
@@ -1781,15 +1781,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1801,15 +1801,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="48" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="38" t="s">
         <v>97</v>
       </c>
@@ -1821,15 +1821,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="45" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="38" t="s">
         <v>98</v>
       </c>
@@ -1841,16 +1841,16 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="45" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="66" t="s">
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="39" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1861,18 +1861,18 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="67"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1881,16 +1881,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="67"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1899,14 +1899,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="67"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1915,8 +1915,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="8"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
@@ -1931,8 +1931,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="8"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
@@ -1947,8 +1947,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="8"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
@@ -1963,8 +1963,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="8"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
@@ -1979,11 +1979,11 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51" t="s">
         <v>83</v>
       </c>
       <c r="F41" s="11"/>
@@ -1999,9 +1999,9 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2015,9 +2015,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2031,9 +2031,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2047,9 +2047,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2063,9 +2063,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -2079,9 +2079,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -2094,10 +2094,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="51" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2109,8 +2109,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="40"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,8 +2120,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,8 +2131,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="40"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,8 +2142,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="40"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,8 +2153,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="40"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,8 +2164,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="41"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,8 +2175,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="54" t="s">
+      <c r="C55" s="48"/>
+      <c r="D55" s="47" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8"/>
@@ -2188,8 +2188,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="40"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,8 +2199,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="40"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,8 +2210,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="40"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2221,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="40"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,8 +2232,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="40"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,8 +2243,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="41"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,10 +2254,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="54"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,8 +2267,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2278,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2289,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,8 +2300,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2311,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2322,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,10 +2333,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="47" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="24"/>
@@ -2348,8 +2348,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="40"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,8 +2359,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="40"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,8 +2370,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="40"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,8 +2381,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="40"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,8 +2392,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="40"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,8 +2403,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,9 +2414,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="39" t="s">
+      <c r="C76" s="48"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2427,9 +2427,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2438,9 +2438,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2449,9 +2449,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2460,9 +2460,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2471,9 +2471,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2482,9 +2482,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2493,10 +2493,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="8"/>
@@ -2508,8 +2508,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,8 +2519,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,8 +2530,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2541,8 +2541,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,8 +2552,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,8 +2563,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,10 +2574,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="47" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="8"/>
@@ -2589,8 +2589,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,8 +2600,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,8 +2611,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,8 +2622,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,8 +2633,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,8 +2644,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2655,10 +2655,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="47" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="8"/>
@@ -2670,8 +2670,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,8 +2681,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,8 +2692,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,8 +2703,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,8 +2714,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,8 +2725,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="47" t="s">
         <v>66</v>
       </c>
       <c r="E104" s="8"/>
@@ -2751,8 +2751,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2762,8 +2762,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,8 +2773,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,8 +2784,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,8 +2795,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,8 +2806,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="41"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="50"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,8 +2817,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="54" t="s">
+      <c r="C111" s="49"/>
+      <c r="D111" s="47" t="s">
         <v>67</v>
       </c>
       <c r="E111" s="8"/>
@@ -2830,8 +2830,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,8 +2841,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,8 +2852,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,8 +2863,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,8 +2874,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,8 +2885,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,77 +2969,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="42" t="s">
+      <c r="C125" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="62"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="62"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3379,19 +3379,34 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="C125:E136"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
@@ -3408,34 +3423,19 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C62:C68"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="C125:E136"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -277,9 +277,6 @@
     <t>c-groups - network int</t>
   </si>
   <si>
-    <t>ext2-4…Dos…MBR GPT…XFS NFS</t>
-  </si>
-  <si>
     <t>Continuer rapport</t>
   </si>
   <si>
@@ -338,13 +335,6 @@
   </si>
   <si>
     <t>Infra exacte?full duplex ou non des firewalls..</t>
-  </si>
-  <si>
-    <t>Notice PowerEdge
-Graylog Clustering
-Implémentation Clustering
-dans Datacenter 
-avec CentOS</t>
   </si>
   <si>
     <t xml:space="preserve">Livres Home
@@ -362,6 +352,16 @@
   </si>
   <si>
     <t>Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Graylog Clustering
+Implémentation Clustering
+dans Datacenter 
+avec CentOS</t>
+  </si>
+  <si>
+    <t>ext2-3…Dos…MBR GPT…XFS NFS</t>
   </si>
 </sst>
 </file>
@@ -809,6 +809,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,6 +830,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,21 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,9 +1193,9 @@
       <c r="F1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>30</v>
@@ -1283,13 +1283,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1309,9 +1309,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1327,9 +1327,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="28"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1348,8 +1348,8 @@
       <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="11" t="s">
         <v>70</v>
       </c>
@@ -1370,8 +1370,8 @@
       <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="11" t="s">
         <v>68</v>
       </c>
@@ -1390,8 +1390,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1410,8 +1410,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1427,19 +1427,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="19" t="s">
         <v>37</v>
       </c>
@@ -1451,9 +1451,9 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1471,9 +1471,9 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="41" t="s">
         <v>21</v>
       </c>
@@ -1491,9 +1491,9 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
@@ -1511,9 +1511,9 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
@@ -1531,9 +1531,9 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
@@ -1551,9 +1551,9 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
@@ -1574,8 +1574,8 @@
       <c r="C20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>101</v>
+      <c r="D20" s="54" t="s">
+        <v>102</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="41" t="s">
@@ -1598,10 +1598,10 @@
       <c r="C21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
@@ -1620,7 +1620,7 @@
       <c r="C22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
@@ -1640,14 +1640,14 @@
       <c r="C23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
+        <v>90</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,12 +1660,12 @@
       <c r="C24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
@@ -1682,10 +1682,10 @@
         <v>43274</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="66"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="8"/>
       <c r="F25" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
@@ -1702,10 +1702,10 @@
         <v>43275</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="66"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -1724,12 +1724,12 @@
       <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="51" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -1748,7 +1748,7 @@
       <c r="C28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="66"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="49"/>
       <c r="J28" s="19" t="s">
         <v>50</v>
@@ -1764,14 +1764,14 @@
       <c r="C29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="49"/>
       <c r="F29" s="41"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
       <c r="J29" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,10 +1781,10 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="66"/>
+      <c r="C30" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="55"/>
       <c r="E30" s="49"/>
       <c r="F30" s="41"/>
       <c r="G30" s="42"/>
@@ -1801,17 +1801,17 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="66"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="49"/>
       <c r="F31" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
       <c r="I31" s="46"/>
       <c r="J31" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,17 +1821,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="49"/>
       <c r="F32" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
       <c r="I32" s="43"/>
       <c r="J32" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1841,17 +1841,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="66"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="50"/>
       <c r="F33" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
       <c r="I33" s="43"/>
       <c r="J33" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1861,13 +1861,13 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="66"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="31"/>
       <c r="F34" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
@@ -1881,11 +1881,11 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="66"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="30"/>
       <c r="F35" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
@@ -1899,8 +1899,8 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="66"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="8"/>
       <c r="F36" s="41"/>
       <c r="G36" s="42"/>
@@ -1915,8 +1915,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="66"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="8"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
@@ -1931,8 +1931,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="66"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="8"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
@@ -1947,8 +1947,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="66"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="8"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
@@ -1963,8 +1963,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
@@ -2095,7 +2095,7 @@
         <v>43297</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>15</v>
@@ -2255,7 +2255,7 @@
         <v>43311</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" s="47"/>
       <c r="E62" s="8"/>
@@ -2417,7 +2417,7 @@
       <c r="C76" s="48"/>
       <c r="D76" s="47"/>
       <c r="E76" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,77 +2969,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
+      <c r="C125" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
   <si>
     <t>lundi</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>ext2-3…Dos…MBR GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>/var/log/auth.log - auditd</t>
+  </si>
+  <si>
+    <t>Merger hardening - attaques partie sécurisation</t>
   </si>
 </sst>
 </file>
@@ -764,98 +770,98 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,10 +1183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1190,12 +1196,12 @@
       <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1272,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
@@ -1283,13 +1291,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="51" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1309,9 +1317,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1327,9 +1335,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="28"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1348,8 +1356,8 @@
       <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="11" t="s">
         <v>70</v>
       </c>
@@ -1370,8 +1378,8 @@
       <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="11" t="s">
         <v>68</v>
       </c>
@@ -1390,8 +1398,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1410,8 +1418,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1433,13 +1441,13 @@
       <c r="D13" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="19" t="s">
         <v>37</v>
       </c>
@@ -1451,15 +1459,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="41" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="19" t="s">
         <v>38</v>
       </c>
@@ -1471,15 +1479,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="41" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="19" t="s">
         <v>39</v>
       </c>
@@ -1491,15 +1499,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="41" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="19" t="s">
         <v>40</v>
       </c>
@@ -1511,15 +1519,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="41" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1531,15 +1539,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="41" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="19" t="s">
         <v>52</v>
       </c>
@@ -1551,15 +1559,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="41" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="20" t="s">
         <v>42</v>
       </c>
@@ -1574,16 +1582,16 @@
       <c r="C20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="56" t="s">
         <v>102</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="19" t="s">
         <v>43</v>
       </c>
@@ -1598,14 +1606,14 @@
       <c r="C21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="19" t="s">
         <v>44</v>
       </c>
@@ -1620,7 +1628,7 @@
       <c r="C22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="8"/>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
@@ -1640,14 +1648,14 @@
       <c r="C23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,16 +1668,16 @@
       <c r="C24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="20" t="s">
         <v>46</v>
       </c>
@@ -1682,14 +1690,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="55"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="19" t="s">
         <v>47</v>
       </c>
@@ -1702,14 +1710,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="55"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="19" t="s">
         <v>48</v>
       </c>
@@ -1724,16 +1732,16 @@
       <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="51" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="19" t="s">
         <v>49</v>
       </c>
@@ -1748,8 +1756,8 @@
       <c r="C28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="49"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="40"/>
       <c r="J28" s="19" t="s">
         <v>50</v>
       </c>
@@ -1764,12 +1772,12 @@
       <c r="C29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="19" t="s">
         <v>85</v>
       </c>
@@ -1781,17 +1789,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="19" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1801,17 +1809,17 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="44" t="s">
+      <c r="C31" s="62"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="38" t="s">
-        <v>96</v>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,17 +1829,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="41" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1841,17 +1849,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="41" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="39" t="s">
-        <v>98</v>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="38" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1861,18 +1869,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="40"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="68" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1881,16 +1891,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="55"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="40"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1899,14 +1909,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="55"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="40"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1915,14 +1925,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="8"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1931,14 +1941,14 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="55"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="8"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="37"/>
-      <c r="J38" s="19"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1947,8 +1957,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="8"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
@@ -1963,8 +1973,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="8"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
@@ -1979,11 +1989,11 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>82</v>
       </c>
       <c r="F41" s="11"/>
@@ -1999,9 +2009,9 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2015,9 +2025,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2031,9 +2041,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2047,9 +2057,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2063,9 +2073,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -2079,13 +2089,14 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="37"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -2094,10 +2105,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="39" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2109,8 +2120,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,8 +2131,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,8 +2142,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,8 +2153,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,8 +2164,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,8 +2175,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,8 +2186,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="47" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="54" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8"/>
@@ -2188,8 +2199,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,8 +2210,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,8 +2221,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2232,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,8 +2243,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,8 +2254,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,10 +2265,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,8 +2278,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2289,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2300,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,8 +2311,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2322,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2333,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,10 +2344,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C69" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="54" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="24"/>
@@ -2348,8 +2359,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,8 +2370,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,8 +2381,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,8 +2392,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="40"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,8 +2403,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,8 +2414,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="50"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,9 +2425,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="51" t="s">
+      <c r="C76" s="64"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="39" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2427,9 +2438,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2438,9 +2449,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2449,9 +2460,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2460,9 +2471,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2471,9 +2482,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2482,9 +2493,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="52"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2493,10 +2504,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D83" s="54" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="8"/>
@@ -2508,8 +2519,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,8 +2530,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,8 +2541,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2541,8 +2552,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,8 +2563,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,8 +2574,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,10 +2585,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="54" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="8"/>
@@ -2589,8 +2600,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,8 +2611,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,8 +2622,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,8 +2633,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,8 +2644,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,8 +2655,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2655,10 +2666,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D97" s="54" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="8"/>
@@ -2670,8 +2681,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,8 +2692,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,8 +2703,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,8 +2714,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,8 +2725,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,8 +2736,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,10 +2747,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="47" t="s">
+      <c r="C104" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="47" t="s">
+      <c r="D104" s="54" t="s">
         <v>66</v>
       </c>
       <c r="E104" s="8"/>
@@ -2751,8 +2762,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2762,8 +2773,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,8 +2784,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,8 +2795,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,8 +2806,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,8 +2817,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="50"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,8 +2828,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="49"/>
-      <c r="D111" s="47" t="s">
+      <c r="C111" s="40"/>
+      <c r="D111" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E111" s="8"/>
@@ -2830,8 +2841,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,8 +2852,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,8 +2863,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,8 +2874,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,8 +2885,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,8 +2896,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,77 +2980,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="65" t="s">
+      <c r="C125" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D125" s="66"/>
-      <c r="E125" s="66"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3379,6 +3390,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
     <mergeCell ref="E76:E82"/>
     <mergeCell ref="C125:E136"/>
     <mergeCell ref="F21:I21"/>
@@ -3395,47 +3447,6 @@
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="C41:C47"/>
     <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>lundi</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Suricata + Graylog
  documentation
 complète</t>
-  </si>
-  <si>
-    <t>ntpd httpd sftpd</t>
   </si>
   <si>
     <t>SE Linux</t>
@@ -361,31 +358,33 @@
 avec CentOS</t>
   </si>
   <si>
-    <t>ext2-3…Dos…MBR GPT…XFS NFS</t>
-  </si>
-  <si>
     <t>/var/log/auth.log - auditd</t>
   </si>
   <si>
     <t>Merger hardening - attaques partie sécurisation</t>
+  </si>
+  <si>
+    <t>Sauvegarde Repo USB</t>
+  </si>
+  <si>
+    <t>MBR GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>Comment gérer authentification Acces IDS ? Mdp+clefs
+Certificats?LDAP?</t>
+  </si>
+  <si>
+    <t>ntpd httpd sftpd vsftpd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,6 +401,19 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -674,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -698,9 +710,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,17 +725,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,14 +779,92 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -788,80 +875,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="55"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1215,14 +1233,14 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1235,12 +1253,12 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="21" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1253,12 +1271,12 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="21" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1271,16 +1289,16 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1291,22 +1309,22 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="21" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1317,14 +1335,14 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="21" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1335,14 +1353,14 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="19" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1353,18 +1371,18 @@
       <c r="B9" s="6">
         <v>43258</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="19" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1375,18 +1393,18 @@
       <c r="B10" s="6">
         <v>43259</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="20" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1397,16 +1415,16 @@
       <c r="B11" s="6">
         <v>43260</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="19" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1417,14 +1435,14 @@
       <c r="B12" s="6">
         <v>43261</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="19" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1435,20 +1453,20 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="48" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="19" t="s">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1459,16 +1477,16 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="45" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="19" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1479,16 +1497,16 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="45" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="19" t="s">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1499,16 +1517,16 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="45" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="19" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1519,16 +1537,16 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="19" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1539,16 +1557,16 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="45" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="19" t="s">
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1559,16 +1577,16 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="45" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="20" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1579,20 +1597,20 @@
       <c r="B20" s="6">
         <v>43269</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>71</v>
+      <c r="C20" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="19" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1603,18 +1621,18 @@
       <c r="B21" s="6">
         <v>43270</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>72</v>
+      <c r="C21" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="19" t="s">
+      <c r="F21" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1625,16 +1643,16 @@
       <c r="B22" s="6">
         <v>43271</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>76</v>
+      <c r="C22" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="19" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1645,18 +1663,18 @@
       <c r="B23" s="6">
         <v>43272</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>78</v>
+      <c r="C23" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="19"/>
+      <c r="F23" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1665,20 +1683,20 @@
       <c r="B24" s="6">
         <v>43273</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>79</v>
+      <c r="C24" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="57"/>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="20" t="s">
+      <c r="F24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1689,16 +1707,16 @@
       <c r="B25" s="6">
         <v>43274</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="57"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="19" t="s">
+      <c r="F25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1709,16 +1727,16 @@
       <c r="B26" s="6">
         <v>43275</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="57"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="19" t="s">
+      <c r="F26" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1729,20 +1747,20 @@
       <c r="B27" s="6">
         <v>43276</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>80</v>
+      <c r="C27" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="D27" s="57"/>
-      <c r="E27" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="19" t="s">
+      <c r="E27" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1753,12 +1771,12 @@
       <c r="B28" s="6">
         <v>43277</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>81</v>
+      <c r="C28" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="57"/>
-      <c r="E28" s="40"/>
-      <c r="J28" s="19" t="s">
+      <c r="E28" s="50"/>
+      <c r="J28" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1769,17 +1787,17 @@
       <c r="B29" s="6">
         <v>43278</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>77</v>
+      <c r="C29" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="57"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="19" t="s">
-        <v>85</v>
+      <c r="E29" s="50"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1789,17 +1807,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>101</v>
+      <c r="C30" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="D30" s="57"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="19" t="s">
-        <v>105</v>
+      <c r="E30" s="50"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,16 +1827,16 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="57"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="19" t="s">
+      <c r="E31" s="50"/>
+      <c r="F31" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1829,17 +1847,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="57"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="38" t="s">
-        <v>96</v>
+      <c r="E32" s="50"/>
+      <c r="F32" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,17 +1867,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="57"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="38" t="s">
-        <v>97</v>
+      <c r="E33" s="51"/>
+      <c r="F33" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="37" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1869,19 +1887,19 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="60" t="s">
-        <v>74</v>
+      <c r="C34" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="D34" s="57"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="68" t="s">
-        <v>98</v>
+      <c r="E34" s="30"/>
+      <c r="F34" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1891,16 +1909,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="60"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="57"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="69"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1909,14 +1927,16 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="60"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="57"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="69"/>
+      <c r="F36" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1925,14 +1945,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="60"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="57"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="69"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1941,14 +1961,14 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="57"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1957,14 +1977,14 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="60"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="57"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="19"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1973,14 +1993,14 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="58"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="19"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -1989,18 +2009,18 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="19"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2009,14 +2029,14 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="19"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -2025,14 +2045,14 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="19"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -2041,14 +2061,14 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="19"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -2057,14 +2077,14 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="19"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -2073,14 +2093,14 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="19"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -2089,14 +2109,14 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="19"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -2105,10 +2125,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="C48" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2120,8 +2140,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="40"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,8 +2151,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,8 +2162,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="40"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,8 +2173,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="40"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,8 +2184,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="40"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,8 +2195,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="41"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,8 +2206,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="54" t="s">
+      <c r="C55" s="49"/>
+      <c r="D55" s="48" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8"/>
@@ -2199,8 +2219,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="40"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,8 +2230,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="40"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2241,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="40"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,8 +2252,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="64"/>
-      <c r="D59" s="40"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,8 +2263,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="40"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,8 +2274,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="41"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,10 +2285,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="54"/>
+      <c r="C62" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="48"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2298,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,9 +2309,11 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="8"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -2300,8 +2322,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2333,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2344,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,8 +2355,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,13 +2366,13 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="24"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -2359,9 +2381,9 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="23"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -2370,8 +2392,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="40"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,8 +2403,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="40"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="50"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,8 +2414,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="40"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="50"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,8 +2425,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="40"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,8 +2436,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="51"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,10 +2447,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="39" t="s">
-        <v>82</v>
+      <c r="C76" s="49"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,9 +2460,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2449,9 +2471,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2460,9 +2482,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2471,9 +2493,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="64"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2482,9 +2504,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="64"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2493,9 +2515,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="65"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2504,10 +2526,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="8"/>
@@ -2519,8 +2541,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,8 +2552,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2541,8 +2563,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,8 +2574,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,8 +2585,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,8 +2596,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,10 +2607,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="48" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="8"/>
@@ -2600,8 +2622,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,8 +2633,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,8 +2644,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,8 +2655,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,9 +2666,11 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="8"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -2655,8 +2679,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,10 +2690,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="48" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="8"/>
@@ -2681,8 +2705,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,8 +2716,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,8 +2727,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,8 +2738,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,8 +2749,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,8 +2760,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2747,10 +2771,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="48" t="s">
         <v>66</v>
       </c>
       <c r="E104" s="8"/>
@@ -2762,8 +2786,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,8 +2797,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,8 +2808,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,8 +2819,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,8 +2830,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,8 +2841,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="41"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,8 +2852,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="54" t="s">
+      <c r="C111" s="50"/>
+      <c r="D111" s="48" t="s">
         <v>67</v>
       </c>
       <c r="E111" s="8"/>
@@ -2841,8 +2865,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,8 +2876,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,8 +2887,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,8 +2898,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,8 +2909,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,8 +2920,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="51"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2953,7 +2977,9 @@
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -2980,77 +3006,77 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
+      <c r="C125" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="69"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="69"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="69"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="69"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="69"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3390,19 +3416,34 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="C125:E136"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
@@ -3419,34 +3460,19 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C62:C68"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="C125:E136"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F36:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
   <si>
     <t>lundi</t>
   </si>
@@ -332,6 +332,28 @@
   </si>
   <si>
     <t>Infra exacte?full duplex ou non des firewalls..</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>/var/log/auth.log - auditd</t>
+  </si>
+  <si>
+    <t>Merger hardening - attaques partie sécurisation</t>
+  </si>
+  <si>
+    <t>Sauvegarde Repo USB</t>
+  </si>
+  <si>
+    <t>MBR GPT…XFS NFS</t>
+  </si>
+  <si>
+    <t>Comment gérer authentification Acces IDS ? Mdp+clefs
+Certificats?LDAP?</t>
+  </si>
+  <si>
+    <t>ntpd httpd sftpd vsftpd</t>
   </si>
   <si>
     <t xml:space="preserve">Livres Home
@@ -343,38 +365,22 @@
 -
 Bareos
 Iptables - netfilter
+Polkitd - auditd - Sudo
+Installation programmes en Sudo?User?Su? -&gt; Sécurité
+chkconfig
 -
 Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
 </t>
   </si>
   <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Graylog Clustering
+    <t>Graylog Clustering
 Implémentation Clustering
 dans Datacenter 
 avec CentOS</t>
   </si>
   <si>
-    <t>/var/log/auth.log - auditd</t>
-  </si>
-  <si>
-    <t>Merger hardening - attaques partie sécurisation</t>
-  </si>
-  <si>
-    <t>Sauvegarde Repo USB</t>
-  </si>
-  <si>
-    <t>MBR GPT…XFS NFS</t>
-  </si>
-  <si>
-    <t>Comment gérer authentification Acces IDS ? Mdp+clefs
-Certificats?LDAP?</t>
-  </si>
-  <si>
-    <t>ntpd httpd sftpd vsftpd</t>
+    <t xml:space="preserve">
+Serveur non dispo</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -682,11 +688,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -782,6 +801,84 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,97 +886,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,10 +1214,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1217,9 +1230,9 @@
       <c r="F1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1291,12 +1304,12 @@
       <c r="D5" s="8"/>
       <c r="E5" s="13"/>
       <c r="F5" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>30</v>
@@ -1309,13 +1322,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="48" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1335,9 +1348,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1353,9 +1366,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1374,10 +1387,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1396,8 +1409,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="10" t="s">
         <v>68</v>
       </c>
@@ -1416,8 +1429,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1436,8 +1449,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1453,19 +1466,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
@@ -1477,15 +1490,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="41" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="18" t="s">
         <v>38</v>
       </c>
@@ -1497,15 +1510,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="41" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="18" t="s">
         <v>39</v>
       </c>
@@ -1517,15 +1530,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="41" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="18" t="s">
         <v>40</v>
       </c>
@@ -1537,15 +1550,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="41" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="18" t="s">
         <v>41</v>
       </c>
@@ -1557,15 +1570,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="41" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="18" t="s">
         <v>52</v>
       </c>
@@ -1577,15 +1590,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="41" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="19" t="s">
         <v>42</v>
       </c>
@@ -1600,16 +1613,16 @@
       <c r="C20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>101</v>
+      <c r="D20" s="68" t="s">
+        <v>108</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="18" t="s">
         <v>43</v>
       </c>
@@ -1624,14 +1637,14 @@
       <c r="C21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="18" t="s">
         <v>44</v>
       </c>
@@ -1646,7 +1659,7 @@
       <c r="C22" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1666,14 +1679,14 @@
       <c r="C23" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="8"/>
       <c r="F23" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,16 +1699,16 @@
       <c r="C24" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="19" t="s">
         <v>46</v>
       </c>
@@ -1708,14 +1721,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="57"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="18" t="s">
         <v>47</v>
       </c>
@@ -1728,14 +1741,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="57"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="18" t="s">
         <v>48</v>
       </c>
@@ -1750,16 +1763,16 @@
       <c r="C27" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="18" t="s">
         <v>49</v>
       </c>
@@ -1774,8 +1787,8 @@
       <c r="C28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="43"/>
       <c r="J28" s="18" t="s">
         <v>50</v>
       </c>
@@ -1790,12 +1803,12 @@
       <c r="C29" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="18" t="s">
         <v>84</v>
       </c>
@@ -1807,17 +1820,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="C30" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1827,15 +1840,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="50"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="18" t="s">
         <v>51</v>
       </c>
@@ -1847,15 +1860,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="41" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="37" t="s">
         <v>95</v>
       </c>
@@ -1867,15 +1880,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="41" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="37" t="s">
         <v>96</v>
       </c>
@@ -1887,18 +1900,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="54" t="s">
+        <v>107</v>
+      </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="39" t="s">
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1909,16 +1924,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1927,16 +1942,16 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="40"/>
+      <c r="F36" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1945,14 +1960,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="40"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1961,8 +1976,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -1977,8 +1992,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -1993,8 +2008,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2009,11 +2024,11 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52" t="s">
+      <c r="D41" s="54"/>
+      <c r="E41" s="42" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="10"/>
@@ -2029,9 +2044,9 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2045,9 +2060,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2061,9 +2076,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2077,9 +2092,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2093,9 +2108,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2109,9 +2124,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2125,10 +2140,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2140,8 +2155,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,8 +2166,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,8 +2177,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,8 +2188,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,8 +2199,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2195,8 +2210,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="51"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,8 +2221,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="48" t="s">
+      <c r="C55" s="63"/>
+      <c r="D55" s="58" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8"/>
@@ -2219,8 +2234,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,8 +2245,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,8 +2256,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,8 +2267,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2263,8 +2278,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,8 +2289,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="51"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2285,10 +2300,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="48"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,8 +2313,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,10 +2324,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2337,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,8 +2348,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,8 +2359,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,8 +2370,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,10 +2381,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="58" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="23"/>
@@ -2381,8 +2396,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="50"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,8 +2407,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="50"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,8 +2418,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="50"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,8 +2429,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="50"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,8 +2440,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="50"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,8 +2451,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="51"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,9 +2462,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="52" t="s">
+      <c r="C76" s="63"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="42" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2460,9 +2475,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2471,9 +2486,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2482,9 +2497,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2493,9 +2508,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2504,9 +2519,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2515,9 +2530,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2526,10 +2541,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="58" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="8"/>
@@ -2541,8 +2556,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,8 +2567,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,8 +2578,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,8 +2589,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,8 +2600,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,8 +2611,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,10 +2622,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="58" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="8"/>
@@ -2622,8 +2637,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,8 +2648,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,8 +2659,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2655,8 +2670,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,10 +2681,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,8 +2694,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,10 +2705,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="48" t="s">
+      <c r="D97" s="58" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="8"/>
@@ -2705,8 +2720,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,8 +2731,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,8 +2742,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,8 +2753,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,8 +2764,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,8 +2775,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,10 +2786,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="48" t="s">
+      <c r="C104" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D104" s="58" t="s">
         <v>66</v>
       </c>
       <c r="E104" s="8"/>
@@ -2786,8 +2801,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2797,8 +2812,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2808,8 +2823,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,8 +2834,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,8 +2845,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,8 +2856,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="50"/>
-      <c r="D110" s="51"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="44"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,8 +2867,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="48" t="s">
+      <c r="C111" s="43"/>
+      <c r="D111" s="58" t="s">
         <v>67</v>
       </c>
       <c r="E111" s="8"/>
@@ -2865,8 +2880,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,8 +2891,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2887,8 +2902,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2898,8 +2913,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,8 +2924,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,8 +2935,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2978,7 +2993,7 @@
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3003,95 +3018,110 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D125" s="68"/>
-      <c r="E125" s="68"/>
+      <c r="C125" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="69"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="69"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="69"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="62"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="69"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="69"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="69"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="62"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="62"/>
+      <c r="E138" s="62"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="62"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="62"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
@@ -3416,8 +3446,50 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C125:E141"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D34:D47"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D48:D54"/>
     <mergeCell ref="E76:E82"/>
-    <mergeCell ref="C125:E136"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
@@ -3430,49 +3502,7 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="E6:E19"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F36:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -356,6 +356,16 @@
     <t>ntpd httpd sftpd vsftpd</t>
   </si>
   <si>
+    <t>Graylog Clustering
+Implémentation Clustering
+dans Datacenter 
+avec CentOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Serveur non dispo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Livres Home
 Certifications
 GNS3 (exos goffinet)
@@ -370,17 +380,9 @@
 chkconfig
 -
 Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
+-
+Machine learning
 </t>
-  </si>
-  <si>
-    <t>Graylog Clustering
-Implémentation Clustering
-dans Datacenter 
-avec CentOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Serveur non dispo</t>
   </si>
 </sst>
 </file>
@@ -801,6 +803,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,89 +818,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I30"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,10 +1216,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1227,12 +1229,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1322,13 +1324,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1348,9 +1350,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1366,9 +1368,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1387,8 +1389,8 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="10" t="s">
         <v>105</v>
       </c>
@@ -1409,8 +1411,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="10" t="s">
         <v>68</v>
       </c>
@@ -1429,8 +1431,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1449,8 +1451,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1466,19 +1468,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="45" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
@@ -1490,15 +1492,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="39" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="18" t="s">
         <v>38</v>
       </c>
@@ -1510,15 +1512,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="39" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="18" t="s">
         <v>39</v>
       </c>
@@ -1530,15 +1532,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="39" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="18" t="s">
         <v>40</v>
       </c>
@@ -1550,15 +1552,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="39" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="18" t="s">
         <v>41</v>
       </c>
@@ -1570,15 +1572,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="39" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="18" t="s">
         <v>52</v>
       </c>
@@ -1590,15 +1592,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="39" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="19" t="s">
         <v>42</v>
       </c>
@@ -1613,16 +1615,16 @@
       <c r="C20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="68" t="s">
-        <v>108</v>
+      <c r="D20" s="55" t="s">
+        <v>107</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="18" t="s">
         <v>43</v>
       </c>
@@ -1639,12 +1641,12 @@
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="18" t="s">
         <v>44</v>
       </c>
@@ -1681,12 +1683,12 @@
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1703,12 +1705,12 @@
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="19" t="s">
         <v>46</v>
       </c>
@@ -1723,12 +1725,12 @@
       <c r="C25" s="28"/>
       <c r="D25" s="56"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
       <c r="J25" s="18" t="s">
         <v>47</v>
       </c>
@@ -1743,12 +1745,12 @@
       <c r="C26" s="28"/>
       <c r="D26" s="56"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="18" t="s">
         <v>48</v>
       </c>
@@ -1764,15 +1766,15 @@
         <v>79</v>
       </c>
       <c r="D27" s="56"/>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="18" t="s">
         <v>49</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="D28" s="56"/>
-      <c r="E28" s="43"/>
+      <c r="E28" s="49"/>
       <c r="J28" s="18" t="s">
         <v>50</v>
       </c>
@@ -1804,11 +1806,11 @@
         <v>76</v>
       </c>
       <c r="D29" s="56"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="18" t="s">
         <v>84</v>
       </c>
@@ -1824,11 +1826,11 @@
         <v>99</v>
       </c>
       <c r="D30" s="56"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="18" t="s">
         <v>101</v>
       </c>
@@ -1842,13 +1844,13 @@
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="45" t="s">
+      <c r="E31" s="49"/>
+      <c r="F31" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="18" t="s">
         <v>51</v>
       </c>
@@ -1862,13 +1864,13 @@
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="39" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="37" t="s">
         <v>95</v>
       </c>
@@ -1880,15 +1882,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="39" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="37" t="s">
         <v>96</v>
       </c>
@@ -1900,20 +1902,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="54" t="s">
-        <v>107</v>
+      <c r="D34" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="65" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="39" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1924,16 +1926,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="66"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1942,16 +1944,16 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="66"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1960,14 +1962,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="66"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1976,8 +1978,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -1992,8 +1994,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -2008,8 +2010,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2024,11 +2026,11 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="42" t="s">
+      <c r="D41" s="53"/>
+      <c r="E41" s="51" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="10"/>
@@ -2044,9 +2046,9 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="43"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2060,9 +2062,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="43"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2076,9 +2078,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="43"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2092,9 +2094,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="43"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2108,9 +2110,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2124,9 +2126,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="44"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2140,10 +2142,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="51" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2155,8 +2157,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="43"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,8 +2168,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="43"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,8 +2179,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="43"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,8 +2190,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="43"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,8 +2201,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="43"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,8 +2212,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="44"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2223,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="58" t="s">
+      <c r="C55" s="48"/>
+      <c r="D55" s="47" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8"/>
@@ -2234,8 +2236,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="43"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,8 +2247,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="43"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,8 +2258,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="43"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,8 +2269,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="43"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2280,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2291,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="44"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,10 +2302,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="58"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,8 +2315,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,8 +2326,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="8" t="s">
         <v>102</v>
       </c>
@@ -2337,8 +2339,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2348,8 +2350,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,8 +2361,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,8 +2372,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,10 +2383,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="47" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="23"/>
@@ -2396,8 +2398,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="43"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,8 +2409,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="43"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,8 +2420,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="63"/>
-      <c r="D72" s="43"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,8 +2431,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="43"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2440,8 +2442,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="43"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,8 +2453,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="44"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,9 +2464,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="42" t="s">
+      <c r="C76" s="48"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="51" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2475,9 +2477,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2486,9 +2488,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2497,9 +2499,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2508,9 +2510,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2519,9 +2521,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2530,9 +2532,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="64"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2541,10 +2543,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D83" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="8"/>
@@ -2556,8 +2558,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,8 +2569,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,8 +2580,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,8 +2591,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,8 +2602,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,8 +2613,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,10 +2624,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="42" t="s">
+      <c r="C90" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D90" s="47" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="8"/>
@@ -2637,8 +2639,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,8 +2650,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,8 +2661,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,8 +2672,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,8 +2683,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="8" t="s">
         <v>102</v>
       </c>
@@ -2694,8 +2696,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,10 +2707,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="47" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="8"/>
@@ -2720,8 +2722,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,8 +2733,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2742,8 +2744,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,8 +2755,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2764,8 +2766,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,8 +2777,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,10 +2788,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="58" t="s">
+      <c r="D104" s="47" t="s">
         <v>66</v>
       </c>
       <c r="E104" s="8"/>
@@ -2801,8 +2803,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,8 +2814,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,8 +2825,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,8 +2836,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,8 +2847,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,8 +2858,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="43"/>
-      <c r="D110" s="44"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="50"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,8 +2869,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="43"/>
-      <c r="D111" s="58" t="s">
+      <c r="C111" s="49"/>
+      <c r="D111" s="47" t="s">
         <v>67</v>
       </c>
       <c r="E111" s="8"/>
@@ -2880,8 +2882,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,8 +2893,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2902,8 +2904,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,8 +2915,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,8 +2926,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,8 +2937,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3021,107 +3023,107 @@
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
+      <c r="C125" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="46"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="62"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="62"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="62"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="62"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
@@ -3446,12 +3448,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="C125:E141"/>
@@ -3468,41 +3499,12 @@
     <mergeCell ref="D90:D96"/>
     <mergeCell ref="D34:D47"/>
     <mergeCell ref="D20:D33"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F36:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="108">
   <si>
     <t>lundi</t>
   </si>
@@ -185,10 +185,6 @@
   <si>
     <t>Systemd - services
 Logrotate</t>
-  </si>
-  <si>
-    <t>LDAP théorique
-radius - openLDAP - Freeradius - Fusion directory</t>
   </si>
   <si>
     <t xml:space="preserve">UI Graylog 
@@ -246,11 +242,6 @@
   </si>
   <si>
     <t>Commencer rapport</t>
-  </si>
-  <si>
-    <t>Documentation
-Pacemaker
-Corosync</t>
   </si>
   <si>
     <t>SCSI iSCSI SATA IDE SAS</t>
@@ -337,9 +328,6 @@
     <t>Off</t>
   </si>
   <si>
-    <t>/var/log/auth.log - auditd</t>
-  </si>
-  <si>
     <t>Merger hardening - attaques partie sécurisation</t>
   </si>
   <si>
@@ -364,6 +352,10 @@
   <si>
     <t xml:space="preserve">
 Serveur non dispo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAP théorique
+</t>
   </si>
   <si>
     <t xml:space="preserve">Livres Home
@@ -378,10 +370,18 @@
 Polkitd - auditd - Sudo
 Installation programmes en Sudo?User?Su? -&gt; Sécurité
 chkconfig
+NFS -RPC bind
+Active directory
+PXE
+Kerberos
 -
 Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
 -
 Machine learning
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAP
 </t>
   </si>
 </sst>
@@ -427,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +464,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -707,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -821,80 +827,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,6 +920,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1199,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,10 +1239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1229,12 +1252,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1276,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>27</v>
@@ -1305,13 +1328,11 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>30</v>
@@ -1324,13 +1345,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1350,9 +1371,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1368,9 +1389,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1389,10 +1410,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1411,10 +1432,10 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1431,8 +1452,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1451,8 +1472,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1468,19 +1489,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="65" t="s">
+      <c r="D13" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
@@ -1492,9 +1513,9 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1512,9 +1533,9 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="41" t="s">
         <v>21</v>
       </c>
@@ -1532,9 +1553,9 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
@@ -1552,9 +1573,9 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
@@ -1572,9 +1593,9 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
@@ -1592,9 +1613,9 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
@@ -1613,10 +1634,10 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>107</v>
+        <v>69</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>104</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="41" t="s">
@@ -1637,12 +1658,12 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="56"/>
+        <v>70</v>
+      </c>
+      <c r="D21" s="59"/>
       <c r="E21" s="8"/>
       <c r="F21" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
@@ -1659,9 +1680,9 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="D22" s="59"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1679,16 +1700,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="56"/>
+        <v>75</v>
+      </c>
+      <c r="D23" s="59"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+      <c r="F23" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1699,14 +1720,14 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="D24" s="59"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
@@ -1723,10 +1744,10 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="56"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="8"/>
       <c r="F25" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
@@ -1743,10 +1764,10 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="8"/>
       <c r="F26" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -1763,14 +1784,14 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="58" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="69" t="s">
+        <v>71</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -1787,10 +1808,10 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="49"/>
+        <v>78</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="47"/>
       <c r="J28" s="18" t="s">
         <v>50</v>
       </c>
@@ -1803,16 +1824,16 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="41"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
       <c r="J29" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1822,17 +1843,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="41"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="43"/>
       <c r="J30" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1842,15 +1863,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="18" t="s">
         <v>51</v>
       </c>
@@ -1862,17 +1883,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="49"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
       <c r="I32" s="43"/>
       <c r="J32" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,17 +1903,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="50"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
       <c r="I33" s="43"/>
       <c r="J33" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1902,21 +1923,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>106</v>
+      <c r="C34" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="43"/>
       <c r="J34" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1926,11 +1947,11 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="29"/>
       <c r="F35" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
@@ -1944,11 +1965,11 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="8"/>
       <c r="F36" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
@@ -1962,8 +1983,8 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="8"/>
       <c r="F37" s="41"/>
       <c r="G37" s="42"/>
@@ -1978,8 +1999,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -1994,8 +2015,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -2010,8 +2031,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="53"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2019,19 +2040,19 @@
       <c r="I40" s="36"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="51" t="s">
-        <v>81</v>
+      <c r="C41" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="49" t="s">
+        <v>79</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2046,9 +2067,11 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="49"/>
+      <c r="C42" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2062,9 +2085,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="49"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2078,9 +2101,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="49"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2094,9 +2117,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="49"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2110,9 +2133,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="49"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2126,9 +2149,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="50"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2142,10 +2165,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2157,8 +2180,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,8 +2191,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2179,8 +2202,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,8 +2213,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,8 +2224,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,8 +2235,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,9 +2246,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="47" t="s">
-        <v>58</v>
+      <c r="C55" s="46"/>
+      <c r="D55" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2236,8 +2259,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,8 +2270,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,8 +2281,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,8 +2292,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,8 +2303,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,8 +2314,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,10 +2325,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="47"/>
+      <c r="C62" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="45"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,8 +2338,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,10 +2349,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,8 +2362,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,8 +2373,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,8 +2384,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,8 +2395,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,11 +2406,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="47" t="s">
+      <c r="C69" s="45" t="s">
         <v>59</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -2398,8 +2421,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,8 +2432,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,8 +2443,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,8 +2454,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,8 +2465,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,8 +2476,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="50"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,10 +2487,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="51" t="s">
-        <v>81</v>
+      <c r="C76" s="46"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,9 +2500,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2488,9 +2511,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2499,9 +2522,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2510,9 +2533,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2521,9 +2544,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2532,9 +2555,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="52"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2543,11 +2566,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="47" t="s">
-        <v>61</v>
+      <c r="D83" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2558,8 +2581,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,8 +2592,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,8 +2603,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,8 +2614,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,8 +2625,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,8 +2636,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,11 +2647,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="D90" s="47" t="s">
-        <v>63</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2639,8 +2662,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,8 +2673,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2661,8 +2684,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2672,8 +2695,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,10 +2706,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,8 +2719,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,11 +2730,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" s="47" t="s">
+      <c r="C97" s="49" t="s">
         <v>64</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2722,8 +2745,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,8 +2756,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,8 +2767,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,8 +2778,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,8 +2789,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,8 +2800,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,11 +2811,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>66</v>
+      <c r="C104" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>65</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2803,8 +2826,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,8 +2837,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2825,8 +2848,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2836,8 +2859,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2847,8 +2870,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,8 +2881,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="50"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="48"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2869,9 +2892,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="49"/>
-      <c r="D111" s="47" t="s">
-        <v>67</v>
+      <c r="C111" s="47"/>
+      <c r="D111" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2882,8 +2905,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,8 +2916,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2904,8 +2927,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2915,8 +2938,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,8 +2949,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,8 +2960,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2995,7 +3018,7 @@
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,163 +3046,175 @@
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
+      <c r="C125" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="46"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="46"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="46"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="46"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145" s="52"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -3448,34 +3483,32 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D48:D54"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C19"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="C125:E145"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="D97:D103"/>
@@ -3485,7 +3518,11 @@
     <mergeCell ref="C62:C68"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C125:E141"/>
+    <mergeCell ref="D34:D47"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D76:D82"/>
@@ -3497,8 +3534,6 @@
     <mergeCell ref="D111:D117"/>
     <mergeCell ref="D83:D89"/>
     <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D34:D47"/>
-    <mergeCell ref="D20:D33"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F34:I34"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
   <si>
     <t>lundi</t>
   </si>
@@ -344,21 +344,33 @@
     <t>ntpd httpd sftpd vsftpd</t>
   </si>
   <si>
-    <t>Graylog Clustering
-Implémentation Clustering
-dans Datacenter 
-avec CentOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Serveur non dispo</t>
-  </si>
-  <si>
     <t xml:space="preserve">LDAP théorique
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Livres Home
+    <t xml:space="preserve">LDAP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Serveur non dispo
+-
+Installation via PXE
+impossible : mauvais 
+initrd-vmlinuz</t>
+  </si>
+  <si>
+    <t>Installation sur serveur1
+ok</t>
+  </si>
+  <si>
+    <t>Serveur2 non dispo
+Attente connexion flux
+Attente Docs SAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refaire ce tableau avec action1=théorie action2=pratique
+Livres Home
 Certifications
 GNS3 (exos goffinet)
 -
@@ -378,10 +390,6 @@
 Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
 -
 Machine learning
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDAP
 </t>
   </si>
 </sst>
@@ -427,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,14 +472,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -709,11 +711,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -809,6 +826,93 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,102 +920,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,10 +1259,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1252,12 +1272,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1345,13 +1365,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="44" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1371,9 +1391,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1389,9 +1409,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1410,8 +1430,8 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="10" t="s">
         <v>102</v>
       </c>
@@ -1432,8 +1452,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="10" t="s">
         <v>67</v>
       </c>
@@ -1452,8 +1472,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1472,8 +1492,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1489,19 +1509,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
@@ -1513,9 +1533,9 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1533,9 +1553,9 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="41" t="s">
         <v>21</v>
       </c>
@@ -1553,9 +1573,9 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
@@ -1573,9 +1593,9 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
@@ -1593,9 +1613,9 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
@@ -1613,9 +1633,9 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1656,8 @@
       <c r="C20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>104</v>
+      <c r="D20" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="41" t="s">
@@ -1660,7 +1680,7 @@
       <c r="C21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="8"/>
       <c r="F21" s="41" t="s">
         <v>83</v>
@@ -1682,7 +1702,7 @@
       <c r="C22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1702,14 +1722,14 @@
       <c r="C23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1722,7 +1742,7 @@
       <c r="C24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="59"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="8"/>
       <c r="F25" s="41" t="s">
         <v>85</v>
@@ -1764,7 +1784,7 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="59"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="8"/>
       <c r="F26" s="41" t="s">
         <v>86</v>
@@ -1786,8 +1806,8 @@
       <c r="C27" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="48" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="41" t="s">
@@ -1810,8 +1830,8 @@
       <c r="C28" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="49"/>
       <c r="J28" s="18" t="s">
         <v>50</v>
       </c>
@@ -1826,8 +1846,8 @@
       <c r="C29" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="47"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="41"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -1843,11 +1863,11 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="47"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="41"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
@@ -1863,15 +1883,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="53" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="18" t="s">
         <v>51</v>
       </c>
@@ -1883,9 +1903,9 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="47"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="41" t="s">
         <v>89</v>
       </c>
@@ -1903,9 +1923,9 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="48"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="41" t="s">
         <v>90</v>
       </c>
@@ -1923,11 +1943,11 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="56" t="s">
-        <v>103</v>
+      <c r="D34" s="71" t="s">
+        <v>106</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="41" t="s">
@@ -1936,7 +1956,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="68" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1947,8 +1967,8 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="29"/>
       <c r="F35" s="41" t="s">
         <v>92</v>
@@ -1956,7 +1976,7 @@
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="40"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1965,16 +1985,16 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="70" t="s">
         <v>101</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
       <c r="I36" s="43"/>
-      <c r="J36" s="40"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1983,14 +2003,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="56"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="8"/>
       <c r="F37" s="41"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="43"/>
-      <c r="J37" s="40"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1999,8 +2019,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -2015,8 +2035,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -2031,8 +2051,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2047,11 +2067,13 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="52" t="s">
         <v>79</v>
       </c>
       <c r="F41" s="10"/>
@@ -2067,11 +2089,11 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="47"/>
+      <c r="C42" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2085,9 +2107,9 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="47"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2101,9 +2123,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="47"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2117,9 +2139,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="47"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2133,9 +2155,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="47"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2149,9 +2171,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="48"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2165,10 +2187,10 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="8"/>
@@ -2180,8 +2202,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,8 +2213,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,8 +2224,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,8 +2235,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,8 +2246,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,8 +2257,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="48"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,8 +2268,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="45" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="61" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="8"/>
@@ -2259,8 +2281,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,8 +2292,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,8 +2303,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,8 +2314,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,8 +2325,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,8 +2336,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="48"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,10 +2347,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="45"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,8 +2360,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,8 +2371,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="8" t="s">
         <v>99</v>
       </c>
@@ -2362,8 +2384,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2373,8 +2395,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,8 +2406,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,8 +2417,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,10 +2428,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="61" t="s">
         <v>58</v>
       </c>
       <c r="E69" s="23"/>
@@ -2421,8 +2443,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="47"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,8 +2454,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="47"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2443,8 +2465,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="46"/>
-      <c r="D72" s="47"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2454,8 +2476,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="47"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,8 +2487,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2476,8 +2498,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="48"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,9 +2509,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="49" t="s">
+      <c r="C76" s="66"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="52" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2500,9 +2522,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2511,9 +2533,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2522,9 +2544,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2533,9 +2555,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2544,9 +2566,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2555,9 +2577,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2566,10 +2588,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="C83" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="61" t="s">
         <v>60</v>
       </c>
       <c r="E83" s="8"/>
@@ -2581,8 +2603,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,8 +2614,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,8 +2625,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,8 +2636,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,8 +2647,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,8 +2658,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,10 +2669,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="D90" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E90" s="8"/>
@@ -2662,8 +2684,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,8 +2695,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,8 +2706,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,8 +2717,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2706,8 +2728,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="8" t="s">
         <v>99</v>
       </c>
@@ -2719,8 +2741,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,10 +2752,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="61" t="s">
         <v>63</v>
       </c>
       <c r="E97" s="8"/>
@@ -2745,8 +2767,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,8 +2778,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,8 +2789,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,8 +2800,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,8 +2811,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,8 +2822,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,10 +2833,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C104" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="61" t="s">
         <v>65</v>
       </c>
       <c r="E104" s="8"/>
@@ -2826,8 +2848,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,8 +2859,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,8 +2870,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2859,8 +2881,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,8 +2892,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,8 +2903,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="47"/>
-      <c r="D110" s="48"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="50"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,8 +2914,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="45" t="s">
+      <c r="C111" s="49"/>
+      <c r="D111" s="61" t="s">
         <v>66</v>
       </c>
       <c r="E111" s="8"/>
@@ -2905,8 +2927,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,8 +2938,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2927,8 +2949,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,8 +2960,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,8 +2971,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,8 +2982,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,146 +3068,161 @@
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
+      <c r="C125" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="58"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="58"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="52"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="58"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="58"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="52"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="58"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="52"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="58"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="58"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="58"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="58"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="58"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="58"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3482,12 +3519,47 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
+  <mergeCells count="58">
+    <mergeCell ref="C125:E150"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="D41:D47"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
@@ -3501,45 +3573,11 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="C125:E145"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D34:D47"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
   <si>
     <t>lundi</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>POC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sécurisation TLS graylog </t>
   </si>
   <si>
     <t>Graylog alerting</t>
@@ -189,9 +186,6 @@
   <si>
     <t xml:space="preserve">UI Graylog 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Implémentation LDAP dans Graylog</t>
   </si>
   <si>
     <t>Implémentation flux des 
@@ -337,19 +331,7 @@
     <t>MBR GPT…XFS NFS</t>
   </si>
   <si>
-    <t>Comment gérer authentification Acces IDS ? Mdp+clefs
-Certificats?LDAP?</t>
-  </si>
-  <si>
     <t>ntpd httpd sftpd vsftpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDAP théorique
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDAP
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -374,7 +356,7 @@
 Certifications
 GNS3 (exos goffinet)
 -
-Sed - awk - python - C système
+Grep - Sed - awk - python - C système
 Dbus - Inetd - kswapd - udev
 -
 Bareos
@@ -391,6 +373,22 @@
 -
 Machine learning
 </t>
+  </si>
+  <si>
+    <t>LDAP dans Graylog</t>
+  </si>
+  <si>
+    <t>Importer C systèmes et reformater dans Repo</t>
+  </si>
+  <si>
+    <t>Imprimer liste des ports par services</t>
+  </si>
+  <si>
+    <t>Cause système cible effets solutions pr attaques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sécurisation TLS graylog
++ SSH LDAP </t>
   </si>
 </sst>
 </file>
@@ -473,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -698,39 +696,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -826,19 +796,94 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,92 +892,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,10 +1232,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1272,12 +1245,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1296,10 +1269,10 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,7 +1290,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,7 +1308,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1352,10 +1325,10 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1365,23 +1338,23 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="27"/>
       <c r="J6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1391,15 +1364,15 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,15 +1382,15 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1430,10 +1403,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1452,16 +1425,16 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1472,16 +1445,16 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,14 +1465,14 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="31"/>
       <c r="J12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,21 +1482,21 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1533,17 +1506,17 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1553,17 +1526,17 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,17 +1546,17 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,17 +1566,17 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1613,17 +1586,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,17 +1606,17 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,20 +1627,20 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>105</v>
+        <v>67</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="F20" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,18 +1651,18 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="63"/>
+        <v>68</v>
+      </c>
+      <c r="D21" s="60"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="F21" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1700,16 +1673,16 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="63"/>
+        <v>71</v>
+      </c>
+      <c r="D22" s="60"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1720,16 +1693,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="63"/>
+        <v>73</v>
+      </c>
+      <c r="D23" s="60"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="51"/>
+      <c r="F23" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,20 +1713,20 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="63"/>
+        <v>74</v>
+      </c>
+      <c r="D24" s="60"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="F24" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1764,16 +1737,16 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="63"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="F25" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1784,16 +1757,16 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="63"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="F26" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,20 +1777,20 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1828,12 +1801,12 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="52"/>
       <c r="J28" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,16 +1817,16 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
+        <v>72</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,17 +1836,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="C30" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
       <c r="J30" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1883,17 +1856,17 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1903,17 +1876,17 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,17 +1896,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
       <c r="J33" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,21 +1916,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>106</v>
+      <c r="C34" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="68" t="s">
-        <v>95</v>
+      <c r="F34" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="46" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1967,16 +1940,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="69"/>
+      <c r="F35" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1985,16 +1958,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="69"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -2003,14 +1974,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="69"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2019,14 +1990,16 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
+      <c r="J38" s="37" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -2035,14 +2008,16 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="18"/>
+      <c r="J39" s="18" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -2051,14 +2026,16 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
-      <c r="J40" s="18"/>
+      <c r="J40" s="18" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -2067,14 +2044,12 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>79</v>
+      <c r="C41" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2082,18 +2057,18 @@
       <c r="I41" s="36"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="49"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="52"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2107,9 +2082,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="49"/>
+      <c r="C43" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="52"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2123,9 +2102,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="49"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2139,9 +2118,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="49"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2155,9 +2134,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="49"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2171,27 +2150,25 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="50"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="36"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>15</v>
+      <c r="C48" s="68"/>
+      <c r="D48" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -2202,8 +2179,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,8 +2190,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="49"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,8 +2201,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,8 +2212,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,8 +2223,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,8 +2234,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,9 +2245,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="61" t="s">
-        <v>57</v>
+      <c r="C55" s="68"/>
+      <c r="D55" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2281,8 +2258,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="49"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,8 +2269,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,8 +2280,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,8 +2291,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,8 +2302,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="49"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,8 +2313,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,10 +2324,12 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="61"/>
+      <c r="C62" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,8 +2339,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,10 +2350,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,8 +2363,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,8 +2374,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,8 +2385,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,8 +2396,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,11 +2407,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="61" t="s">
-        <v>58</v>
+      <c r="C69" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>56</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -2443,8 +2422,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="66"/>
-      <c r="D70" s="49"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2454,8 +2433,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="49"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,8 +2444,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="49"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,8 +2455,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,8 +2466,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="49"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2498,8 +2477,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="50"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,10 +2488,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="52" t="s">
-        <v>79</v>
+      <c r="C76" s="58"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,9 +2501,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2533,9 +2512,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2544,9 +2523,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2555,9 +2534,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2566,9 +2545,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="66"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2577,9 +2556,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2588,11 +2567,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="61" t="s">
-        <v>60</v>
+      <c r="C83" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2603,8 +2582,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,8 +2593,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,8 +2604,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,8 +2615,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,8 +2626,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,8 +2637,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,11 +2648,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="61" t="s">
-        <v>62</v>
+      <c r="C90" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2684,8 +2663,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,8 +2674,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2706,8 +2685,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,8 +2696,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2728,10 +2707,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,8 +2720,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,11 +2731,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="61" t="s">
-        <v>63</v>
+      <c r="C97" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2767,8 +2746,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,8 +2757,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,8 +2768,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,8 +2779,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,8 +2790,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,8 +2801,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,11 +2812,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="61" t="s">
-        <v>65</v>
+      <c r="C104" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2848,8 +2827,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2859,8 +2838,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,8 +2849,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,8 +2860,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,8 +2871,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,8 +2882,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="50"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="53"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,9 +2893,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="49"/>
-      <c r="D111" s="61" t="s">
-        <v>66</v>
+      <c r="C111" s="52"/>
+      <c r="D111" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2927,8 +2906,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,8 +2917,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,8 +2928,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,8 +2939,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,8 +2950,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,8 +2961,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,7 +3019,7 @@
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3068,161 +3047,161 @@
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
+      <c r="C125" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="58"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="58"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="58"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="58"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="58"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="58"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="58"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3519,14 +3498,54 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="57">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="C43:C61"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
     <mergeCell ref="C125:E150"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F36:I37"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="C97:C103"/>
     <mergeCell ref="C104:C117"/>
@@ -3534,50 +3553,9 @@
     <mergeCell ref="D69:D75"/>
     <mergeCell ref="C69:C82"/>
     <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C62:C68"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
   <si>
     <t>lundi</t>
   </si>
@@ -389,6 +389,9 @@
   <si>
     <t xml:space="preserve">Sécurisation TLS graylog
 + SSH LDAP </t>
+  </si>
+  <si>
+    <t>LDAP - Bash scripting</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -805,6 +808,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,94 +907,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,10 +1238,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1245,12 +1251,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1338,13 +1344,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="57" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1364,9 +1370,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1382,9 +1388,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1403,8 +1409,8 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="10" t="s">
         <v>99</v>
       </c>
@@ -1425,8 +1431,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
@@ -1445,8 +1451,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="10" t="s">
         <v>53</v>
       </c>
@@ -1465,8 +1471,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1482,19 +1488,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1506,15 +1512,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="48" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1526,15 +1532,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="48" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="18" t="s">
         <v>38</v>
       </c>
@@ -1546,15 +1552,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="48" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1566,15 +1572,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="48" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1586,15 +1592,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="48" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="18" t="s">
         <v>51</v>
       </c>
@@ -1606,15 +1612,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="48" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1629,16 +1635,16 @@
       <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="66" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1653,14 +1659,14 @@
       <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1681,7 @@
       <c r="C22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1695,14 +1701,14 @@
       <c r="C23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,16 +1721,16 @@
       <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1737,14 +1743,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="60"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1757,14 +1763,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1779,16 +1785,16 @@
       <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="76" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
@@ -1803,8 +1809,8 @@
       <c r="C28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="54"/>
       <c r="J28" s="18" t="s">
         <v>49</v>
       </c>
@@ -1819,12 +1825,12 @@
       <c r="C29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
       <c r="J29" s="18" t="s">
         <v>80</v>
       </c>
@@ -1836,15 +1842,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="18" t="s">
         <v>96</v>
       </c>
@@ -1856,15 +1862,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="62" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="18" t="s">
         <v>50</v>
       </c>
@@ -1876,15 +1882,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="48" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="37" t="s">
         <v>91</v>
       </c>
@@ -1896,15 +1902,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="48" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="37" t="s">
         <v>92</v>
       </c>
@@ -1916,20 +1922,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="59" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="46" t="s">
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="75" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1940,16 +1946,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="77"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="76"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1958,14 +1964,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="76"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1974,14 +1980,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="77"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="76"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1990,8 +1996,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="77"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -2008,8 +2014,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -2026,8 +2032,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="75"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2044,11 +2050,11 @@
       <c r="B41" s="6">
         <v>43290</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="53" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="10"/>
@@ -2064,11 +2070,13 @@
       <c r="B42" s="6">
         <v>43291</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="D42" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="52"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2082,13 +2090,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="52"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2102,9 +2110,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="52"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2118,9 +2126,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="52"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2134,9 +2142,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="52"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2150,9 +2158,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="53"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2166,8 +2174,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="65" t="s">
         <v>108</v>
       </c>
       <c r="E48" s="8"/>
@@ -2179,8 +2187,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="52"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,8 +2198,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="52"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,8 +2209,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="52"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,8 +2220,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="52"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,8 +2231,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="52"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,8 +2242,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="53"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,8 +2253,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="55" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E55" s="8"/>
@@ -2258,8 +2266,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="56"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,8 +2277,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="56"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,8 +2288,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,8 +2299,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="56"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,8 +2310,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="56"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,8 +2321,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="57"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,10 +2332,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="8"/>
@@ -2339,8 +2347,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="56"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,8 +2358,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="56"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="8" t="s">
         <v>97</v>
       </c>
@@ -2363,8 +2371,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="56"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,8 +2382,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="56"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,8 +2393,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="56"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,8 +2404,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="57"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,10 +2415,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="65" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="23"/>
@@ -2422,8 +2430,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="52"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,8 +2441,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="52"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,8 +2452,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="52"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,8 +2463,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="52"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,8 +2474,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="52"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,8 +2485,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="53"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,9 +2496,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="54" t="s">
+      <c r="C76" s="77"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2501,9 +2509,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2512,9 +2520,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2523,9 +2531,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2534,9 +2542,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2545,9 +2553,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2556,9 +2564,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2567,10 +2575,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="65" t="s">
         <v>58</v>
       </c>
       <c r="E83" s="8"/>
@@ -2582,8 +2590,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2593,8 +2601,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,8 +2612,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,8 +2623,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2626,8 +2634,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,8 +2645,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,10 +2656,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="65" t="s">
         <v>60</v>
       </c>
       <c r="E90" s="8"/>
@@ -2663,8 +2671,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,8 +2682,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,8 +2693,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,8 +2704,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,8 +2715,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="8" t="s">
         <v>97</v>
       </c>
@@ -2720,8 +2728,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,10 +2739,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="8"/>
@@ -2746,8 +2754,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,8 +2765,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,8 +2776,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2779,8 +2787,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,8 +2798,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,8 +2809,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,10 +2820,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="65" t="s">
         <v>63</v>
       </c>
       <c r="E104" s="8"/>
@@ -2827,8 +2835,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,8 +2846,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,8 +2857,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,8 +2868,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,8 +2879,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,8 +2890,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="52"/>
-      <c r="D110" s="53"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,8 +2901,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="52"/>
-      <c r="D111" s="51" t="s">
+      <c r="C111" s="54"/>
+      <c r="D111" s="65" t="s">
         <v>64</v>
       </c>
       <c r="E111" s="8"/>
@@ -2906,8 +2914,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="52"/>
-      <c r="D112" s="52"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,8 +2925,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="52"/>
-      <c r="D113" s="52"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,8 +2936,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,8 +2947,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,8 +2958,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,8 +2969,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,161 +3055,161 @@
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="45"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="45"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="45"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="45"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="45"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="45"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="45"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="45"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="45"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="45"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="45"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="45"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="45"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3498,48 +3506,7 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="C43:C61"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
+  <mergeCells count="56">
     <mergeCell ref="C125:E150"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="F32:I32"/>
@@ -3556,6 +3523,46 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C43:C61"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
   <si>
     <t>lundi</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>Average alertes?</t>
-  </si>
-  <si>
-    <t>Bouger makefile et make</t>
   </si>
   <si>
     <t>Réorganiser tools network</t>
@@ -811,19 +808,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,15 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,58 +901,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1221,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E47"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,10 +1235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1251,12 +1248,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1328,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1344,13 +1341,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="72" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1370,9 +1367,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1388,9 +1385,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1409,10 +1406,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1431,8 +1428,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
@@ -1451,8 +1448,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="10" t="s">
         <v>53</v>
       </c>
@@ -1471,8 +1468,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1488,19 +1485,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="45" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1512,15 +1509,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1532,15 +1529,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="47" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="18" t="s">
         <v>38</v>
       </c>
@@ -1552,15 +1549,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="47" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1572,15 +1569,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1592,15 +1589,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="47" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="18" t="s">
         <v>51</v>
       </c>
@@ -1612,15 +1609,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="47" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1635,16 +1632,16 @@
       <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>100</v>
+      <c r="D20" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1659,14 +1656,14 @@
       <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1681,7 +1678,7 @@
       <c r="C22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1701,14 +1698,14 @@
       <c r="C23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="70"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,16 +1718,16 @@
       <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1743,14 +1740,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="63"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1763,14 +1760,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="63"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1785,16 +1782,16 @@
       <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="62" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
+      <c r="F27" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
@@ -1809,8 +1806,8 @@
       <c r="C28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="54"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="53"/>
       <c r="J28" s="18" t="s">
         <v>49</v>
       </c>
@@ -1825,12 +1822,12 @@
       <c r="C29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="18" t="s">
         <v>80</v>
       </c>
@@ -1842,17 +1839,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="18" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1862,15 +1859,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="45" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="18" t="s">
         <v>50</v>
       </c>
@@ -1882,18 +1879,16 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="47" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="37" t="s">
-        <v>91</v>
-      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1902,17 +1897,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="47" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
       <c r="J33" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1922,21 +1917,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>101</v>
+      <c r="C34" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>100</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="75" t="s">
-        <v>93</v>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1946,16 +1941,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="69"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="76"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1964,14 +1959,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="69"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="76"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1980,14 +1975,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="69"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="76"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1996,15 +1991,15 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="69"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,15 +2009,15 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="69"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2032,15 +2027,15 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="55" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="10"/>
@@ -2071,12 +2066,12 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="54"/>
+        <v>103</v>
+      </c>
+      <c r="E42" s="53"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2090,13 +2085,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="54"/>
+      <c r="D43" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="53"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2110,9 +2105,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="54"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2126,9 +2121,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="54"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2142,9 +2137,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="54"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2158,9 +2153,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="55"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2174,9 +2169,9 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="65" t="s">
-        <v>108</v>
+      <c r="C48" s="69"/>
+      <c r="D48" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -2187,8 +2182,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="54"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,8 +2193,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="54"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,8 +2204,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="54"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,8 +2215,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="54"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,8 +2226,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="54"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,8 +2237,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="55"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2253,9 +2248,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="66" t="s">
-        <v>95</v>
+      <c r="C55" s="69"/>
+      <c r="D55" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2266,8 +2261,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="67"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,8 +2272,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="67"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,8 +2283,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="67"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,8 +2294,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,8 +2305,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="67"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,8 +2316,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="68"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,11 +2327,11 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="66" t="s">
-        <v>95</v>
+      <c r="D62" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2347,8 +2342,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="67"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,10 +2353,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="67"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,8 +2366,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="67"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,8 +2377,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="67"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,8 +2388,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="67"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,8 +2399,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="68"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2415,10 +2410,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="52" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="23"/>
@@ -2430,8 +2425,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="54"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,8 +2436,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="54"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,8 +2447,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="54"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,8 +2458,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="54"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2474,8 +2469,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="54"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,8 +2480,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="55"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,9 +2491,9 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="53" t="s">
+      <c r="C76" s="59"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="55" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2509,9 +2504,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2520,9 +2515,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2531,9 +2526,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2542,9 +2537,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="77"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2553,9 +2548,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="77"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2564,9 +2559,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2575,10 +2570,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="65" t="s">
+      <c r="D83" s="52" t="s">
         <v>58</v>
       </c>
       <c r="E83" s="8"/>
@@ -2590,8 +2585,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,8 +2596,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,8 +2607,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,8 +2618,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,8 +2629,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2645,8 +2640,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,10 +2651,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="65" t="s">
+      <c r="D90" s="52" t="s">
         <v>60</v>
       </c>
       <c r="E90" s="8"/>
@@ -2671,8 +2666,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2682,8 +2677,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,8 +2688,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,8 +2699,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2715,10 +2710,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2728,8 +2723,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,10 +2734,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="65" t="s">
+      <c r="D97" s="52" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="8"/>
@@ -2754,8 +2749,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,8 +2760,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2776,8 +2771,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,8 +2782,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,8 +2793,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,8 +2804,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,10 +2815,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="52" t="s">
         <v>63</v>
       </c>
       <c r="E104" s="8"/>
@@ -2835,8 +2830,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2846,8 +2841,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,8 +2852,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2868,8 +2863,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,8 +2874,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,8 +2885,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,8 +2896,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="54"/>
-      <c r="D111" s="65" t="s">
+      <c r="C111" s="53"/>
+      <c r="D111" s="52" t="s">
         <v>64</v>
       </c>
       <c r="E111" s="8"/>
@@ -2914,8 +2909,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,8 +2920,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2936,8 +2931,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,8 +2942,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="54"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,8 +2953,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,8 +2964,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,7 +3022,7 @@
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,161 +3050,161 @@
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
+      <c r="C125" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="74"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="74"/>
-      <c r="D128" s="74"/>
-      <c r="E128" s="74"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="46"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="46"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="46"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="74"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="74"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="46"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3507,6 +3502,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="C43:C61"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
     <mergeCell ref="C125:E150"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="F32:I32"/>
@@ -3523,46 +3558,6 @@
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C43:C61"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>lundi</t>
   </si>
@@ -388,7 +388,10 @@
 + SSH LDAP </t>
   </si>
   <si>
-    <t>LDAP - Bash scripting</t>
+    <t>Scripts BASH</t>
+  </si>
+  <si>
+    <t>LDAP - Scripts BASH</t>
   </si>
 </sst>
 </file>
@@ -808,6 +811,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,28 +847,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,15 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1218,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,12 +1251,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1492,12 +1495,12 @@
         <v>55</v>
       </c>
       <c r="E13" s="73"/>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1512,12 +1515,12 @@
       <c r="C14" s="75"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1532,13 +1535,13 @@
       <c r="C15" s="72"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="18" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1552,12 +1555,12 @@
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1572,12 +1575,12 @@
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1592,12 +1595,12 @@
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="18" t="s">
         <v>51</v>
       </c>
@@ -1612,12 +1615,12 @@
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1632,16 +1635,16 @@
       <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="57" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1656,14 +1659,14 @@
       <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1678,7 +1681,7 @@
       <c r="C22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1698,14 +1701,14 @@
       <c r="C23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1718,16 +1721,16 @@
       <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1740,14 +1743,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1760,14 +1763,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1782,16 +1785,16 @@
       <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
@@ -1806,8 +1809,8 @@
       <c r="C28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="59"/>
       <c r="J28" s="18" t="s">
         <v>49</v>
       </c>
@@ -1822,12 +1825,12 @@
       <c r="C29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="18" t="s">
         <v>80</v>
       </c>
@@ -1839,15 +1842,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="18" t="s">
         <v>95</v>
       </c>
@@ -1859,15 +1862,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="63" t="s">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="18" t="s">
         <v>50</v>
       </c>
@@ -1879,15 +1882,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="49" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1897,15 +1900,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="49" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="37" t="s">
         <v>91</v>
       </c>
@@ -1917,20 +1920,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="74" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="47" t="s">
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="52" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1941,16 +1944,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="77"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="48"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1959,14 +1962,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="77"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="48"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1975,14 +1978,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="77"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="48"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1991,7 +1994,7 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="77"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
@@ -2009,7 +2012,7 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="77"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
@@ -2027,7 +2030,7 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="78"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
@@ -2049,7 +2052,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="58" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="10"/>
@@ -2066,64 +2069,66 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="59"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="36"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="53"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="36"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="53"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="36"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="53"/>
+      <c r="C45" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="64"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2137,9 +2142,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="53"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2153,9 +2158,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="54"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2169,8 +2174,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="48"/>
+      <c r="D48" s="61" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="8"/>
@@ -2182,8 +2187,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="53"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,8 +2198,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="53"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,8 +2209,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,8 +2220,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="53"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,8 +2231,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="53"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,8 +2242,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="54"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,8 +2253,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="56" t="s">
+      <c r="C55" s="48"/>
+      <c r="D55" s="57" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="8"/>
@@ -2261,8 +2266,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="57"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,8 +2277,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,8 +2288,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,8 +2299,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,8 +2310,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,8 +2321,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,10 +2332,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="57" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="8"/>
@@ -2342,8 +2347,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="57"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,8 +2358,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="57"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="8" t="s">
         <v>96</v>
       </c>
@@ -2366,8 +2371,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="57"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,8 +2382,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="57"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2388,8 +2393,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="57"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,8 +2404,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="58"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,10 +2415,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="61" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="23"/>
@@ -2425,8 +2430,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,8 +2441,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="53"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,8 +2452,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="53"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2458,8 +2463,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="53"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,8 +2474,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="53"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2480,8 +2485,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="54"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="60"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2491,9 +2496,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="55" t="s">
+      <c r="C76" s="62"/>
+      <c r="D76" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="58" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2504,9 +2511,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2515,9 +2522,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="59"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2526,9 +2533,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="59"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2537,9 +2544,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="59"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2548,9 +2555,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="59"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="59"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2559,9 +2566,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="60"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2570,10 +2577,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="61" t="s">
         <v>58</v>
       </c>
       <c r="E83" s="8"/>
@@ -2585,8 +2592,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,8 +2603,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,8 +2614,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,8 +2625,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,8 +2636,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,8 +2647,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,10 +2658,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="61" t="s">
         <v>60</v>
       </c>
       <c r="E90" s="8"/>
@@ -2666,8 +2673,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2677,8 +2684,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,8 +2695,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,8 +2706,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,8 +2717,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="8" t="s">
         <v>96</v>
       </c>
@@ -2723,8 +2730,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="54"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2734,10 +2741,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D97" s="61" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="8"/>
@@ -2749,8 +2756,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,8 +2767,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,8 +2778,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,8 +2789,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,8 +2800,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2804,8 +2811,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="54"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2815,10 +2822,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="61" t="s">
         <v>63</v>
       </c>
       <c r="E104" s="8"/>
@@ -2830,8 +2837,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,8 +2848,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,8 +2859,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,8 +2870,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,8 +2881,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,8 +2892,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="53"/>
-      <c r="D110" s="54"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="60"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,8 +2903,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="52" t="s">
+      <c r="C111" s="59"/>
+      <c r="D111" s="61" t="s">
         <v>64</v>
       </c>
       <c r="E111" s="8"/>
@@ -2909,8 +2916,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,8 +2927,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,8 +2938,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,8 +2949,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2953,8 +2960,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,8 +2971,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="54"/>
-      <c r="D117" s="54"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,8 +2982,12 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,8 +2997,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2997,8 +3008,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,8 +3019,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,8 +3030,8 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
       <c r="E122" s="8" t="s">
         <v>96</v>
       </c>
@@ -3032,8 +3043,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,168 +3054,168 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="46"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="46"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="46"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="46"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="46"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="46"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="46"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="46"/>
-      <c r="D147" s="46"/>
-      <c r="E147" s="46"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3501,63 +3512,66 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="59">
+    <mergeCell ref="C45:C61"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C34:C40"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="C43:C61"/>
-    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C125:E150"/>
-    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="E27:E33"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="C125:E150"/>
+    <mergeCell ref="J34:J37"/>
     <mergeCell ref="C97:C103"/>
     <mergeCell ref="C104:C117"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
     <mergeCell ref="C69:C82"/>
     <mergeCell ref="D111:D117"/>
     <mergeCell ref="C83:C89"/>
     <mergeCell ref="C90:C96"/>
     <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -267,10 +267,6 @@
 REGEX</t>
   </si>
   <si>
-    <t>Check scripts d'init 
-et unités systemd</t>
-  </si>
-  <si>
     <t>Merger réseau</t>
   </si>
   <si>
@@ -348,10 +344,36 @@
 Attente Docs SAN</t>
   </si>
   <si>
+    <t>LDAP dans Graylog</t>
+  </si>
+  <si>
+    <t>Importer C systèmes et reformater dans Repo</t>
+  </si>
+  <si>
+    <t>Imprimer liste des ports par services</t>
+  </si>
+  <si>
+    <t>Cause système cible effets solutions pr attaques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sécurisation TLS graylog
++ SSH LDAP </t>
+  </si>
+  <si>
+    <t>Scripts BASH</t>
+  </si>
+  <si>
+    <t>LDAP - Scripts BASH</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Refaire ce tableau avec action1=théorie action2=pratique
 Livres Home
 Certifications
 GNS3 (exos goffinet)
+Check scripts d'Init - Systemd
 -
 Grep - Sed - awk - python - C système
 Dbus - Inetd - kswapd - udev
@@ -370,28 +392,6 @@
 -
 Machine learning
 </t>
-  </si>
-  <si>
-    <t>LDAP dans Graylog</t>
-  </si>
-  <si>
-    <t>Importer C systèmes et reformater dans Repo</t>
-  </si>
-  <si>
-    <t>Imprimer liste des ports par services</t>
-  </si>
-  <si>
-    <t>Cause système cible effets solutions pr attaques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sécurisation TLS graylog
-+ SSH LDAP </t>
-  </si>
-  <si>
-    <t>Scripts BASH</t>
-  </si>
-  <si>
-    <t>LDAP - Scripts BASH</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -811,21 +811,90 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,81 +907,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,10 +1239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1251,12 +1252,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1332,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1344,13 +1345,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1370,10 +1371,10 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1388,9 +1389,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1409,10 +1410,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1431,8 +1432,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
@@ -1451,8 +1452,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="10" t="s">
         <v>53</v>
       </c>
@@ -1471,8 +1472,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1488,19 +1489,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1512,15 +1513,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="54" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1532,15 +1533,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="54" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1552,15 +1553,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="54" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1572,15 +1573,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="54" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1592,15 +1593,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="54" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="18" t="s">
         <v>51</v>
       </c>
@@ -1612,15 +1613,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="54" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1635,16 +1636,16 @@
       <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>99</v>
+      <c r="D20" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1659,14 +1660,14 @@
       <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+      <c r="F21" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1681,7 +1682,7 @@
       <c r="C22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1701,13 +1702,13 @@
       <c r="C23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="F23" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="68"/>
       <c r="J23" s="18"/>
     </row>
@@ -1721,16 +1722,16 @@
       <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="F24" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1743,14 +1744,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="64"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
+      <c r="F25" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1763,14 +1764,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="64"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
+      <c r="F26" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1785,16 +1786,16 @@
       <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="76" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+      <c r="F27" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
@@ -1809,8 +1810,8 @@
       <c r="C28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="60"/>
       <c r="J28" s="18" t="s">
         <v>49</v>
       </c>
@@ -1825,14 +1826,14 @@
       <c r="C29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,17 +1843,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1862,11 +1863,11 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="66" t="s">
-        <v>86</v>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
@@ -1882,15 +1883,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,17 +1901,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1920,21 +1921,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>100</v>
+      <c r="C34" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="52" t="s">
-        <v>92</v>
+      <c r="F34" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="75" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1944,16 +1945,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="77"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="53"/>
+      <c r="F35" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="76"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1962,14 +1963,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="53"/>
+      <c r="J36" s="76"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1978,14 +1979,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="77"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="53"/>
+      <c r="J37" s="76"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1994,15 +1995,15 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="77"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2012,15 +2013,15 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,15 +2031,15 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="78"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="59" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="10"/>
@@ -2069,12 +2070,12 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E42" s="60"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2088,13 +2089,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="59"/>
+      <c r="C43" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="60"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2108,9 +2109,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="59"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="60"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2124,11 +2125,11 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="59"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2142,9 +2143,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="59"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2158,9 +2159,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="60"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2174,9 +2175,9 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="61" t="s">
-        <v>107</v>
+      <c r="C48" s="45"/>
+      <c r="D48" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -2187,8 +2188,8 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="59"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,8 +2199,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="59"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,8 +2210,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="59"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,8 +2221,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="59"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,8 +2232,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="59"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,8 +2243,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2253,9 +2254,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="57" t="s">
-        <v>94</v>
+      <c r="C55" s="45"/>
+      <c r="D55" s="63" t="s">
+        <v>93</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2266,8 +2267,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="46"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,8 +2278,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="46"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,8 +2289,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="46"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,8 +2300,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="46"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,8 +2311,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="46"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,8 +2322,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="47"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,11 +2333,11 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>94</v>
+      <c r="C62" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>93</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2347,8 +2348,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="46"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,10 +2359,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="46"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,8 +2372,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="46"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,8 +2383,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,8 +2394,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="46"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,8 +2405,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="47"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2415,10 +2416,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="62" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="23"/>
@@ -2430,8 +2431,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="59"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="60"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,8 +2442,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="59"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="60"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,8 +2453,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="59"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,8 +2464,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="59"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="60"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2474,8 +2475,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="59"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="60"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,8 +2486,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="60"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,11 +2497,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="58" t="s">
+      <c r="C76" s="77"/>
+      <c r="D76" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="59" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2511,9 +2512,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="59"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="60"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2522,9 +2523,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="59"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="60"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2533,9 +2534,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="59"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="60"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2544,9 +2545,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="59"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="60"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2555,9 +2556,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="59"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="60"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2566,9 +2567,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="60"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="61"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2577,10 +2578,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="D83" s="62" t="s">
         <v>58</v>
       </c>
       <c r="E83" s="8"/>
@@ -2592,8 +2593,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,8 +2604,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,8 +2615,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,8 +2626,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,8 +2637,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,8 +2648,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,10 +2659,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="58" t="s">
+      <c r="C90" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="62" t="s">
         <v>60</v>
       </c>
       <c r="E90" s="8"/>
@@ -2673,8 +2674,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,8 +2685,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,8 +2696,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2706,8 +2707,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,10 +2718,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
       <c r="E95" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,8 +2731,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,10 +2742,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="61" t="s">
+      <c r="D97" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="8"/>
@@ -2756,8 +2757,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,8 +2768,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,8 +2779,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,8 +2790,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,8 +2801,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,8 +2812,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,10 +2823,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="61" t="s">
+      <c r="C104" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="62" t="s">
         <v>63</v>
       </c>
       <c r="E104" s="8"/>
@@ -2837,8 +2838,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,8 +2849,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="59"/>
-      <c r="D106" s="59"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2859,8 +2860,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="59"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,8 +2871,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="59"/>
-      <c r="D108" s="59"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,8 +2882,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="59"/>
-      <c r="D109" s="59"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,8 +2893,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="59"/>
-      <c r="D110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="61"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,8 +2904,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="59"/>
-      <c r="D111" s="61" t="s">
+      <c r="C111" s="60"/>
+      <c r="D111" s="62" t="s">
         <v>64</v>
       </c>
       <c r="E111" s="8"/>
@@ -2916,8 +2917,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="59"/>
-      <c r="D112" s="59"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2927,8 +2928,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="59"/>
-      <c r="D113" s="59"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,8 +2939,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,8 +2950,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="59"/>
-      <c r="D115" s="59"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,8 +2961,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="59"/>
-      <c r="D116" s="59"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,8 +2972,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="61"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,11 +2983,11 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="45" t="s">
-        <v>94</v>
+      <c r="C118" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" s="72" t="s">
+        <v>93</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -2997,8 +2998,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,8 +3009,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,8 +3020,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,10 +3031,10 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
       <c r="E122" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,8 +3044,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3054,168 +3055,168 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
+      <c r="C125" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="51"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="51"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="51"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="51"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="51"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3513,6 +3514,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="C125:E150"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
     <mergeCell ref="C45:C61"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="F1:I1"/>
@@ -3529,49 +3573,6 @@
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="E6:E19"/>
     <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="C125:E150"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>lundi</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>foo-&gt;x idem que (*foo).x</t>
-  </si>
-  <si>
-    <t>Merger BASH</t>
   </si>
   <si>
     <t>Merger Kernel</t>
@@ -260,11 +257,6 @@
   </si>
   <si>
     <t>Continuer rapport</t>
-  </si>
-  <si>
-    <t>Scrips BASH
--
-REGEX</t>
   </si>
   <si>
     <t>Merger réseau</t>
@@ -384,6 +376,7 @@
 Installation programmes en Sudo?User?Su? -&gt; Sécurité
 chkconfig
 NFS -RPC bind
+RPC - gssproxy
 Active directory
 PXE
 Kerberos
@@ -436,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,12 +460,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -703,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -811,37 +798,92 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,67 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,10 +1220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1252,12 +1233,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1257,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>26</v>
@@ -1332,7 +1313,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1345,17 +1326,17 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="75" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1371,10 +1352,10 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1389,9 +1370,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1410,10 +1391,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1432,10 +1413,10 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1452,10 +1433,10 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1472,8 +1453,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1489,19 +1470,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1513,15 +1494,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1533,15 +1514,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="51" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1553,15 +1534,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="51" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1573,15 +1554,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="51" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1593,17 +1574,17 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1613,15 +1594,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="51" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1634,18 +1615,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="55"/>
+      <c r="F20" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1658,16 +1639,16 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="53"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="66"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="55"/>
+      <c r="F21" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1680,9 +1661,9 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="53"/>
+        <v>70</v>
+      </c>
+      <c r="D22" s="66"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1700,16 +1681,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="53"/>
+        <v>72</v>
+      </c>
+      <c r="D23" s="66"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="68"/>
+      <c r="F23" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1720,18 +1701,18 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="53"/>
+        <v>73</v>
+      </c>
+      <c r="D24" s="66"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="55"/>
+      <c r="F24" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1744,14 +1725,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="55"/>
+      <c r="F25" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1764,14 +1745,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="53"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="55"/>
+      <c r="F26" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1784,21 +1765,19 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1808,12 +1787,12 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="60"/>
+        <v>75</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="54"/>
       <c r="J28" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,16 +1803,16 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="55"/>
+        <v>71</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,17 +1822,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="55"/>
+      <c r="C30" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1863,17 +1842,17 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1883,15 +1862,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="55"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,17 +1880,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="55"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,21 +1900,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>99</v>
+      <c r="C34" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
+      <c r="F34" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,16 +1924,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="76"/>
+      <c r="F35" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="52"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1963,14 +1942,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="76"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1979,14 +1958,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="76"/>
+      <c r="J37" s="52"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1995,15 +1974,15 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,15 +1992,15 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2031,15 +2010,15 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,8 +2032,8 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="59" t="s">
-        <v>77</v>
+      <c r="E41" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2070,12 +2049,12 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="E42" s="54"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2089,13 +2068,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="60"/>
+      <c r="C43" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="54"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2109,9 +2088,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="60"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2125,11 +2104,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="60"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2143,9 +2120,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="60"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2159,9 +2136,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="61"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2175,10 +2152,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="62" t="s">
-        <v>105</v>
-      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,8 +2163,10 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="60"/>
+      <c r="C49" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="66"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,8 +2176,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="60"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,8 +2187,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="60"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2198,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="60"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="66"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,8 +2209,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="60"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="66"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,8 +2220,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="61"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,9 +2231,9 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="63" t="s">
-        <v>93</v>
+      <c r="C55" s="57"/>
+      <c r="D55" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2267,8 +2244,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="64"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2255,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="64"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2266,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="64"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,8 +2277,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="64"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2288,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="64"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,8 +2299,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="65"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2334,10 +2311,10 @@
         <v>43311</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2348,8 +2325,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="64"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,10 +2336,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="64"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,8 +2349,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="64"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,8 +2360,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="64"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,8 +2371,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="64"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,8 +2382,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,11 +2393,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="62" t="s">
+      <c r="C69" s="56" t="s">
         <v>56</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>55</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -2431,8 +2408,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="60"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,8 +2419,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,8 +2430,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="60"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,8 +2441,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="60"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,8 +2452,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="60"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,8 +2463,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="61"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,12 +2474,12 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>77</v>
+      <c r="C76" s="57"/>
+      <c r="D76" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,9 +2489,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="60"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="54"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2523,9 +2500,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="60"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2534,9 +2511,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="60"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2545,9 +2522,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="77"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="60"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="54"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2556,9 +2533,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="77"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="60"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="54"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2567,9 +2544,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="61"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="55"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2578,11 +2555,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="62" t="s">
-        <v>58</v>
+      <c r="D83" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2593,8 +2570,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,8 +2581,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,8 +2592,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2626,8 +2603,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,8 +2614,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,8 +2625,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,11 +2636,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="56" t="s">
         <v>59</v>
-      </c>
-      <c r="D90" s="62" t="s">
-        <v>60</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2674,8 +2651,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,8 +2662,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,8 +2673,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,8 +2684,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,10 +2695,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,8 +2708,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2742,11 +2719,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D97" s="62" t="s">
+      <c r="C97" s="53" t="s">
         <v>61</v>
+      </c>
+      <c r="D97" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2757,8 +2734,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,8 +2745,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2779,8 +2756,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,8 +2767,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,8 +2778,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,8 +2789,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,11 +2800,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" s="62" t="s">
-        <v>63</v>
+      <c r="C104" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2838,8 +2815,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,8 +2826,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,8 +2837,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,8 +2848,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,8 +2859,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,8 +2870,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="60"/>
-      <c r="D110" s="61"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2904,9 +2881,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="62" t="s">
-        <v>64</v>
+      <c r="C111" s="54"/>
+      <c r="D111" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2917,8 +2894,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,8 +2905,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,8 +2916,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,8 +2927,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,8 +2938,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2972,8 +2949,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="61"/>
-      <c r="D117" s="61"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2983,11 +2960,11 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" s="72" t="s">
-        <v>93</v>
+      <c r="C118" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -2998,8 +2975,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,8 +2986,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,8 +2997,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,10 +3008,10 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
       <c r="E122" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,8 +3021,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,168 +3032,168 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
+      <c r="C125" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="74"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="74"/>
-      <c r="D128" s="74"/>
-      <c r="E128" s="74"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="50"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="74"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="74"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3513,7 +3490,49 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="58">
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C61"/>
+    <mergeCell ref="D43:D54"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="C118:C124"/>
     <mergeCell ref="D118:D124"/>
     <mergeCell ref="C125:E150"/>
@@ -3530,49 +3549,6 @@
     <mergeCell ref="D97:D103"/>
     <mergeCell ref="D104:D110"/>
     <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C45:C61"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="E6:E19"/>
-    <mergeCell ref="D43:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +460,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -690,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -799,15 +805,90 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,80 +901,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,10 +1232,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1233,12 +1245,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1326,13 +1338,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="59" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1352,9 +1364,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1370,9 +1382,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1391,8 +1403,8 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="10" t="s">
         <v>95</v>
       </c>
@@ -1413,8 +1425,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="10" t="s">
         <v>64</v>
       </c>
@@ -1433,8 +1445,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1453,8 +1465,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="76"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1470,19 +1482,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="68" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1494,15 +1506,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="59" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1514,15 +1526,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="59" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1534,15 +1546,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="59" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1554,15 +1566,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="59" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1574,15 +1586,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="59" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1594,15 +1606,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="59" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1617,16 +1629,16 @@
       <c r="C20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1641,14 +1653,14 @@
       <c r="C21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1675,7 @@
       <c r="C22" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1683,14 +1695,14 @@
       <c r="C23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1703,16 +1715,16 @@
       <c r="C24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1725,14 +1737,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="66"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1745,14 +1757,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="66"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1767,16 +1779,16 @@
       <c r="C27" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="73" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,8 +1801,8 @@
       <c r="C28" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="54"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="67"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1805,12 +1817,12 @@
       <c r="C29" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="18" t="s">
         <v>77</v>
       </c>
@@ -1822,15 +1834,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="18" t="s">
         <v>92</v>
       </c>
@@ -1842,15 +1854,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="68" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="18" t="s">
         <v>49</v>
       </c>
@@ -1862,15 +1874,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,15 +1892,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="59" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="37" t="s">
         <v>88</v>
       </c>
@@ -1900,20 +1912,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="51" t="s">
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="76" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1924,16 +1936,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="52"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1942,14 +1954,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="52"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1958,14 +1970,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="52"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1974,8 +1986,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -1992,8 +2004,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -2010,8 +2022,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="65"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2032,7 +2044,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="72" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="10"/>
@@ -2054,7 +2066,7 @@
       <c r="D42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2068,13 +2080,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2088,9 +2100,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="54"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2104,9 +2116,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="54"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2120,9 +2132,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="54"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2136,9 +2148,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="55"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2152,8 +2164,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,10 +2175,10 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,8 +2188,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="66"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,8 +2199,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="66"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,8 +2210,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="66"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,8 +2221,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="66"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,8 +2232,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="67"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,8 +2243,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="56" t="s">
+      <c r="C55" s="78"/>
+      <c r="D55" s="71" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="8"/>
@@ -2244,8 +2256,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="54"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2255,8 +2267,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="54"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,8 +2278,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,8 +2289,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="54"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,8 +2300,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="54"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,8 +2311,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="55"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,10 +2322,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="51" t="s">
         <v>91</v>
       </c>
       <c r="E62" s="8"/>
@@ -2325,8 +2337,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,8 +2348,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
       <c r="E64" s="8" t="s">
         <v>93</v>
       </c>
@@ -2349,8 +2361,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,8 +2372,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,8 +2383,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,8 +2394,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,10 +2405,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="56" t="s">
+      <c r="D69" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E69" s="23"/>
@@ -2408,8 +2420,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="54"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,8 +2431,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="54"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,8 +2442,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="54"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,8 +2453,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="54"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,8 +2464,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="54"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,8 +2475,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="55"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2474,11 +2486,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="62" t="s">
+      <c r="C76" s="49"/>
+      <c r="D76" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="72" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2489,9 +2501,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="54"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="67"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2500,9 +2512,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="54"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="67"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2511,9 +2523,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="54"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="67"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2522,9 +2534,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="54"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="67"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2533,9 +2545,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="54"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="67"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2544,9 +2556,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="55"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="68"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2555,10 +2567,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D83" s="71" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="8"/>
@@ -2570,8 +2582,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,8 +2593,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,8 +2604,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,8 +2615,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,8 +2626,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,8 +2637,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,10 +2648,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="71" t="s">
         <v>59</v>
       </c>
       <c r="E90" s="8"/>
@@ -2651,8 +2663,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2662,8 +2674,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,8 +2685,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,8 +2696,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,8 +2707,8 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
       <c r="E95" s="8" t="s">
         <v>93</v>
       </c>
@@ -2708,8 +2720,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,10 +2731,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E97" s="8"/>
@@ -2734,8 +2746,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,8 +2757,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,8 +2768,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,8 +2779,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,8 +2790,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,8 +2801,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,10 +2812,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="D104" s="56" t="s">
+      <c r="D104" s="71" t="s">
         <v>62</v>
       </c>
       <c r="E104" s="8"/>
@@ -2815,8 +2827,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2826,8 +2838,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,8 +2849,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,8 +2860,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2859,8 +2871,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,8 +2882,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="68"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,8 +2893,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="54"/>
-      <c r="D111" s="56" t="s">
+      <c r="C111" s="67"/>
+      <c r="D111" s="71" t="s">
         <v>63</v>
       </c>
       <c r="E111" s="8"/>
@@ -2894,8 +2906,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,8 +2917,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,8 +2928,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2927,8 +2939,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="54"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,8 +2950,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,8 +2961,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,10 +2972,10 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="46" t="s">
+      <c r="C118" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="46" t="s">
+      <c r="D118" s="73" t="s">
         <v>91</v>
       </c>
       <c r="E118" s="8"/>
@@ -2975,8 +2987,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,8 +2998,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="47"/>
-      <c r="D120" s="47"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2997,8 +3009,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,8 +3020,8 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
       <c r="E122" s="8" t="s">
         <v>93</v>
       </c>
@@ -3021,8 +3033,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,168 +3044,168 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
+      <c r="C126" s="75"/>
+      <c r="D126" s="75"/>
+      <c r="E126" s="75"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="50"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="50"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="75"/>
+      <c r="E128" s="75"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="50"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
+      <c r="C130" s="75"/>
+      <c r="D130" s="75"/>
+      <c r="E130" s="75"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="50"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="75"/>
+      <c r="E131" s="75"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="75"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="75"/>
+      <c r="E135" s="75"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
+      <c r="C136" s="75"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="75"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="75"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
+      <c r="C138" s="75"/>
+      <c r="D138" s="75"/>
+      <c r="E138" s="75"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
+      <c r="C139" s="75"/>
+      <c r="D139" s="75"/>
+      <c r="E139" s="75"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
+      <c r="C140" s="75"/>
+      <c r="D140" s="75"/>
+      <c r="E140" s="75"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="75"/>
+      <c r="E141" s="75"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="75"/>
+      <c r="E142" s="75"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
+      <c r="C143" s="75"/>
+      <c r="D143" s="75"/>
+      <c r="E143" s="75"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="75"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
+      <c r="C145" s="75"/>
+      <c r="D145" s="75"/>
+      <c r="E145" s="75"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="75"/>
+      <c r="E146" s="75"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
+      <c r="C148" s="75"/>
+      <c r="D148" s="75"/>
+      <c r="E148" s="75"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
-      <c r="E149" s="50"/>
+      <c r="C149" s="75"/>
+      <c r="D149" s="75"/>
+      <c r="E149" s="75"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
+      <c r="C150" s="75"/>
+      <c r="D150" s="75"/>
+      <c r="E150" s="75"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3491,6 +3503,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="C125:E150"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="C49:C61"/>
     <mergeCell ref="D43:D54"/>
@@ -3507,48 +3561,6 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="E6:E19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="C125:E150"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="F34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
   <si>
     <t>lundi</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>Point IDS</t>
-  </si>
-  <si>
-    <t>Présenter nouvelle GUI - manque graphe #paquets recus (Cron..)</t>
   </si>
   <si>
     <t>1 Dashboard pour les accès?</t>
@@ -356,9 +353,6 @@
   </si>
   <si>
     <t>LDAP - Scripts BASH</t>
-  </si>
-  <si>
-    <t>SAN</t>
   </si>
   <si>
     <t xml:space="preserve">Refaire ce tableau avec action1=théorie action2=pratique
@@ -385,6 +379,31 @@
 -
 Machine learning
 </t>
+  </si>
+  <si>
+    <t>Ontap SAN</t>
+  </si>
+  <si>
+    <t>LVM - LUN - Linux</t>
+  </si>
+  <si>
+    <t>Multipath Linux</t>
+  </si>
+  <si>
+    <t>Check Flux</t>
+  </si>
+  <si>
+    <t>Connexion Graylog-suricata
+ + GUI</t>
+  </si>
+  <si>
+    <t>Rappatriement paquets/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alertes </t>
+  </si>
+  <si>
+    <t>et  protocoles</t>
   </si>
 </sst>
 </file>
@@ -696,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -805,6 +824,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,15 +887,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,13 +899,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,58 +923,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,10 +1257,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1245,12 +1270,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1350,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1338,13 +1363,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1364,9 +1389,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1382,9 +1407,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1403,10 +1428,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1425,8 +1450,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="10" t="s">
         <v>64</v>
       </c>
@@ -1445,8 +1470,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1465,8 +1490,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1482,19 +1507,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1506,15 +1531,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="56" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1526,15 +1551,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="56" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1546,15 +1571,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="56" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1566,15 +1591,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="56" t="s">
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1586,15 +1611,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="56" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1606,15 +1631,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="56" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1629,16 +1654,16 @@
       <c r="C20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>96</v>
+      <c r="D20" s="60" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1653,14 +1678,14 @@
       <c r="C21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1700,7 @@
       <c r="C22" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1695,14 +1720,14 @@
       <c r="C23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="63"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,16 +1740,16 @@
       <c r="C24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1737,14 +1762,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="52"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1757,14 +1782,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="52"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1779,16 +1804,16 @@
       <c r="C27" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="67"/>
+      <c r="E27" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
+      <c r="F27" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1801,8 +1826,8 @@
       <c r="C28" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="55"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1817,12 +1842,12 @@
       <c r="C29" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="18" t="s">
         <v>77</v>
       </c>
@@ -1834,17 +1859,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1854,15 +1879,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="54" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
       <c r="J31" s="18" t="s">
         <v>49</v>
       </c>
@@ -1874,15 +1899,13 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1892,17 +1915,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,21 +1935,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>97</v>
+      <c r="C34" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="76" t="s">
-        <v>89</v>
+      <c r="F34" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1936,16 +1959,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="77"/>
+      <c r="F35" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1954,14 +1977,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="77"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1970,14 +1993,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="77"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1986,15 +2009,15 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2004,15 +2027,15 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="47"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2022,15 +2045,15 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,7 +2067,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="54" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="10"/>
@@ -2061,12 +2084,12 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="67"/>
+        <v>98</v>
+      </c>
+      <c r="E42" s="55"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2080,13 +2103,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="67"/>
+      <c r="C43" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="55"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2100,9 +2123,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="67"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2116,9 +2139,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="67"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2132,9 +2155,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="67"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2148,9 +2171,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="68"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2164,8 +2187,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="52"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,21 +2198,25 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="52"/>
+      <c r="D49" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="52"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="46" t="s">
+        <v>110</v>
+      </c>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,9 +2226,15 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -2210,8 +2243,10 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="52"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="57" t="s">
+        <v>112</v>
+      </c>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2256,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="52"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,8 +2267,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="53"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,9 +2278,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="71" t="s">
-        <v>103</v>
+      <c r="C55" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>102</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2256,8 +2293,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="67"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,8 +2304,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="67"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +2315,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="67"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2326,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,8 +2337,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="67"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,8 +2348,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="68"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,11 +2359,11 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="51" t="s">
-        <v>91</v>
+      <c r="C62" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2337,8 +2374,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2348,10 +2385,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,8 +2398,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,8 +2409,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,8 +2420,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,8 +2431,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,10 +2442,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E69" s="23"/>
@@ -2420,8 +2457,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="67"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,8 +2468,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="67"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,8 +2479,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="67"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,8 +2490,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="67"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,8 +2501,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="67"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2475,8 +2512,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="68"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,11 +2523,11 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="72" t="s">
+      <c r="C76" s="58"/>
+      <c r="D76" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="54" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2501,9 +2538,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="67"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="55"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2512,9 +2549,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="55"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2523,9 +2560,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="67"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="55"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2534,9 +2571,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="67"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="55"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2545,9 +2582,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="67"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="55"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2556,9 +2593,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="68"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="56"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2567,10 +2604,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="57" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="8"/>
@@ -2582,8 +2619,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2593,8 +2630,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,8 +2641,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,8 +2652,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2626,8 +2663,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,8 +2674,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,10 +2685,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="57" t="s">
         <v>59</v>
       </c>
       <c r="E90" s="8"/>
@@ -2663,8 +2700,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,8 +2711,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,8 +2722,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,8 +2733,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,10 +2744,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,8 +2757,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,10 +2768,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="72" t="s">
+      <c r="C97" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="57" t="s">
         <v>60</v>
       </c>
       <c r="E97" s="8"/>
@@ -2746,8 +2783,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,8 +2794,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,8 +2805,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2779,8 +2816,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,8 +2827,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,8 +2838,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,10 +2849,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D104" s="71" t="s">
+      <c r="D104" s="57" t="s">
         <v>62</v>
       </c>
       <c r="E104" s="8"/>
@@ -2827,8 +2864,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,8 +2875,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,8 +2886,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,8 +2897,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,8 +2908,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,8 +2919,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="68"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="56"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,8 +2930,8 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="71" t="s">
+      <c r="C111" s="55"/>
+      <c r="D111" s="57" t="s">
         <v>63</v>
       </c>
       <c r="E111" s="8"/>
@@ -2906,8 +2943,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,8 +2954,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,8 +2965,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,8 +2976,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,8 +2987,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,8 +2998,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2972,11 +3009,11 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" s="73" t="s">
-        <v>91</v>
+      <c r="C118" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -2987,8 +3024,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,8 +3035,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,8 +3046,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,10 +3057,10 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
       <c r="E122" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,8 +3070,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,168 +3081,168 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
+      <c r="C125" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="75"/>
-      <c r="E126" s="75"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="75"/>
-      <c r="E127" s="75"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="75"/>
-      <c r="E128" s="75"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="75"/>
-      <c r="E129" s="75"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="75"/>
-      <c r="D130" s="75"/>
-      <c r="E130" s="75"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="75"/>
-      <c r="E131" s="75"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="75"/>
-      <c r="E132" s="75"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="75"/>
-      <c r="E133" s="75"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="75"/>
-      <c r="E135" s="75"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="75"/>
-      <c r="D136" s="75"/>
-      <c r="E136" s="75"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="75"/>
-      <c r="E137" s="75"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="75"/>
-      <c r="D138" s="75"/>
-      <c r="E138" s="75"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="75"/>
-      <c r="D139" s="75"/>
-      <c r="E139" s="75"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="75"/>
-      <c r="E140" s="75"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="75"/>
-      <c r="D141" s="75"/>
-      <c r="E141" s="75"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="75"/>
-      <c r="E142" s="75"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="75"/>
-      <c r="D143" s="75"/>
-      <c r="E143" s="75"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="75"/>
-      <c r="D144" s="75"/>
-      <c r="E144" s="75"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="75"/>
-      <c r="D145" s="75"/>
-      <c r="E145" s="75"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="75"/>
-      <c r="E146" s="75"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="75"/>
-      <c r="E147" s="75"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="75"/>
-      <c r="E148" s="75"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="75"/>
-      <c r="E149" s="75"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="75"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3502,7 +3539,52 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="61">
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="E6:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="C118:C124"/>
     <mergeCell ref="D118:D124"/>
     <mergeCell ref="C125:E150"/>
@@ -3519,48 +3601,6 @@
     <mergeCell ref="D97:D103"/>
     <mergeCell ref="D104:D110"/>
     <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C61"/>
-    <mergeCell ref="D43:D54"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="E6:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>lundi</t>
   </si>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>Test de l'IDS via Pytbull</t>
-  </si>
-  <si>
-    <t>Optimisation Suricata +
-Graylog</t>
   </si>
   <si>
     <t>ACL flow vers firewall</t>
@@ -393,17 +389,20 @@
     <t>Check Flux</t>
   </si>
   <si>
-    <t>Connexion Graylog-suricata
- + GUI</t>
-  </si>
-  <si>
-    <t>Rappatriement paquets/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alertes </t>
-  </si>
-  <si>
     <t>et  protocoles</t>
+  </si>
+  <si>
+    <t>Mise en marche IDS</t>
+  </si>
+  <si>
+    <t>Optimisation Suricata +
+Graylog
++ corrélations</t>
+  </si>
+  <si>
+    <t>Cryptographie
+Quantique
+Machine learning</t>
   </si>
 </sst>
 </file>
@@ -715,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -824,45 +823,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -878,14 +883,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -908,29 +919,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,10 +1259,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1270,12 +1272,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1296,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>26</v>
@@ -1350,7 +1352,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1363,13 +1365,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="68" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1389,9 +1391,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1407,9 +1409,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1428,10 +1430,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1450,10 +1452,10 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1470,8 +1472,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1490,8 +1492,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1507,19 +1509,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="69" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1531,15 +1533,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="61" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1551,15 +1553,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="61" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1571,15 +1573,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="61" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1591,15 +1593,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="61" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1611,15 +1613,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="61" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1631,15 +1633,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="61" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1652,18 +1654,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1676,16 +1678,16 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="67"/>
+        <v>66</v>
+      </c>
+      <c r="D21" s="71"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+      <c r="F21" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1698,9 +1700,9 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="67"/>
+        <v>69</v>
+      </c>
+      <c r="D22" s="71"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1718,16 +1720,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="67"/>
+        <v>71</v>
+      </c>
+      <c r="D23" s="71"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
+      <c r="F23" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,18 +1740,18 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="67"/>
+        <v>72</v>
+      </c>
+      <c r="D24" s="71"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="F24" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1762,14 +1764,14 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="67"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
+      <c r="F25" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1782,14 +1784,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="67"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
+      <c r="F26" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1802,18 +1804,18 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
+        <v>73</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1824,10 +1826,10 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="57"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1840,16 +1842,16 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+        <v>70</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,17 +1861,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1879,15 +1881,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="18" t="s">
         <v>49</v>
       </c>
@@ -1899,13 +1901,13 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1915,17 +1917,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1935,21 +1937,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>96</v>
+      <c r="C34" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="52" t="s">
-        <v>88</v>
+      <c r="F34" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="54" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1959,16 +1961,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="65"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="53"/>
+      <c r="F35" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1977,14 +1979,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="65"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="53"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1993,14 +1995,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="65"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="53"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2009,15 +2011,15 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2027,15 +2029,15 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,15 +2047,15 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="66"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,8 +2069,8 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="54" t="s">
-        <v>76</v>
+      <c r="E41" s="56" t="s">
+        <v>75</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2084,12 +2086,12 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="55"/>
+        <v>97</v>
+      </c>
+      <c r="E42" s="57"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2103,13 +2105,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="55"/>
+      <c r="C43" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="57"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2123,9 +2125,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="55"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2139,9 +2141,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="55"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2155,9 +2157,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="55"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2171,9 +2173,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="56"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2187,8 +2189,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,11 +2200,11 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="80" t="s">
-        <v>106</v>
+      <c r="C49" s="78" t="s">
+        <v>105</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="8"/>
     </row>
@@ -2214,7 +2216,7 @@
         <v>43299</v>
       </c>
       <c r="C50" s="79"/>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="78" t="s">
         <v>110</v>
       </c>
       <c r="E50" s="8"/>
@@ -2226,14 +2228,12 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>111</v>
-      </c>
+      <c r="C51" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="79"/>
       <c r="E51" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,10 +2243,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="57" t="s">
-        <v>112</v>
-      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,8 +2254,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,8 +2265,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="80"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,11 +2276,11 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>102</v>
+      <c r="C55" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -2293,8 +2291,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="55"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,8 +2302,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="55"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,8 +2313,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,8 +2324,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="55"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,8 +2335,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="55"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2348,8 +2346,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="56"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,10 +2357,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="57" t="s">
+      <c r="C62" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="59" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="8"/>
@@ -2374,8 +2372,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="55"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,10 +2383,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="55"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2398,8 +2396,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="55"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,8 +2407,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="55"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,8 +2418,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="55"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,8 +2429,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="56"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,10 +2440,10 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="59" t="s">
         <v>55</v>
       </c>
       <c r="E69" s="23"/>
@@ -2457,8 +2455,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="55"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,8 +2466,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="55"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,8 +2477,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="55"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,8 +2488,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="55"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2501,8 +2499,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,8 +2510,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="56"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,12 +2521,12 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="54" t="s">
-        <v>76</v>
+      <c r="C76" s="60"/>
+      <c r="D76" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,9 +2536,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="55"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="57"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2549,9 +2547,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="55"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="57"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2560,9 +2558,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="55"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2571,9 +2569,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="55"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="57"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2582,9 +2580,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="55"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="57"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2593,9 +2591,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="56"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="58"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2604,10 +2602,10 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="57" t="s">
+      <c r="C83" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="57" t="s">
+      <c r="D83" s="59" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="8"/>
@@ -2619,8 +2617,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,8 +2628,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,8 +2639,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,8 +2650,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,8 +2661,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,8 +2672,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,10 +2683,10 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="59" t="s">
         <v>59</v>
       </c>
       <c r="E90" s="8"/>
@@ -2700,8 +2698,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2711,8 +2709,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,8 +2720,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,8 +2731,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,10 +2742,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
       <c r="E95" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,8 +2755,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,10 +2766,10 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="57" t="s">
+      <c r="D97" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E97" s="8"/>
@@ -2783,8 +2781,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,8 +2792,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,8 +2803,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,8 +2814,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,8 +2825,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,8 +2836,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,10 +2847,10 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="57" t="s">
+      <c r="C104" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="59" t="s">
         <v>62</v>
       </c>
       <c r="E104" s="8"/>
@@ -2864,8 +2862,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="55"/>
-      <c r="D105" s="55"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,8 +2873,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,8 +2884,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,8 +2895,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,8 +2906,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2919,8 +2917,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="56"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,9 +2928,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="55"/>
-      <c r="D111" s="57" t="s">
-        <v>63</v>
+      <c r="C111" s="57"/>
+      <c r="D111" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2943,8 +2941,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,8 +2952,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,8 +2963,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,8 +2974,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="55"/>
-      <c r="D115" s="55"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,8 +2985,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,8 +2996,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,11 +3007,11 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="47" t="s">
-        <v>90</v>
+      <c r="C118" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -3024,8 +3022,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3035,8 +3033,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,8 +3044,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="50"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,10 +3055,10 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
       <c r="E122" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,8 +3068,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,183 +3079,200 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
+      <c r="C125" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="52"/>
+      <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="51"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="51"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="51"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="51"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="53"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="51"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="53"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="53"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="53"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="53"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="53"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="53"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
+      <c r="C151" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="82"/>
+      <c r="E151" s="82"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
+      <c r="C152" s="82"/>
+      <c r="D152" s="82"/>
+      <c r="E152" s="82"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
+      <c r="C153" s="82"/>
+      <c r="D153" s="82"/>
+      <c r="E153" s="82"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
+      <c r="C154" s="82"/>
+      <c r="D154" s="82"/>
+      <c r="E154" s="82"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
+      <c r="C155" s="82"/>
+      <c r="D155" s="82"/>
+      <c r="E155" s="82"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
@@ -3539,13 +3554,14 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="C151:E155"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="C55:C61"/>
     <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D52:D54"/>
     <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D50:D54"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
@@ -3559,12 +3575,6 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="E6:E19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="D20:D33"/>
@@ -3573,11 +3583,18 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="E27:E33"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="D76:D82"/>
     <mergeCell ref="D62:D68"/>
     <mergeCell ref="D69:D75"/>
@@ -3600,7 +3617,6 @@
     <mergeCell ref="D90:D96"/>
     <mergeCell ref="D97:D103"/>
     <mergeCell ref="D104:D110"/>
-    <mergeCell ref="F34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
   <si>
     <t>lundi</t>
   </si>
@@ -183,10 +183,6 @@
   <si>
     <t xml:space="preserve">UI Graylog 
 </t>
-  </si>
-  <si>
-    <t>Implémentation flux des 
-paquets sur GUI via syslog/Cron/Script</t>
   </si>
   <si>
     <t>SNMP
@@ -264,9 +260,6 @@
     <t>Ips des serveurs? IP virtuelle a quel niveau?</t>
   </si>
   <si>
-    <t>Trafic sur les deux firewalls?</t>
-  </si>
-  <si>
     <t>Les deux serveurs ne doivent pas ecrire en m temps sur le SAN</t>
   </si>
   <si>
@@ -274,12 +267,6 @@
   </si>
   <si>
     <t>Point IDS</t>
-  </si>
-  <si>
-    <t>1 Dashboard pour les accès?</t>
-  </si>
-  <si>
-    <t>Alerts par mois plutôt ?Mai - Juin…</t>
   </si>
   <si>
     <t>Average alertes?</t>
@@ -292,9 +279,6 @@
 Rouge obligatoire (quick start)
 Gris noir : sécurité
 Optimisation vert…</t>
-  </si>
-  <si>
-    <t>Infra exacte?full duplex ou non des firewalls..</t>
   </si>
   <si>
     <t>Off</t>
@@ -339,10 +323,6 @@
   </si>
   <si>
     <t>Cause système cible effets solutions pr attaques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sécurisation TLS graylog
-+ SSH LDAP </t>
   </si>
   <si>
     <t>Scripts BASH</t>
@@ -377,24 +357,6 @@
 </t>
   </si>
   <si>
-    <t>Ontap SAN</t>
-  </si>
-  <si>
-    <t>LVM - LUN - Linux</t>
-  </si>
-  <si>
-    <t>Multipath Linux</t>
-  </si>
-  <si>
-    <t>Check Flux</t>
-  </si>
-  <si>
-    <t>et  protocoles</t>
-  </si>
-  <si>
-    <t>Mise en marche IDS</t>
-  </si>
-  <si>
     <t>Optimisation Suricata +
 Graylog
 + corrélations</t>
@@ -403,6 +365,25 @@
     <t>Cryptographie
 Quantique
 Machine learning</t>
+  </si>
+  <si>
+    <t>cpu affinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multipath Linux +
+LVM - LUN - Linux +
+Ontap SAN </t>
+  </si>
+  <si>
+    <t>Mise en marche IDS
+Serveur 1
+nominale</t>
+  </si>
+  <si>
+    <t>1 Dashboard pour les accès? Plutôt forward de syslog</t>
+  </si>
+  <si>
+    <t>Alerts par mois plutôt ?Mai - Juin… non reporting tt les mois</t>
   </si>
 </sst>
 </file>
@@ -871,39 +852,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,6 +900,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,12 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,10 +1240,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1277,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>26</v>
@@ -1330,7 +1311,9 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1352,7 +1335,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1365,13 +1348,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="67" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1391,9 +1374,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1409,9 +1392,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1430,10 +1413,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1452,10 +1435,10 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1472,8 +1455,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1492,8 +1475,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1515,7 +1498,7 @@
       <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="69"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="73" t="s">
         <v>19</v>
       </c>
@@ -1533,15 +1516,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="63" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1553,15 +1536,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="63" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1573,15 +1556,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="63" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
@@ -1593,15 +1576,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="63" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1613,15 +1596,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="63" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1633,15 +1616,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="63" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1654,18 +1637,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1678,16 +1661,16 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="71"/>
+        <v>65</v>
+      </c>
+      <c r="D21" s="70"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="F21" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1700,9 +1683,9 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="71"/>
+        <v>68</v>
+      </c>
+      <c r="D22" s="70"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1720,12 +1703,12 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="71"/>
+        <v>70</v>
+      </c>
+      <c r="D23" s="70"/>
       <c r="E23" s="8"/>
       <c r="F23" s="73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -1740,18 +1723,18 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="71"/>
+        <v>71</v>
+      </c>
+      <c r="D24" s="70"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="F24" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1764,14 +1747,12 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="71"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1784,14 +1765,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="71"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="F26" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1804,18 +1785,16 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
+        <v>72</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1826,9 +1805,9 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="71"/>
+        <v>73</v>
+      </c>
+      <c r="D28" s="70"/>
       <c r="E28" s="57"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
@@ -1842,16 +1821,16 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="71"/>
+        <v>69</v>
+      </c>
+      <c r="D29" s="70"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,17 +1840,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="71"/>
+      <c r="C30" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="70"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
       <c r="J30" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,11 +1860,11 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="57"/>
       <c r="F31" s="73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="76"/>
       <c r="H31" s="76"/>
@@ -1901,13 +1880,13 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="57"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1917,17 +1896,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="F33" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1937,21 +1916,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="71" t="s">
-        <v>89</v>
+      <c r="C34" s="70" t="s">
+        <v>84</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="F34" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1961,15 +1940,15 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="47"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65"/>
+      <c r="F35" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1979,7 +1958,7 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="47"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
@@ -1995,7 +1974,7 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="71"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
@@ -2011,7 +1990,7 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="71"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="47"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
@@ -2019,7 +1998,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2029,7 +2008,7 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="71"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="47"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
@@ -2037,7 +2016,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2047,7 +2026,7 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="48"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
@@ -2055,7 +2034,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,7 +2049,7 @@
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2086,10 +2065,10 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="10"/>
@@ -2106,10 +2085,10 @@
         <v>43292</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="62" t="s">
         <v>96</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="10"/>
@@ -2126,7 +2105,7 @@
         <v>43293</v>
       </c>
       <c r="C44" s="47"/>
-      <c r="D44" s="71"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="57"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
@@ -2142,7 +2121,7 @@
         <v>43294</v>
       </c>
       <c r="C45" s="47"/>
-      <c r="D45" s="71"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="57"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
@@ -2158,7 +2137,7 @@
         <v>43295</v>
       </c>
       <c r="C46" s="47"/>
-      <c r="D46" s="71"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="57"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
@@ -2174,7 +2153,7 @@
         <v>43296</v>
       </c>
       <c r="C47" s="47"/>
-      <c r="D47" s="71"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="58"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
@@ -2190,21 +2169,21 @@
         <v>43297</v>
       </c>
       <c r="C48" s="48"/>
-      <c r="D48" s="71"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>108</v>
+      <c r="C49" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>103</v>
       </c>
       <c r="E49" s="8"/>
     </row>
@@ -2215,10 +2194,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="78" t="s">
-        <v>110</v>
-      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,13 +2205,9 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -2243,8 +2216,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="79"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,8 +2227,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="79"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,8 +2238,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="80"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="81"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,12 +2249,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>101</v>
-      </c>
+      <c r="C55" s="70"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,8 +2260,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="57"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,8 +2271,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="81"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,8 +2282,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,8 +2293,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2335,8 +2304,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,8 +2315,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,12 +2326,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="59" t="s">
-        <v>32</v>
-      </c>
+      <c r="C62" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="81"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,8 +2339,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,10 +2350,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="81"/>
       <c r="E64" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,8 +2363,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,8 +2374,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,8 +2385,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,8 +2396,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="82"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,10 +2408,10 @@
         <v>43318</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="59" t="s">
         <v>55</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>84</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -2456,7 +2423,7 @@
         <v>43319</v>
       </c>
       <c r="C70" s="60"/>
-      <c r="D70" s="57"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2467,7 +2434,7 @@
         <v>43320</v>
       </c>
       <c r="C71" s="60"/>
-      <c r="D71" s="57"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,7 +2445,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="60"/>
-      <c r="D72" s="57"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,7 +2456,7 @@
         <v>43322</v>
       </c>
       <c r="C73" s="60"/>
-      <c r="D73" s="57"/>
+      <c r="D73" s="70"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,7 +2467,7 @@
         <v>43323</v>
       </c>
       <c r="C74" s="60"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,7 +2478,7 @@
         <v>43324</v>
       </c>
       <c r="C75" s="60"/>
-      <c r="D75" s="58"/>
+      <c r="D75" s="70"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,11 +2489,9 @@
         <v>43325</v>
       </c>
       <c r="C76" s="60"/>
-      <c r="D76" s="62" t="s">
-        <v>89</v>
-      </c>
+      <c r="D76" s="70"/>
       <c r="E76" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,7 +2502,7 @@
         <v>43326</v>
       </c>
       <c r="C77" s="60"/>
-      <c r="D77" s="50"/>
+      <c r="D77" s="70"/>
       <c r="E77" s="57"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,7 +2513,7 @@
         <v>43327</v>
       </c>
       <c r="C78" s="60"/>
-      <c r="D78" s="50"/>
+      <c r="D78" s="70"/>
       <c r="E78" s="57"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,7 +2524,7 @@
         <v>43328</v>
       </c>
       <c r="C79" s="60"/>
-      <c r="D79" s="50"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,7 +2535,7 @@
         <v>43329</v>
       </c>
       <c r="C80" s="60"/>
-      <c r="D80" s="50"/>
+      <c r="D80" s="70"/>
       <c r="E80" s="57"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,7 +2546,7 @@
         <v>43330</v>
       </c>
       <c r="C81" s="60"/>
-      <c r="D81" s="50"/>
+      <c r="D81" s="70"/>
       <c r="E81" s="57"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,7 +2557,7 @@
         <v>43331</v>
       </c>
       <c r="C82" s="61"/>
-      <c r="D82" s="51"/>
+      <c r="D82" s="71"/>
       <c r="E82" s="58"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2684,10 +2649,10 @@
         <v>43339</v>
       </c>
       <c r="C90" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="59" t="s">
         <v>58</v>
-      </c>
-      <c r="D90" s="59" t="s">
-        <v>59</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2745,7 +2710,7 @@
       <c r="C95" s="57"/>
       <c r="D95" s="57"/>
       <c r="E95" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,10 +2732,10 @@
         <v>43346</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D97" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2848,10 +2813,10 @@
         <v>43353</v>
       </c>
       <c r="C104" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2930,7 +2895,7 @@
       </c>
       <c r="C111" s="57"/>
       <c r="D111" s="59" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -3008,10 +2973,10 @@
         <v>43367</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D118" s="49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -3058,7 +3023,7 @@
       <c r="C122" s="50"/>
       <c r="D122" s="50"/>
       <c r="E122" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3052,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="52" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
@@ -3244,35 +3209,35 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="C151" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
+      <c r="C151" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="82"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="C153" s="82"/>
-      <c r="D153" s="82"/>
-      <c r="E153" s="82"/>
+      <c r="C153" s="79"/>
+      <c r="D153" s="79"/>
+      <c r="E153" s="79"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="C154" s="82"/>
-      <c r="D154" s="82"/>
-      <c r="E154" s="82"/>
+      <c r="C154" s="79"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="82"/>
-      <c r="E155" s="82"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
@@ -3554,14 +3519,15 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="57">
     <mergeCell ref="C151:E155"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C55:C61"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="C49:C61"/>
+    <mergeCell ref="D69:D82"/>
+    <mergeCell ref="D49:D68"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
@@ -3595,12 +3561,6 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="D55:D61"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="C118:C124"/>
     <mergeCell ref="D118:D124"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>lundi</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>Alerts par mois plutôt ?Mai - Juin… non reporting tt les mois</t>
+  </si>
+  <si>
+    <t>#paquets par secondes
+entrants Firewall
+Séparation protocoles
+Graylog corrélation</t>
+  </si>
+  <si>
+    <t>Dashboard 1 pr chaque alertes? +protocoles paquets/s?</t>
+  </si>
+  <si>
+    <t>Kickstar - plymouth - kickseed - X - anaconda</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1895,9 @@
       <c r="C32" s="70"/>
       <c r="D32" s="70"/>
       <c r="E32" s="57"/>
-      <c r="F32" s="62"/>
+      <c r="F32" s="62" t="s">
+        <v>107</v>
+      </c>
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
       <c r="I32" s="64"/>
@@ -2411,7 +2425,7 @@
         <v>55</v>
       </c>
       <c r="D69" s="72" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -3241,65 +3255,91 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
+      <c r="C156" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C160" s="79"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C161" s="79"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="79"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162" s="79"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C163" s="79"/>
+      <c r="D163" s="79"/>
+      <c r="E163" s="79"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
@@ -3519,7 +3559,8 @@
       <c r="A248" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
+    <mergeCell ref="C156:E163"/>
     <mergeCell ref="C151:E155"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="C43:C48"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
   <si>
     <t>lundi</t>
   </si>
@@ -198,10 +198,6 @@
   <si>
     <t>Intégration Reporting 
 mensuel</t>
-  </si>
-  <si>
-    <t>Politique Logging : 
-Retention, compression…</t>
   </si>
   <si>
     <t>Pytbull Doc</t>
@@ -291,9 +287,6 @@
   </si>
   <si>
     <t>MBR GPT…XFS NFS</t>
-  </si>
-  <si>
-    <t>ntpd httpd sftpd vsftpd</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -329,6 +322,50 @@
   </si>
   <si>
     <t>LDAP - Scripts BASH</t>
+  </si>
+  <si>
+    <t>Optimisation Suricata +
+Graylog
++ corrélations</t>
+  </si>
+  <si>
+    <t>Cryptographie
+Quantique
+Machine learning</t>
+  </si>
+  <si>
+    <t>cpu affinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multipath Linux +
+LVM - LUN - Linux +
+Ontap SAN </t>
+  </si>
+  <si>
+    <t>Mise en marche IDS
+Serveur 1
+nominale</t>
+  </si>
+  <si>
+    <t>1 Dashboard pour les accès? Plutôt forward de syslog</t>
+  </si>
+  <si>
+    <t>Alerts par mois plutôt ?Mai - Juin… non reporting tt les mois</t>
+  </si>
+  <si>
+    <t>#paquets par secondes
+entrants Firewall
+Séparation protocoles
+Graylog corrélation</t>
+  </si>
+  <si>
+    <t>Dashboard 1 pr chaque alertes? +protocoles paquets/s?</t>
+  </si>
+  <si>
+    <t>Kickstar - plymouth - kickseed - X - anaconda</t>
+  </si>
+  <si>
+    <t>httpd sftpd vsftpd</t>
   </si>
   <si>
     <t xml:space="preserve">Refaire ce tableau avec action1=théorie action2=pratique
@@ -350,52 +387,12 @@
 Active directory
 PXE
 Kerberos
+NTP -Chrony - RDP
 -
 Linux Kernel Mailing List (LKML) + sites kernel de la FAQ LKML
 -
 Machine learning
 </t>
-  </si>
-  <si>
-    <t>Optimisation Suricata +
-Graylog
-+ corrélations</t>
-  </si>
-  <si>
-    <t>Cryptographie
-Quantique
-Machine learning</t>
-  </si>
-  <si>
-    <t>cpu affinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multipath Linux +
-LVM - LUN - Linux +
-Ontap SAN </t>
-  </si>
-  <si>
-    <t>Mise en marche IDS
-Serveur 1
-nominale</t>
-  </si>
-  <si>
-    <t>1 Dashboard pour les accès? Plutôt forward de syslog</t>
-  </si>
-  <si>
-    <t>Alerts par mois plutôt ?Mai - Juin… non reporting tt les mois</t>
-  </si>
-  <si>
-    <t>#paquets par secondes
-entrants Firewall
-Séparation protocoles
-Graylog corrélation</t>
-  </si>
-  <si>
-    <t>Dashboard 1 pr chaque alertes? +protocoles paquets/s?</t>
-  </si>
-  <si>
-    <t>Kickstar - plymouth - kickseed - X - anaconda</t>
   </si>
 </sst>
 </file>
@@ -913,10 +910,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1235,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125:E150"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1286,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>26</v>
@@ -1324,7 +1321,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="13"/>
       <c r="F4" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1347,7 +1344,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1428,7 +1425,7 @@
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1450,7 +1447,7 @@
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
       <c r="F10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1577,7 +1574,7 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1649,10 +1646,10 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="62" t="s">
@@ -1673,12 +1670,12 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="8"/>
       <c r="F21" s="62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
@@ -1695,7 +1692,7 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="8"/>
@@ -1715,12 +1712,12 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="70"/>
       <c r="E23" s="8"/>
       <c r="F23" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -1735,14 +1732,14 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="70"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
@@ -1780,7 +1777,7 @@
       <c r="D26" s="70"/>
       <c r="E26" s="8"/>
       <c r="F26" s="62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
@@ -1797,11 +1794,11 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="62"/>
       <c r="G27" s="63"/>
@@ -1817,7 +1814,7 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="70"/>
       <c r="E28" s="57"/>
@@ -1833,7 +1830,7 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="57"/>
@@ -1842,7 +1839,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="64"/>
       <c r="J29" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,7 +1850,7 @@
         <v>43279</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="70"/>
       <c r="E30" s="57"/>
@@ -1862,7 +1859,7 @@
       <c r="H30" s="63"/>
       <c r="I30" s="64"/>
       <c r="J30" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1876,7 +1873,7 @@
       <c r="D31" s="70"/>
       <c r="E31" s="57"/>
       <c r="F31" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="76"/>
       <c r="H31" s="76"/>
@@ -1896,7 +1893,7 @@
       <c r="D32" s="70"/>
       <c r="E32" s="57"/>
       <c r="F32" s="62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
@@ -1914,13 +1911,13 @@
       <c r="D33" s="70"/>
       <c r="E33" s="58"/>
       <c r="F33" s="62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
       <c r="I33" s="64"/>
       <c r="J33" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,20 +1928,20 @@
         <v>43283</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="64"/>
       <c r="J34" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1958,7 +1955,7 @@
       <c r="D35" s="47"/>
       <c r="E35" s="29"/>
       <c r="F35" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
@@ -2012,7 +2009,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,7 +2027,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2048,7 +2045,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2060,7 @@
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2079,10 +2076,10 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="10"/>
@@ -2099,10 +2096,10 @@
         <v>43292</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="10"/>
@@ -2194,10 +2191,10 @@
         <v>43298</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E49" s="8"/>
     </row>
@@ -2341,7 +2338,7 @@
         <v>43311</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" s="81"/>
       <c r="E62" s="8"/>
@@ -2367,7 +2364,7 @@
       <c r="C64" s="57"/>
       <c r="D64" s="81"/>
       <c r="E64" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="D69" s="72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -2505,7 +2502,7 @@
       <c r="C76" s="60"/>
       <c r="D76" s="70"/>
       <c r="E76" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,7 +2721,7 @@
       <c r="C95" s="57"/>
       <c r="D95" s="57"/>
       <c r="E95" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2746,10 +2743,10 @@
         <v>43346</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="59" t="s">
         <v>59</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>83</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2761,7 +2758,7 @@
         <v>43347</v>
       </c>
       <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
+      <c r="D98" s="50"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,7 +2769,7 @@
         <v>43348</v>
       </c>
       <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
+      <c r="D99" s="50"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,7 +2780,7 @@
         <v>43349</v>
       </c>
       <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,7 +2791,7 @@
         <v>43350</v>
       </c>
       <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
+      <c r="D101" s="50"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,7 +2802,7 @@
         <v>43351</v>
       </c>
       <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,7 +2813,7 @@
         <v>43352</v>
       </c>
       <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,10 +2824,10 @@
         <v>43353</v>
       </c>
       <c r="C104" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D104" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2909,7 +2906,7 @@
       </c>
       <c r="C111" s="57"/>
       <c r="D111" s="59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2987,10 +2984,10 @@
         <v>43367</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D118" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -3037,7 +3034,7 @@
       <c r="C122" s="50"/>
       <c r="D122" s="50"/>
       <c r="E122" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +3063,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="52" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
@@ -3223,85 +3220,85 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="C151" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
+      <c r="C151" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="78"/>
+      <c r="E153" s="78"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="C154" s="79"/>
-      <c r="D154" s="79"/>
-      <c r="E154" s="79"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="78"/>
+      <c r="E154" s="78"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="C155" s="79"/>
-      <c r="D155" s="79"/>
-      <c r="E155" s="79"/>
+      <c r="C155" s="78"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="78"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="C156" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
+      <c r="C156" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156" s="78"/>
+      <c r="E156" s="78"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
+      <c r="C157" s="78"/>
+      <c r="D157" s="78"/>
+      <c r="E157" s="78"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="78"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
+      <c r="C159" s="78"/>
+      <c r="D159" s="78"/>
+      <c r="E159" s="78"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="C160" s="79"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="79"/>
+      <c r="C160" s="78"/>
+      <c r="D160" s="78"/>
+      <c r="E160" s="78"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="79"/>
+      <c r="C161" s="78"/>
+      <c r="D161" s="78"/>
+      <c r="E161" s="78"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="C162" s="79"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="79"/>
+      <c r="C162" s="78"/>
+      <c r="D162" s="78"/>
+      <c r="E162" s="78"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="79"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="78"/>
+      <c r="E163" s="78"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>Dashboard 1 pr chaque alertes? +protocoles paquets/s?</t>
-  </si>
-  <si>
-    <t>Kickstar - plymouth - kickseed - X - anaconda</t>
   </si>
   <si>
     <t>httpd sftpd vsftpd</t>
@@ -393,6 +390,11 @@
 -
 Machine learning
 </t>
+  </si>
+  <si>
+    <t>Kickstar - plymouth - kickseed - X - anaconda
+Awx - spacewalk - ansible - docker - portainer.io
+Varnish RAM caching</t>
   </si>
 </sst>
 </file>
@@ -861,6 +863,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -891,9 +896,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,10 +912,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1232,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,10 +1251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1357,13 +1359,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="68" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1383,9 +1385,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1401,9 +1403,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1422,10 +1424,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1444,8 +1446,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="10" t="s">
         <v>61</v>
       </c>
@@ -1464,8 +1466,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1484,8 +1486,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1507,7 +1509,7 @@
       <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="73" t="s">
         <v>19</v>
       </c>
@@ -1525,15 +1527,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1545,15 +1547,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="62" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1565,15 +1567,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="62" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1585,15 +1587,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="62" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1605,15 +1607,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="62" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1625,15 +1627,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="62" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1648,16 +1650,16 @@
       <c r="C20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="62" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1672,14 +1674,14 @@
       <c r="C21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1694,7 +1696,7 @@
       <c r="C22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="70"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1714,7 +1716,7 @@
       <c r="C23" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="8"/>
       <c r="F23" s="73" t="s">
         <v>78</v>
@@ -1734,16 +1736,16 @@
       <c r="C24" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1756,12 +1758,12 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="70"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1774,14 +1776,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1796,14 +1798,14 @@
       <c r="C27" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="65" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1816,7 +1818,7 @@
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="57"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
@@ -1832,12 +1834,12 @@
       <c r="C29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="18" t="s">
         <v>74</v>
       </c>
@@ -1849,15 +1851,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="18" t="s">
         <v>84</v>
       </c>
@@ -1869,8 +1871,8 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="57"/>
       <c r="F31" s="73" t="s">
         <v>79</v>
@@ -1889,15 +1891,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="57"/>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1907,15 +1909,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="70"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="37" t="s">
         <v>81</v>
       </c>
@@ -1927,19 +1929,19 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="71" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="54" t="s">
         <v>82</v>
       </c>
@@ -1951,15 +1953,15 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="47"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,7 +1971,7 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="47"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
@@ -1985,7 +1987,7 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
@@ -2001,7 +2003,7 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="47"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
@@ -2019,7 +2021,7 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="47"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
@@ -2037,7 +2039,7 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="71"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="48"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
@@ -2098,7 +2100,7 @@
       <c r="C43" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="62" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="57"/>
@@ -2116,7 +2118,7 @@
         <v>43293</v>
       </c>
       <c r="C44" s="47"/>
-      <c r="D44" s="70"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="57"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
@@ -2132,7 +2134,7 @@
         <v>43294</v>
       </c>
       <c r="C45" s="47"/>
-      <c r="D45" s="70"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="57"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
@@ -2148,7 +2150,7 @@
         <v>43295</v>
       </c>
       <c r="C46" s="47"/>
-      <c r="D46" s="70"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="57"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
@@ -2164,7 +2166,7 @@
         <v>43296</v>
       </c>
       <c r="C47" s="47"/>
-      <c r="D47" s="70"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="58"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
@@ -2180,7 +2182,7 @@
         <v>43297</v>
       </c>
       <c r="C48" s="48"/>
-      <c r="D48" s="70"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2192,7 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="62" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="80" t="s">
@@ -2205,7 +2207,7 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="70"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="81"/>
       <c r="E50" s="8"/>
     </row>
@@ -2216,7 +2218,7 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="70"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="81"/>
       <c r="E51" s="8"/>
     </row>
@@ -2227,7 +2229,7 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="70"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="81"/>
       <c r="E52" s="8"/>
     </row>
@@ -2238,7 +2240,7 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="70"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="81"/>
       <c r="E53" s="8"/>
     </row>
@@ -2249,7 +2251,7 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="70"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="81"/>
       <c r="E54" s="8"/>
     </row>
@@ -2260,7 +2262,7 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="70"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="81"/>
       <c r="E55" s="8"/>
     </row>
@@ -2271,7 +2273,7 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="70"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="81"/>
       <c r="E56" s="8"/>
     </row>
@@ -2282,7 +2284,7 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="70"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="81"/>
       <c r="E57" s="8"/>
     </row>
@@ -2293,7 +2295,7 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="70"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="81"/>
       <c r="E58" s="8"/>
     </row>
@@ -2304,7 +2306,7 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="70"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="81"/>
       <c r="E59" s="8"/>
     </row>
@@ -2315,7 +2317,7 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="70"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="81"/>
       <c r="E60" s="8"/>
     </row>
@@ -2326,7 +2328,7 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="71"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="81"/>
       <c r="E61" s="8"/>
     </row>
@@ -2421,7 +2423,7 @@
       <c r="C69" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="62" t="s">
         <v>103</v>
       </c>
       <c r="E69" s="23"/>
@@ -2434,7 +2436,7 @@
         <v>43319</v>
       </c>
       <c r="C70" s="60"/>
-      <c r="D70" s="70"/>
+      <c r="D70" s="71"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2445,7 +2447,7 @@
         <v>43320</v>
       </c>
       <c r="C71" s="60"/>
-      <c r="D71" s="70"/>
+      <c r="D71" s="71"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,7 +2458,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="60"/>
-      <c r="D72" s="70"/>
+      <c r="D72" s="71"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2467,7 +2469,7 @@
         <v>43322</v>
       </c>
       <c r="C73" s="60"/>
-      <c r="D73" s="70"/>
+      <c r="D73" s="71"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,7 +2480,7 @@
         <v>43323</v>
       </c>
       <c r="C74" s="60"/>
-      <c r="D74" s="70"/>
+      <c r="D74" s="71"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2489,7 +2491,7 @@
         <v>43324</v>
       </c>
       <c r="C75" s="60"/>
-      <c r="D75" s="70"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,7 +2502,7 @@
         <v>43325</v>
       </c>
       <c r="C76" s="60"/>
-      <c r="D76" s="70"/>
+      <c r="D76" s="71"/>
       <c r="E76" s="56" t="s">
         <v>73</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>43326</v>
       </c>
       <c r="C77" s="60"/>
-      <c r="D77" s="70"/>
+      <c r="D77" s="71"/>
       <c r="E77" s="57"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2524,7 +2526,7 @@
         <v>43327</v>
       </c>
       <c r="C78" s="60"/>
-      <c r="D78" s="70"/>
+      <c r="D78" s="71"/>
       <c r="E78" s="57"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2535,7 +2537,7 @@
         <v>43328</v>
       </c>
       <c r="C79" s="60"/>
-      <c r="D79" s="70"/>
+      <c r="D79" s="71"/>
       <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,7 +2548,7 @@
         <v>43329</v>
       </c>
       <c r="C80" s="60"/>
-      <c r="D80" s="70"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="57"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,7 +2559,7 @@
         <v>43330</v>
       </c>
       <c r="C81" s="60"/>
-      <c r="D81" s="70"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="57"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2568,7 +2570,7 @@
         <v>43331</v>
       </c>
       <c r="C82" s="61"/>
-      <c r="D82" s="71"/>
+      <c r="D82" s="72"/>
       <c r="E82" s="58"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,7 +2747,7 @@
       <c r="C97" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="72" t="s">
+      <c r="D97" s="62" t="s">
         <v>83</v>
       </c>
       <c r="E97" s="8"/>
@@ -3063,7 +3065,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
@@ -3220,85 +3222,85 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="C151" s="79" t="s">
+      <c r="C151" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-      <c r="E152" s="78"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="C153" s="78"/>
-      <c r="D153" s="78"/>
-      <c r="E153" s="78"/>
+      <c r="C153" s="79"/>
+      <c r="D153" s="79"/>
+      <c r="E153" s="79"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="C154" s="78"/>
-      <c r="D154" s="78"/>
-      <c r="E154" s="78"/>
+      <c r="C154" s="79"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="C155" s="78"/>
-      <c r="D155" s="78"/>
-      <c r="E155" s="78"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="C156" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" s="78"/>
-      <c r="E156" s="78"/>
+        <v>107</v>
+      </c>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="C157" s="78"/>
-      <c r="D157" s="78"/>
-      <c r="E157" s="78"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="C158" s="78"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="78"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="C159" s="78"/>
-      <c r="D159" s="78"/>
-      <c r="E159" s="78"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="C160" s="78"/>
-      <c r="D160" s="78"/>
-      <c r="E160" s="78"/>
+      <c r="C160" s="79"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="C161" s="78"/>
-      <c r="D161" s="78"/>
-      <c r="E161" s="78"/>
+      <c r="C161" s="79"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="79"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="C162" s="78"/>
-      <c r="D162" s="78"/>
-      <c r="E162" s="78"/>
+      <c r="C162" s="79"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="C163" s="78"/>
-      <c r="D163" s="78"/>
-      <c r="E163" s="78"/>
+      <c r="C163" s="79"/>
+      <c r="D163" s="79"/>
+      <c r="E163" s="79"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -187,10 +187,6 @@
   <si>
     <t>SNMP
 Centreon Doc</t>
-  </si>
-  <si>
-    <t>Intégration Alertes +
-Sondes Centreon</t>
   </si>
   <si>
     <t>Graylog reporting API Doc</t>
@@ -395,6 +391,9 @@
     <t>Kickstar - plymouth - kickseed - X - anaconda
 Awx - spacewalk - ansible - docker - portainer.io
 Varnish RAM caching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration Alertes </t>
   </si>
 </sst>
 </file>
@@ -815,6 +814,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -824,6 +835,66 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,84 +917,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1234,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,10 +1250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1264,12 +1263,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1287,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>26</v>
@@ -1323,7 +1322,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="13"/>
       <c r="F4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1346,7 +1345,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>29</v>
@@ -1359,13 +1358,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1385,9 +1384,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1403,9 +1402,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1424,10 +1423,10 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1446,10 +1445,10 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1466,8 +1465,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1486,8 +1485,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1503,19 +1502,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="73" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1527,15 +1526,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="63" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1547,15 +1546,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="63" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1567,15 +1566,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="63" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1587,15 +1586,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="63" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1607,15 +1606,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="63" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1627,15 +1626,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="63" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1648,18 +1647,18 @@
         <v>43269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1672,16 +1671,16 @@
         <v>43270</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="71"/>
+        <v>63</v>
+      </c>
+      <c r="D21" s="49"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="F21" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1694,9 +1693,9 @@
         <v>43271</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="71"/>
+        <v>66</v>
+      </c>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1714,16 +1713,16 @@
         <v>43272</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="71"/>
+        <v>68</v>
+      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
+      <c r="F23" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1734,18 +1733,18 @@
         <v>43273</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="71"/>
+        <v>69</v>
+      </c>
+      <c r="D24" s="49"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="F24" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1758,12 +1757,12 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="71"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1776,14 +1775,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="71"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="F26" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1796,16 +1795,16 @@
         <v>43276</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1816,10 +1815,10 @@
         <v>43277</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="54"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1832,16 +1831,16 @@
         <v>43278</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
+        <v>67</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,17 +1850,17 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1871,15 +1870,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="18" t="s">
         <v>49</v>
       </c>
@@ -1891,15 +1890,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,17 +1908,17 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1929,21 +1928,21 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>88</v>
+      <c r="C34" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="54" t="s">
-        <v>82</v>
+      <c r="F34" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="78" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,16 +1952,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="55"/>
+      <c r="F35" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="79"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1971,14 +1970,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="55"/>
+      <c r="J36" s="79"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1987,14 +1986,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="55"/>
+      <c r="J37" s="79"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2003,15 +2002,15 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2021,15 +2020,15 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="47"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2039,15 +2038,15 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="36"/>
       <c r="J40" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,8 +2060,8 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="56" t="s">
-        <v>73</v>
+      <c r="E41" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2078,12 +2077,12 @@
         <v>43291</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="57"/>
+        <v>89</v>
+      </c>
+      <c r="E42" s="54"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2097,13 +2096,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="57"/>
+      <c r="C43" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="54"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2117,9 +2116,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="57"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2133,9 +2132,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="57"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2149,9 +2148,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="57"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2165,9 +2164,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="58"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2181,8 +2180,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="71"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,11 +2191,11 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>100</v>
+      <c r="C49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>99</v>
       </c>
       <c r="E49" s="8"/>
     </row>
@@ -2207,8 +2206,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="81"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,8 +2217,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="81"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2229,8 +2228,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="81"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,8 +2239,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="81"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,8 +2250,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="81"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2262,8 +2261,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="81"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,8 +2272,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="81"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2284,8 +2283,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="81"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,8 +2294,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="81"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,8 +2305,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="81"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2317,8 +2316,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="81"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,8 +2327,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="81"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,10 +2338,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="81"/>
+      <c r="C62" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="58"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2352,8 +2351,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="81"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="58"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,10 +2362,10 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="81"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,8 +2375,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="81"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,8 +2386,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="81"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2398,8 +2397,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="81"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,8 +2408,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="58"/>
-      <c r="D68" s="82"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,11 +2419,11 @@
       <c r="B69" s="6">
         <v>43318</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="62" t="s">
-        <v>103</v>
+      <c r="D69" s="80" t="s">
+        <v>102</v>
       </c>
       <c r="E69" s="23"/>
     </row>
@@ -2435,8 +2434,8 @@
       <c r="B70" s="6">
         <v>43319</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="71"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,8 +2445,8 @@
       <c r="B71" s="6">
         <v>43320</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="71"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2457,8 +2456,8 @@
       <c r="B72" s="6">
         <v>43321</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="71"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,8 +2467,8 @@
       <c r="B73" s="6">
         <v>43322</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="71"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,8 +2478,8 @@
       <c r="B74" s="6">
         <v>43323</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="71"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,8 +2489,8 @@
       <c r="B75" s="6">
         <v>43324</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="71"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2501,10 +2500,10 @@
       <c r="B76" s="6">
         <v>43325</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="56" t="s">
-        <v>73</v>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="53" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,9 +2513,9 @@
       <c r="B77" s="6">
         <v>43326</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="57"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="54"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2525,9 +2524,9 @@
       <c r="B78" s="6">
         <v>43327</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="57"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -2536,9 +2535,9 @@
       <c r="B79" s="6">
         <v>43328</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="57"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -2547,9 +2546,9 @@
       <c r="B80" s="6">
         <v>43329</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="57"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="54"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -2558,9 +2557,9 @@
       <c r="B81" s="6">
         <v>43330</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="57"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="54"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -2569,9 +2568,9 @@
       <c r="B82" s="6">
         <v>43331</v>
       </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="58"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="55"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -2580,11 +2579,11 @@
       <c r="B83" s="6">
         <v>43332</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="59" t="s">
-        <v>56</v>
+      <c r="D83" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2595,8 +2594,8 @@
       <c r="B84" s="6">
         <v>43333</v>
       </c>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,8 +2605,8 @@
       <c r="B85" s="6">
         <v>43334</v>
       </c>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,8 +2616,8 @@
       <c r="B86" s="6">
         <v>43335</v>
       </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2628,8 +2627,8 @@
       <c r="B87" s="6">
         <v>43336</v>
       </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2639,8 +2638,8 @@
       <c r="B88" s="6">
         <v>43337</v>
       </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,8 +2649,8 @@
       <c r="B89" s="6">
         <v>43338</v>
       </c>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2661,11 +2660,11 @@
       <c r="B90" s="6">
         <v>43339</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="80" t="s">
         <v>57</v>
-      </c>
-      <c r="D90" s="59" t="s">
-        <v>58</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2676,8 +2675,8 @@
       <c r="B91" s="6">
         <v>43340</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,8 +2686,8 @@
       <c r="B92" s="6">
         <v>43341</v>
       </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2698,8 +2697,8 @@
       <c r="B93" s="6">
         <v>43342</v>
       </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,8 +2708,8 @@
       <c r="B94" s="6">
         <v>43343</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,10 +2719,10 @@
       <c r="B95" s="6">
         <v>43344</v>
       </c>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,8 +2732,8 @@
       <c r="B96" s="6">
         <v>43345</v>
       </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,11 +2743,11 @@
       <c r="B97" s="6">
         <v>43346</v>
       </c>
-      <c r="C97" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="62" t="s">
-        <v>83</v>
+      <c r="C97" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2759,8 +2758,8 @@
       <c r="B98" s="6">
         <v>43347</v>
       </c>
-      <c r="C98" s="57"/>
-      <c r="D98" s="50"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="74"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,8 +2769,8 @@
       <c r="B99" s="6">
         <v>43348</v>
       </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="50"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="74"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,8 +2780,8 @@
       <c r="B100" s="6">
         <v>43349</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="50"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="74"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,8 +2791,8 @@
       <c r="B101" s="6">
         <v>43350</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="50"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="74"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,8 +2802,8 @@
       <c r="B102" s="6">
         <v>43351</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="50"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="74"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,8 +2813,8 @@
       <c r="B103" s="6">
         <v>43352</v>
       </c>
-      <c r="C103" s="58"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="75"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2825,11 +2824,11 @@
       <c r="B104" s="6">
         <v>43353</v>
       </c>
-      <c r="C104" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104" s="59" t="s">
-        <v>60</v>
+      <c r="C104" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="80" t="s">
+        <v>59</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2840,8 +2839,8 @@
       <c r="B105" s="6">
         <v>43354</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,8 +2850,8 @@
       <c r="B106" s="6">
         <v>43355</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,8 +2861,8 @@
       <c r="B107" s="6">
         <v>43356</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,8 +2872,8 @@
       <c r="B108" s="6">
         <v>43357</v>
       </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,8 +2883,8 @@
       <c r="B109" s="6">
         <v>43358</v>
       </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,8 +2894,8 @@
       <c r="B110" s="6">
         <v>43359</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="58"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,9 +2905,9 @@
       <c r="B111" s="6">
         <v>43360</v>
       </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="59" t="s">
-        <v>96</v>
+      <c r="C111" s="54"/>
+      <c r="D111" s="80" t="s">
+        <v>95</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -2919,8 +2918,8 @@
       <c r="B112" s="6">
         <v>43361</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,8 +2929,8 @@
       <c r="B113" s="6">
         <v>43362</v>
       </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,8 +2940,8 @@
       <c r="B114" s="6">
         <v>43363</v>
       </c>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,8 +2951,8 @@
       <c r="B115" s="6">
         <v>43364</v>
       </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,8 +2962,8 @@
       <c r="B116" s="6">
         <v>43365</v>
       </c>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,8 +2973,8 @@
       <c r="B117" s="6">
         <v>43366</v>
       </c>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,11 +2984,11 @@
       <c r="B118" s="6">
         <v>43367</v>
       </c>
-      <c r="C118" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="49" t="s">
-        <v>83</v>
+      <c r="C118" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -3000,8 +2999,8 @@
       <c r="B119" s="6">
         <v>43368</v>
       </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,8 +3010,8 @@
       <c r="B120" s="6">
         <v>43369</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3022,8 +3021,8 @@
       <c r="B121" s="6">
         <v>43370</v>
       </c>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,10 +3032,10 @@
       <c r="B122" s="6">
         <v>43371</v>
       </c>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
       <c r="E122" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,8 +3045,8 @@
       <c r="B123" s="6">
         <v>43372</v>
       </c>
-      <c r="C123" s="50"/>
-      <c r="D123" s="50"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,250 +3056,250 @@
       <c r="B124" s="6">
         <v>43373</v>
       </c>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
+      <c r="C124" s="75"/>
+      <c r="D124" s="75"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
+      <c r="C125" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="53"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="53"/>
-      <c r="E130" s="53"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="53"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="53"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="53"/>
-      <c r="E137" s="53"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="53"/>
-      <c r="E138" s="53"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="53"/>
-      <c r="E139" s="53"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="53"/>
-      <c r="E141" s="53"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="53"/>
-      <c r="E142" s="53"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="53"/>
-      <c r="E143" s="53"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="53"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="53"/>
-      <c r="E145" s="53"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="53"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="53"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="53"/>
-      <c r="E149" s="53"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="53"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="C151" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
+      <c r="C151" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="C154" s="79"/>
-      <c r="D154" s="79"/>
-      <c r="E154" s="79"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="C155" s="79"/>
-      <c r="D155" s="79"/>
-      <c r="E155" s="79"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="47"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="C156" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
+      <c r="C156" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="C160" s="79"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="79"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="79"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="C162" s="79"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="79"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="79"/>
+      <c r="C163" s="47"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -3559,20 +3558,34 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C156:E163"/>
-    <mergeCell ref="C151:E155"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C49:C61"/>
-    <mergeCell ref="D69:D82"/>
-    <mergeCell ref="D49:D68"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="C125:E150"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C117"/>
+    <mergeCell ref="C69:C82"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D19"/>
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F25:I25"/>
@@ -3589,34 +3602,20 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="C125:E150"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C117"/>
-    <mergeCell ref="C69:C82"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C156:E163"/>
+    <mergeCell ref="C151:E155"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="C49:C61"/>
+    <mergeCell ref="D69:D82"/>
+    <mergeCell ref="D49:D68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Organisation.xlsx
+++ b/Organisation.xlsx
@@ -361,13 +361,21 @@
     <t>httpd sftpd vsftpd</t>
   </si>
   <si>
+    <t>Kickstar - plymouth - kickseed - X - anaconda
+Awx - spacewalk - ansible - docker - portainer.io
+Varnish RAM caching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration Alertes </t>
+  </si>
+  <si>
     <t xml:space="preserve">Refaire ce tableau avec action1=théorie action2=pratique
 Livres Home
 Certifications
 GNS3 (exos goffinet)
 Check scripts d'Init - Systemd
 -
-Grep - Sed - awk - python - C système
+Grep - Sed - awk - C système
 Dbus - Inetd - kswapd - udev
 -
 Bareos
@@ -386,14 +394,6 @@
 -
 Machine learning
 </t>
-  </si>
-  <si>
-    <t>Kickstar - plymouth - kickseed - X - anaconda
-Awx - spacewalk - ansible - docker - portainer.io
-Varnish RAM caching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intégration Alertes </t>
   </si>
 </sst>
 </file>
@@ -814,39 +814,108 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,75 +923,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,10 +1250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1263,12 +1263,12 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1358,13 +1358,13 @@
       <c r="B6" s="6">
         <v>43255</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="68" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1384,9 +1384,9 @@
       <c r="B7" s="6">
         <v>43256</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1402,9 +1402,9 @@
       <c r="B8" s="6">
         <v>43257</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1423,8 +1423,8 @@
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10" t="s">
         <v>104</v>
       </c>
@@ -1445,8 +1445,8 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1465,8 +1465,8 @@
         <v>43260</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1485,8 +1485,8 @@
         <v>43261</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1502,19 +1502,19 @@
       <c r="B13" s="6">
         <v>43262</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="60" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
@@ -1526,15 +1526,15 @@
       <c r="B14" s="6">
         <v>43263</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="62" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1546,15 +1546,15 @@
       <c r="B15" s="6">
         <v>43264</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="62" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1566,15 +1566,15 @@
       <c r="B16" s="6">
         <v>43265</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="62" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1586,15 +1586,15 @@
       <c r="B17" s="6">
         <v>43266</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="62" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1606,15 +1606,15 @@
       <c r="B18" s="6">
         <v>43267</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="62" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
       </c>
@@ -1626,15 +1626,15 @@
       <c r="B19" s="6">
         <v>43268</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="62" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
@@ -1649,16 +1649,16 @@
       <c r="C20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="62" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="18" t="s">
         <v>42</v>
       </c>
@@ -1673,14 +1673,14 @@
       <c r="C21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="18" t="s">
         <v>43</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="C22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="8"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -1715,14 +1715,14 @@
       <c r="C23" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="68"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,16 +1735,16 @@
       <c r="C24" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1757,12 +1757,12 @@
         <v>43274</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
@@ -1775,14 +1775,14 @@
         <v>43275</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
@@ -1797,14 +1797,14 @@
       <c r="C27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1817,8 +1817,8 @@
       <c r="C28" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="54"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="57"/>
       <c r="J28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1833,12 +1833,12 @@
       <c r="C29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="18" t="s">
         <v>73</v>
       </c>
@@ -1850,15 +1850,15 @@
       <c r="B30" s="6">
         <v>43279</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="18" t="s">
         <v>83</v>
       </c>
@@ -1870,15 +1870,15 @@
       <c r="B31" s="6">
         <v>43280</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="60" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="18" t="s">
         <v>49</v>
       </c>
@@ -1890,15 +1890,15 @@
       <c r="B32" s="6">
         <v>43281</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="62" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1908,15 +1908,15 @@
       <c r="B33" s="6">
         <v>43282</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="62" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="37" t="s">
         <v>80</v>
       </c>
@@ -1928,20 +1928,20 @@
       <c r="B34" s="6">
         <v>43283</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="78" t="s">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="54" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1952,16 +1952,16 @@
       <c r="B35" s="6">
         <v>43284</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="79"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1970,14 +1970,14 @@
       <c r="B36" s="6">
         <v>43285</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="8"/>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="79"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1986,14 +1986,14 @@
       <c r="B37" s="6">
         <v>43286</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="43"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="79"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2002,8 +2002,8 @@
       <c r="B38" s="6">
         <v>43287</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="51"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
@@ -2020,8 +2020,8 @@
       <c r="B39" s="6">
         <v>43288</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -2038,8 +2038,8 @@
       <c r="B40" s="6">
         <v>43289</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="52"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
@@ -2060,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="56" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="10"/>
@@ -2082,7 +2082,7 @@
       <c r="D42" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2096,13 +2096,13 @@
       <c r="B43" s="6">
         <v>43292</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2116,9 +2116,9 @@
       <c r="B44" s="6">
         <v>43293</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="54"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2132,9 +2132,9 @@
       <c r="B45" s="6">
         <v>43294</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="54"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2148,9 +2148,9 @@
       <c r="B46" s="6">
         <v>43295</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="54"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2164,9 +2164,9 @@
       <c r="B47" s="6">
         <v>43296</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="55"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2180,8 +2180,8 @@
       <c r="B48" s="6">
         <v>43297</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,10 +2191,10 @@
       <c r="B49" s="6">
         <v>43298</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="80" t="s">
         <v>99</v>
       </c>
       <c r="E49" s="8"/>
@@ -2206,8 +2206,8 @@
       <c r="B50" s="6">
         <v>43299</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,8 +2217,8 @@
       <c r="B51" s="6">
         <v>43300</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="58"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,8 +2228,8 @@
       <c r="B52" s="6">
         <v>43301</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,8 +2239,8 @@
       <c r="B53" s="6">
         <v>43302</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2250,8 +2250,8 @@
       <c r="B54" s="6">
         <v>43303</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="81"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,8 +2261,8 @@
       <c r="B55" s="6">
         <v>43304</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="58"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,8 +2272,8 @@
       <c r="B56" s="6">
         <v>43305</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,8 +2283,8 @@
       <c r="B57" s="6">
         <v>43306</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="81"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,8 +2294,8 @@
       <c r="B58" s="6">
         <v>43307</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,8 +2305,8 @@
       <c r="B59" s="6">
         <v>43308</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,8 +2316,8 @@
       <c r="B60" s="6">
         <v>43309</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,8 +2327,8 @@
       <c r="B61" s="6">
         <v>43310</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,10 +2338,10 @@
       <c r="B62" s="6">
         <v>43311</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="58"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2351,8 +2351,8 @@
       <c r="B63" s="6">
         <v>43312</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="58"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2362,8 +2362,8 @@
       <c r="B64" s="6">
         <v>43313</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="58"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="81"/>
       <c r="E64" s="8" t="s">
         <v>84</v>
       </c>
@@ -2375,8 +2375,8 @@
       <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="58"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,8 +2386,8 @@
       <c r="B66" s="6">
         <v>43315</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="58"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,8 +2397,8 @@
       <c r="B67" s="6">
         <v>43316</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="58"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,8 +2408,8 @@
       <c r="B68" s="6">
         <v>43317</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="59"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="82"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,10 +2419,10 @@
       <c r="B69" s